--- a/inst/xls_xls_dic.xlsx
+++ b/inst/xls_xls_dic.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7904" uniqueCount="2368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7891" uniqueCount="2381">
   <si>
     <t>colname</t>
   </si>
@@ -7052,9 +7052,6 @@
     <t>pattern_of_spreading</t>
   </si>
   <si>
-    <t>q_48a_t</t>
-  </si>
-  <si>
     <t>multiple_variants</t>
   </si>
   <si>
@@ -7119,6 +7116,48 @@
   </si>
   <si>
     <t>q_99.b7</t>
+  </si>
+  <si>
+    <t>q_48a_r:q_48a_t</t>
+  </si>
+  <si>
+    <t>q_48b_r:q_48b_t</t>
+  </si>
+  <si>
+    <t>q_48c_r:q_48c_t</t>
+  </si>
+  <si>
+    <t>q_48d_r:q_48d_t</t>
+  </si>
+  <si>
+    <t>q_48e_r:q_48e_t</t>
+  </si>
+  <si>
+    <t>q_48f_r:q_48f_t</t>
+  </si>
+  <si>
+    <t>q_48g_r:q_48g_t</t>
+  </si>
+  <si>
+    <t>q_48h_r:q_48h_t</t>
+  </si>
+  <si>
+    <t>q_48i_r:q_48i_t</t>
+  </si>
+  <si>
+    <t>q_48j_r:q_48j_t</t>
+  </si>
+  <si>
+    <t>q_48k_r:q_48k_t</t>
+  </si>
+  <si>
+    <t>q_48l_r:q_48l_t</t>
+  </si>
+  <si>
+    <t>q_48m_r:q_48m_t</t>
+  </si>
+  <si>
+    <t>q_64_1:q_64_7</t>
   </si>
 </sst>
 </file>
@@ -7195,12 +7234,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -7625,8 +7663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
-      <selection activeCell="K364" sqref="K364"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="J156" sqref="J156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -12848,53 +12886,51 @@
       <c r="C90" t="s">
         <v>1208</v>
       </c>
-      <c r="D90" s="3" t="str">
+      <c r="D90" s="3" t="e">
         <f t="shared" ca="1" si="74"/>
-        <v>1st region</v>
+        <v>#N/A</v>
       </c>
       <c r="E90" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="3" t="str">
+      <c r="F90" s="3" t="e">
         <f t="shared" ca="1" si="70"/>
-        <v>factor</v>
+        <v>#N/A</v>
       </c>
       <c r="G90" t="s">
         <v>1209</v>
       </c>
-      <c r="H90" s="3" t="str">
+      <c r="H90" s="3" t="e">
         <f t="shared" ca="1" si="71"/>
-        <v>1="1 Oro-facial";2="2 Right Upper limb – distal and proximal";3="2a Right Upper limb – distal";4="2b Right Upper limb – proximal";5="3 Left Upper limb – distal and proximal";6="3a Left Upper limb – distal";7="3b Left Upper limb – proximal";8="4 Right Lower limb – distal and proximal";9="4a Right Lower limb – distal";10="4b Right Lower limb – proximal";11="5 Left Lower limb – distal and proximal";12="5a Left Lower limb – distal";13="5b Left Lower limb – proximal";14="6 Respiratory symptoms";15="7 Neck";16="8 Thoracic/abdomen";17="9 Dyscognition"</v>
+        <v>#N/A</v>
       </c>
       <c r="I90" s="1"/>
-      <c r="J90" s="5" t="s">
-        <v>706</v>
+      <c r="J90" s="49" t="s">
+        <v>2367</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>2344</v>
       </c>
-      <c r="L90" s="6" t="s">
-        <v>2345</v>
-      </c>
+      <c r="L90" s="5"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
-      <c r="Q90" s="1">
+      <c r="Q90" s="1" t="e">
         <f t="shared" ca="1" si="72"/>
-        <v>91</v>
-      </c>
-      <c r="R90" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R90" t="e">
         <f t="shared" ref="R90:T90" ca="1" si="97">IF(Q90&lt;&gt;"",INDEX(INDIRECT(R$2),$Q90),"")</f>
-        <v>1st region</v>
-      </c>
-      <c r="S90" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S90" t="e">
         <f t="shared" ca="1" si="97"/>
-        <v>factor</v>
-      </c>
-      <c r="T90" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T90" t="e">
         <f t="shared" ca="1" si="97"/>
-        <v>1="1 Oro-facial";2="2 Right Upper limb – distal and proximal";3="2a Right Upper limb – distal";4="2b Right Upper limb – proximal";5="3 Left Upper limb – distal and proximal";6="3a Left Upper limb – distal";7="3b Left Upper limb – proximal";8="4 Right Lower limb – distal and proximal";9="4a Right Lower limb – distal";10="4b Right Lower limb – proximal";11="5 Left Lower limb – distal and proximal";12="5a Left Lower limb – distal";13="5b Left Lower limb – proximal";14="6 Respiratory symptoms";15="7 Neck";16="8 Thoracic/abdomen";17="9 Dyscognition"</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -12907,53 +12943,51 @@
       <c r="C91" t="s">
         <v>1211</v>
       </c>
-      <c r="D91" s="3" t="str">
+      <c r="D91" s="3" t="e">
         <f t="shared" ca="1" si="74"/>
-        <v>2nd region</v>
+        <v>#N/A</v>
       </c>
       <c r="E91" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3" t="str">
+      <c r="F91" s="3" t="e">
         <f t="shared" ca="1" si="70"/>
-        <v>labelled</v>
+        <v>#N/A</v>
       </c>
       <c r="G91" t="s">
         <v>1209</v>
       </c>
-      <c r="H91" s="3" t="str">
+      <c r="H91" s="3" t="e">
         <f t="shared" ca="1" si="71"/>
-        <v>1="1 Oro-facial";2="2 Right Upper limb – distal and proximal";3="2a Right Upper limb – distal";4="2b Right Upper limb – proximal";5="3 Left Upper limb – distal and proximal";6="3a Left Upper limb – distal";7="3b Left Upper limb – proximal";8="4 Right Lower limb – distal and proximal";9="4a Right Lower limb – distal";10="4b Right Lower limb – proximal";11="5 Left Lower limb – distal and proximal";12="5a Left Lower limb – distal";13="5b Left Lower limb – proximal";14="6 Respiratory symptoms";15="7 Neck";16="8 Thoracic/abdomen";17="9 Dyscognition"</v>
+        <v>#N/A</v>
       </c>
       <c r="I91" s="1"/>
       <c r="J91" s="1" t="s">
-        <v>707</v>
+        <v>2368</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>2344</v>
       </c>
-      <c r="L91" s="1" t="s">
-        <v>708</v>
-      </c>
+      <c r="L91" s="1"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
-      <c r="Q91" s="1">
+      <c r="Q91" s="1" t="e">
         <f t="shared" ca="1" si="72"/>
-        <v>92</v>
-      </c>
-      <c r="R91" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R91" t="e">
         <f t="shared" ref="R91:T91" ca="1" si="98">IF(Q91&lt;&gt;"",INDEX(INDIRECT(R$2),$Q91),"")</f>
-        <v>2nd region</v>
-      </c>
-      <c r="S91" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S91" t="e">
         <f t="shared" ca="1" si="98"/>
-        <v>labelled</v>
-      </c>
-      <c r="T91" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T91" t="e">
         <f t="shared" ca="1" si="98"/>
-        <v>1="1 Oro-facial";2="2 Right Upper limb – distal and proximal";3="2a Right Upper limb – distal";4="2b Right Upper limb – proximal";5="3 Left Upper limb – distal and proximal";6="3a Left Upper limb – distal";7="3b Left Upper limb – proximal";8="4 Right Lower limb – distal and proximal";9="4a Right Lower limb – distal";10="4b Right Lower limb – proximal";11="5 Left Lower limb – distal and proximal";12="5a Left Lower limb – distal";13="5b Left Lower limb – proximal";14="6 Respiratory symptoms";15="7 Neck";16="8 Thoracic/abdomen";17="9 Dyscognition"</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -12966,53 +13000,51 @@
       <c r="C92" t="s">
         <v>1213</v>
       </c>
-      <c r="D92" s="3" t="str">
+      <c r="D92" s="3" t="e">
         <f t="shared" ca="1" si="74"/>
-        <v>3rd region</v>
+        <v>#N/A</v>
       </c>
       <c r="E92" t="s">
         <v>8</v>
       </c>
-      <c r="F92" s="3" t="str">
+      <c r="F92" s="3" t="e">
         <f t="shared" ca="1" si="70"/>
-        <v>labelled</v>
+        <v>#N/A</v>
       </c>
       <c r="G92" t="s">
         <v>1209</v>
       </c>
-      <c r="H92" s="3" t="str">
+      <c r="H92" s="3" t="e">
         <f t="shared" ca="1" si="71"/>
-        <v>1="1 Oro-facial";2="2 Right Upper limb – distal and proximal";3="2a Right Upper limb – distal";4="2b Right Upper limb – proximal";5="3 Left Upper limb – distal and proximal";6="3a Left Upper limb – distal";7="3b Left Upper limb – proximal";8="4 Right Lower limb – distal and proximal";9="4a Right Lower limb – distal";10="4b Right Lower limb – proximal";11="5 Left Lower limb – distal and proximal";12="5a Left Lower limb – distal";13="5b Left Lower limb – proximal";14="6 Respiratory symptoms";15="7 Neck";16="8 Thoracic/abdomen";17="9 Dyscognition"</v>
+        <v>#N/A</v>
       </c>
       <c r="I92" s="1"/>
       <c r="J92" s="1" t="s">
-        <v>709</v>
+        <v>2369</v>
       </c>
       <c r="K92" s="1" t="s">
         <v>2344</v>
       </c>
-      <c r="L92" s="1" t="s">
-        <v>710</v>
-      </c>
+      <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
-      <c r="Q92" s="1">
+      <c r="Q92" s="1" t="e">
         <f t="shared" ca="1" si="72"/>
-        <v>94</v>
-      </c>
-      <c r="R92" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R92" t="e">
         <f t="shared" ref="R92:T92" ca="1" si="99">IF(Q92&lt;&gt;"",INDEX(INDIRECT(R$2),$Q92),"")</f>
-        <v>3rd region</v>
-      </c>
-      <c r="S92" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S92" t="e">
         <f t="shared" ca="1" si="99"/>
-        <v>labelled</v>
-      </c>
-      <c r="T92" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T92" t="e">
         <f t="shared" ca="1" si="99"/>
-        <v>1="1 Oro-facial";2="2 Right Upper limb – distal and proximal";3="2a Right Upper limb – distal";4="2b Right Upper limb – proximal";5="3 Left Upper limb – distal and proximal";6="3a Left Upper limb – distal";7="3b Left Upper limb – proximal";8="4 Right Lower limb – distal and proximal";9="4a Right Lower limb – distal";10="4b Right Lower limb – proximal";11="5 Left Lower limb – distal and proximal";12="5a Left Lower limb – distal";13="5b Left Lower limb – proximal";14="6 Respiratory symptoms";15="7 Neck";16="8 Thoracic/abdomen";17="9 Dyscognition"</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -13025,53 +13057,51 @@
       <c r="C93" t="s">
         <v>1215</v>
       </c>
-      <c r="D93" s="3" t="str">
+      <c r="D93" s="3" t="e">
         <f t="shared" ca="1" si="74"/>
-        <v>4th region</v>
+        <v>#N/A</v>
       </c>
       <c r="E93" t="s">
         <v>8</v>
       </c>
-      <c r="F93" s="3" t="str">
+      <c r="F93" s="3" t="e">
         <f t="shared" ca="1" si="70"/>
-        <v>factor</v>
+        <v>#N/A</v>
       </c>
       <c r="G93" t="s">
         <v>1209</v>
       </c>
-      <c r="H93" s="3" t="str">
+      <c r="H93" s="3" t="e">
         <f t="shared" ca="1" si="71"/>
-        <v>1="1 Oro-facial";2="2 Right Upper limb – distal and proximal";3="2a Right Upper limb – distal";4="2b Right Upper limb – proximal";5="3 Left Upper limb – distal and proximal";6="3a Left Upper limb – distal";7="3b Left Upper limb – proximal";8="4 Right Lower limb – distal and proximal";9="4a Right Lower limb – distal";10="4b Right Lower limb – proximal";11="5 Left Lower limb – distal and proximal";12="5a Left Lower limb – distal";13="5b Left Lower limb – proximal";14="6 Respiratory symptoms";15="7 Neck";16="8 Thoracic/abdomen";17="9 Dyscognition"</v>
+        <v>#N/A</v>
       </c>
       <c r="I93" s="1"/>
       <c r="J93" s="1" t="s">
-        <v>711</v>
+        <v>2370</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>2344</v>
       </c>
-      <c r="L93" s="1" t="s">
-        <v>712</v>
-      </c>
+      <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
-      <c r="Q93" s="1">
+      <c r="Q93" s="1" t="e">
         <f t="shared" ca="1" si="72"/>
-        <v>96</v>
-      </c>
-      <c r="R93" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R93" t="e">
         <f t="shared" ref="R93:T93" ca="1" si="100">IF(Q93&lt;&gt;"",INDEX(INDIRECT(R$2),$Q93),"")</f>
-        <v>4th region</v>
-      </c>
-      <c r="S93" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S93" t="e">
         <f t="shared" ca="1" si="100"/>
-        <v>factor</v>
-      </c>
-      <c r="T93" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T93" t="e">
         <f t="shared" ca="1" si="100"/>
-        <v>1="1 Oro-facial";2="2 Right Upper limb – distal and proximal";3="2a Right Upper limb – distal";4="2b Right Upper limb – proximal";5="3 Left Upper limb – distal and proximal";6="3a Left Upper limb – distal";7="3b Left Upper limb – proximal";8="4 Right Lower limb – distal and proximal";9="4a Right Lower limb – distal";10="4b Right Lower limb – proximal";11="5 Left Lower limb – distal and proximal";12="5a Left Lower limb – distal";13="5b Left Lower limb – proximal";14="6 Respiratory symptoms";15="7 Neck";16="8 Thoracic/abdomen";17="9 Dyscognition"</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -13084,53 +13114,51 @@
       <c r="C94" t="s">
         <v>1217</v>
       </c>
-      <c r="D94" s="3" t="str">
+      <c r="D94" s="3" t="e">
         <f t="shared" ca="1" si="74"/>
-        <v>5th region</v>
+        <v>#N/A</v>
       </c>
       <c r="E94" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="3" t="str">
+      <c r="F94" s="3" t="e">
         <f t="shared" ca="1" si="70"/>
-        <v>labelled</v>
+        <v>#N/A</v>
       </c>
       <c r="G94" t="s">
         <v>1209</v>
       </c>
-      <c r="H94" s="3" t="str">
+      <c r="H94" s="3" t="e">
         <f t="shared" ca="1" si="71"/>
-        <v>1="1 Oro-facial";2="2 Right Upper limb – distal and proximal";3="2a Right Upper limb – distal";4="2b Right Upper limb – proximal";5="3 Left Upper limb – distal and proximal";6="3a Left Upper limb – distal";7="3b Left Upper limb – proximal";8="4 Right Lower limb – distal and proximal";9="4a Right Lower limb – distal";10="4b Right Lower limb – proximal";11="5 Left Lower limb – distal and proximal";12="5a Left Lower limb – distal";13="5b Left Lower limb – proximal";14="6 Respiratory symptoms";15="7 Neck";16="8 Thoracic/abdomen";17="9 Dyscognition"</v>
+        <v>#N/A</v>
       </c>
       <c r="I94" s="1"/>
       <c r="J94" s="1" t="s">
-        <v>713</v>
+        <v>2371</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>2344</v>
       </c>
-      <c r="L94" s="1" t="s">
-        <v>714</v>
-      </c>
+      <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
-      <c r="Q94" s="1">
+      <c r="Q94" s="1" t="e">
         <f t="shared" ca="1" si="72"/>
-        <v>98</v>
-      </c>
-      <c r="R94" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R94" t="e">
         <f t="shared" ref="R94:T94" ca="1" si="101">IF(Q94&lt;&gt;"",INDEX(INDIRECT(R$2),$Q94),"")</f>
-        <v>5th region</v>
-      </c>
-      <c r="S94" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S94" t="e">
         <f t="shared" ca="1" si="101"/>
-        <v>labelled</v>
-      </c>
-      <c r="T94" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T94" t="e">
         <f t="shared" ca="1" si="101"/>
-        <v>1="1 Oro-facial";2="2 Right Upper limb – distal and proximal";3="2a Right Upper limb – distal";4="2b Right Upper limb – proximal";5="3 Left Upper limb – distal and proximal";6="3a Left Upper limb – distal";7="3b Left Upper limb – proximal";8="4 Right Lower limb – distal and proximal";9="4a Right Lower limb – distal";10="4b Right Lower limb – proximal";11="5 Left Lower limb – distal and proximal";12="5a Left Lower limb – distal";13="5b Left Lower limb – proximal";14="6 Respiratory symptoms";15="7 Neck";16="8 Thoracic/abdomen";17="9 Dyscognition"</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -13143,53 +13171,51 @@
       <c r="C95" t="s">
         <v>1219</v>
       </c>
-      <c r="D95" s="3" t="str">
+      <c r="D95" s="3" t="e">
         <f t="shared" ca="1" si="74"/>
-        <v>6th region</v>
+        <v>#N/A</v>
       </c>
       <c r="E95" t="s">
         <v>8</v>
       </c>
-      <c r="F95" s="3" t="str">
+      <c r="F95" s="3" t="e">
         <f t="shared" ca="1" si="70"/>
-        <v>labelled</v>
+        <v>#N/A</v>
       </c>
       <c r="G95" t="s">
         <v>1209</v>
       </c>
-      <c r="H95" s="3" t="str">
+      <c r="H95" s="3" t="e">
         <f t="shared" ca="1" si="71"/>
-        <v>1="1 Oro-facial";2="2 Right Upper limb – distal and proximal";3="2a Right Upper limb – distal";4="2b Right Upper limb – proximal";5="3 Left Upper limb – distal and proximal";6="3a Left Upper limb – distal";7="3b Left Upper limb – proximal";8="4 Right Lower limb – distal and proximal";9="4a Right Lower limb – distal";10="4b Right Lower limb – proximal";11="5 Left Lower limb – distal and proximal";12="5a Left Lower limb – distal";13="5b Left Lower limb – proximal";14="6 Respiratory symptoms";15="7 Neck";16="8 Thoracic/abdomen";17="9 Dyscognition"</v>
+        <v>#N/A</v>
       </c>
       <c r="I95" s="1"/>
       <c r="J95" s="1" t="s">
-        <v>715</v>
+        <v>2372</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>2344</v>
       </c>
-      <c r="L95" s="1" t="s">
-        <v>716</v>
-      </c>
+      <c r="L95" s="1"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
-      <c r="Q95" s="1">
+      <c r="Q95" s="1" t="e">
         <f t="shared" ca="1" si="72"/>
-        <v>100</v>
-      </c>
-      <c r="R95" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R95" t="e">
         <f t="shared" ref="R95:T95" ca="1" si="102">IF(Q95&lt;&gt;"",INDEX(INDIRECT(R$2),$Q95),"")</f>
-        <v>6th region</v>
-      </c>
-      <c r="S95" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S95" t="e">
         <f t="shared" ca="1" si="102"/>
-        <v>labelled</v>
-      </c>
-      <c r="T95" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T95" t="e">
         <f t="shared" ca="1" si="102"/>
-        <v>1="1 Oro-facial";2="2 Right Upper limb – distal and proximal";3="2a Right Upper limb – distal";4="2b Right Upper limb – proximal";5="3 Left Upper limb – distal and proximal";6="3a Left Upper limb – distal";7="3b Left Upper limb – proximal";8="4 Right Lower limb – distal and proximal";9="4a Right Lower limb – distal";10="4b Right Lower limb – proximal";11="5 Left Lower limb – distal and proximal";12="5a Left Lower limb – distal";13="5b Left Lower limb – proximal";14="6 Respiratory symptoms";15="7 Neck";16="8 Thoracic/abdomen";17="9 Dyscognition"</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -13202,53 +13228,51 @@
       <c r="C96" t="s">
         <v>1221</v>
       </c>
-      <c r="D96" s="3" t="str">
+      <c r="D96" s="3" t="e">
         <f t="shared" ca="1" si="74"/>
-        <v>7th region</v>
+        <v>#N/A</v>
       </c>
       <c r="E96" t="s">
         <v>8</v>
       </c>
-      <c r="F96" s="3" t="str">
+      <c r="F96" s="3" t="e">
         <f t="shared" ca="1" si="70"/>
-        <v>factor</v>
+        <v>#N/A</v>
       </c>
       <c r="G96" t="s">
         <v>1209</v>
       </c>
-      <c r="H96" s="3" t="str">
+      <c r="H96" s="3" t="e">
         <f t="shared" ca="1" si="71"/>
-        <v>1="1 Oro-facial";2="2 Right Upper limb – distal and proximal";3="2a Right Upper limb – distal";4="2b Right Upper limb – proximal";5="3 Left Upper limb – distal and proximal";6="3a Left Upper limb – distal";7="3b Left Upper limb – proximal";8="4 Right Lower limb – distal and proximal";9="4a Right Lower limb – distal";10="4b Right Lower limb – proximal";11="5 Left Lower limb – distal and proximal";12="5a Left Lower limb – distal";13="5b Left Lower limb – proximal";14="6 Respiratory symptoms";15="7 Neck";16="8 Thoracic/abdomen";17="9 Dyscognition"</v>
+        <v>#N/A</v>
       </c>
       <c r="I96" s="1"/>
       <c r="J96" s="1" t="s">
-        <v>717</v>
+        <v>2373</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>2344</v>
       </c>
-      <c r="L96" s="1" t="s">
-        <v>718</v>
-      </c>
+      <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
-      <c r="Q96" s="1">
+      <c r="Q96" s="1" t="e">
         <f t="shared" ca="1" si="72"/>
-        <v>102</v>
-      </c>
-      <c r="R96" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R96" t="e">
         <f t="shared" ref="R96:T96" ca="1" si="103">IF(Q96&lt;&gt;"",INDEX(INDIRECT(R$2),$Q96),"")</f>
-        <v>7th region</v>
-      </c>
-      <c r="S96" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S96" t="e">
         <f t="shared" ca="1" si="103"/>
-        <v>factor</v>
-      </c>
-      <c r="T96" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T96" t="e">
         <f t="shared" ca="1" si="103"/>
-        <v>1="1 Oro-facial";2="2 Right Upper limb – distal and proximal";3="2a Right Upper limb – distal";4="2b Right Upper limb – proximal";5="3 Left Upper limb – distal and proximal";6="3a Left Upper limb – distal";7="3b Left Upper limb – proximal";8="4 Right Lower limb – distal and proximal";9="4a Right Lower limb – distal";10="4b Right Lower limb – proximal";11="5 Left Lower limb – distal and proximal";12="5a Left Lower limb – distal";13="5b Left Lower limb – proximal";14="6 Respiratory symptoms";15="7 Neck";16="8 Thoracic/abdomen";17="9 Dyscognition"</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -13261,53 +13285,51 @@
       <c r="C97" t="s">
         <v>1223</v>
       </c>
-      <c r="D97" s="3" t="str">
+      <c r="D97" s="3" t="e">
         <f t="shared" ca="1" si="74"/>
-        <v>8th region</v>
+        <v>#N/A</v>
       </c>
       <c r="E97" t="s">
         <v>8</v>
       </c>
-      <c r="F97" s="3" t="str">
+      <c r="F97" s="3" t="e">
         <f t="shared" ca="1" si="70"/>
-        <v>factor</v>
+        <v>#N/A</v>
       </c>
       <c r="G97" t="s">
         <v>1209</v>
       </c>
-      <c r="H97" s="3" t="str">
+      <c r="H97" s="3" t="e">
         <f t="shared" ca="1" si="71"/>
-        <v>1="1 Oro-facial";2="2 Right Upper limb – distal and proximal";3="2a Right Upper limb – distal";4="2b Right Upper limb – proximal";5="3 Left Upper limb – distal and proximal";6="3a Left Upper limb – distal";7="3b Left Upper limb – proximal";8="4 Right Lower limb – distal and proximal";9="4a Right Lower limb – distal";10="4b Right Lower limb – proximal";11="5 Left Lower limb – distal and proximal";12="5a Left Lower limb – distal";13="5b Left Lower limb – proximal";14="6 Respiratory symptoms";15="7 Neck";16="8 Thoracic/abdomen";17="9 Dyscognition"</v>
+        <v>#N/A</v>
       </c>
       <c r="I97" s="1"/>
       <c r="J97" s="1" t="s">
-        <v>719</v>
+        <v>2374</v>
       </c>
       <c r="K97" s="1" t="s">
         <v>2344</v>
       </c>
-      <c r="L97" s="1" t="s">
-        <v>720</v>
-      </c>
+      <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
-      <c r="Q97" s="1">
+      <c r="Q97" s="1" t="e">
         <f t="shared" ca="1" si="72"/>
-        <v>104</v>
-      </c>
-      <c r="R97" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R97" t="e">
         <f t="shared" ref="R97:T97" ca="1" si="104">IF(Q97&lt;&gt;"",INDEX(INDIRECT(R$2),$Q97),"")</f>
-        <v>8th region</v>
-      </c>
-      <c r="S97" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S97" t="e">
         <f t="shared" ca="1" si="104"/>
-        <v>factor</v>
-      </c>
-      <c r="T97" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T97" t="e">
         <f t="shared" ca="1" si="104"/>
-        <v>1="1 Oro-facial";2="2 Right Upper limb – distal and proximal";3="2a Right Upper limb – distal";4="2b Right Upper limb – proximal";5="3 Left Upper limb – distal and proximal";6="3a Left Upper limb – distal";7="3b Left Upper limb – proximal";8="4 Right Lower limb – distal and proximal";9="4a Right Lower limb – distal";10="4b Right Lower limb – proximal";11="5 Left Lower limb – distal and proximal";12="5a Left Lower limb – distal";13="5b Left Lower limb – proximal";14="6 Respiratory symptoms";15="7 Neck";16="8 Thoracic/abdomen";17="9 Dyscognition"</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -13320,53 +13342,51 @@
       <c r="C98" t="s">
         <v>1225</v>
       </c>
-      <c r="D98" s="3" t="str">
+      <c r="D98" s="3" t="e">
         <f t="shared" ca="1" si="74"/>
-        <v>9th region</v>
+        <v>#N/A</v>
       </c>
       <c r="E98" t="s">
         <v>8</v>
       </c>
-      <c r="F98" s="3" t="str">
+      <c r="F98" s="3" t="e">
         <f t="shared" ca="1" si="70"/>
-        <v>factor</v>
+        <v>#N/A</v>
       </c>
       <c r="G98" t="s">
         <v>1209</v>
       </c>
-      <c r="H98" s="3" t="str">
+      <c r="H98" s="3" t="e">
         <f t="shared" ca="1" si="71"/>
-        <v>1="1 Oro-facial";2="2 Right Upper limb – distal and proximal";3="2a Right Upper limb – distal";4="2b Right Upper limb – proximal";5="3 Left Upper limb – distal and proximal";6="3a Left Upper limb – distal";7="3b Left Upper limb – proximal";8="4 Right Lower limb – distal and proximal";9="4a Right Lower limb – distal";10="4b Right Lower limb – proximal";11="5 Left Lower limb – distal and proximal";12="5a Left Lower limb – distal";13="5b Left Lower limb – proximal";14="6 Respiratory symptoms";15="7 Neck";16="8 Thoracic/abdomen";17="9 Dyscognition"</v>
+        <v>#N/A</v>
       </c>
       <c r="I98" s="1"/>
       <c r="J98" s="1" t="s">
-        <v>721</v>
+        <v>2375</v>
       </c>
       <c r="K98" s="1" t="s">
         <v>2344</v>
       </c>
-      <c r="L98" s="1" t="s">
-        <v>722</v>
-      </c>
+      <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
-      <c r="Q98" s="1">
+      <c r="Q98" s="1" t="e">
         <f t="shared" ca="1" si="72"/>
-        <v>106</v>
-      </c>
-      <c r="R98" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R98" t="e">
         <f t="shared" ref="R98:T98" ca="1" si="105">IF(Q98&lt;&gt;"",INDEX(INDIRECT(R$2),$Q98),"")</f>
-        <v>9th region</v>
-      </c>
-      <c r="S98" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S98" t="e">
         <f t="shared" ca="1" si="105"/>
-        <v>factor</v>
-      </c>
-      <c r="T98" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T98" t="e">
         <f t="shared" ca="1" si="105"/>
-        <v>1="1 Oro-facial";2="2 Right Upper limb – distal and proximal";3="2a Right Upper limb – distal";4="2b Right Upper limb – proximal";5="3 Left Upper limb – distal and proximal";6="3a Left Upper limb – distal";7="3b Left Upper limb – proximal";8="4 Right Lower limb – distal and proximal";9="4a Right Lower limb – distal";10="4b Right Lower limb – proximal";11="5 Left Lower limb – distal and proximal";12="5a Left Lower limb – distal";13="5b Left Lower limb – proximal";14="6 Respiratory symptoms";15="7 Neck";16="8 Thoracic/abdomen";17="9 Dyscognition"</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -13379,53 +13399,51 @@
       <c r="C99" t="s">
         <v>1227</v>
       </c>
-      <c r="D99" s="3" t="str">
+      <c r="D99" s="3" t="e">
         <f t="shared" ca="1" si="74"/>
-        <v>10th region</v>
+        <v>#N/A</v>
       </c>
       <c r="E99" t="s">
         <v>8</v>
       </c>
-      <c r="F99" s="3" t="str">
+      <c r="F99" s="3" t="e">
         <f t="shared" ca="1" si="70"/>
-        <v>factor</v>
+        <v>#N/A</v>
       </c>
       <c r="G99" t="s">
         <v>1209</v>
       </c>
-      <c r="H99" s="3" t="str">
+      <c r="H99" s="3" t="e">
         <f t="shared" ca="1" si="71"/>
-        <v>1="1 Oro-facial";2="2 Right Upper limb – distal and proximal";3="2a Right Upper limb – distal";4="2b Right Upper limb – proximal";5="3 Left Upper limb – distal and proximal";6="3a Left Upper limb – distal";7="3b Left Upper limb – proximal";8="4 Right Lower limb – distal and proximal";9="4a Right Lower limb – distal";10="4b Right Lower limb – proximal";11="5 Left Lower limb – distal and proximal";12="5a Left Lower limb – distal";13="5b Left Lower limb – proximal";14="6 Respiratory symptoms";15="7 Neck";16="8 Thoracic/abdomen";17="9 Dyscognition"</v>
+        <v>#N/A</v>
       </c>
       <c r="I99" s="1"/>
       <c r="J99" s="1" t="s">
-        <v>2053</v>
+        <v>2376</v>
       </c>
       <c r="K99" s="1" t="s">
         <v>2344</v>
       </c>
-      <c r="L99" s="1" t="s">
-        <v>2054</v>
-      </c>
+      <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
-      <c r="Q99" s="1">
+      <c r="Q99" s="1" t="e">
         <f t="shared" ca="1" si="72"/>
-        <v>108</v>
-      </c>
-      <c r="R99" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R99" t="e">
         <f t="shared" ref="R99:T99" ca="1" si="106">IF(Q99&lt;&gt;"",INDEX(INDIRECT(R$2),$Q99),"")</f>
-        <v>10th region</v>
-      </c>
-      <c r="S99" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S99" t="e">
         <f t="shared" ca="1" si="106"/>
-        <v>factor</v>
-      </c>
-      <c r="T99" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T99" t="e">
         <f t="shared" ca="1" si="106"/>
-        <v>1="1 Oro-facial";2="2 Right Upper limb – distal and proximal";3="2a Right Upper limb – distal";4="2b Right Upper limb – proximal";5="3 Left Upper limb – distal and proximal";6="3a Left Upper limb – distal";7="3b Left Upper limb – proximal";8="4 Right Lower limb – distal and proximal";9="4a Right Lower limb – distal";10="4b Right Lower limb – proximal";11="5 Left Lower limb – distal and proximal";12="5a Left Lower limb – distal";13="5b Left Lower limb – proximal";14="6 Respiratory symptoms";15="7 Neck";16="8 Thoracic/abdomen";17="9 Dyscognition"</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -13438,53 +13456,51 @@
       <c r="C100" t="s">
         <v>1229</v>
       </c>
-      <c r="D100" s="3" t="str">
+      <c r="D100" s="3" t="e">
         <f t="shared" ca="1" si="74"/>
-        <v>11th region</v>
+        <v>#N/A</v>
       </c>
       <c r="E100" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="3" t="str">
+      <c r="F100" s="3" t="e">
         <f t="shared" ca="1" si="70"/>
-        <v>factor</v>
+        <v>#N/A</v>
       </c>
       <c r="G100" t="s">
         <v>1209</v>
       </c>
-      <c r="H100" s="3" t="str">
+      <c r="H100" s="3" t="e">
         <f t="shared" ca="1" si="71"/>
-        <v>1="1 Oro-facial";2="2 Right Upper limb – distal and proximal";3="2a Right Upper limb – distal";4="2b Right Upper limb – proximal";5="3 Left Upper limb – distal and proximal";6="3a Left Upper limb – distal";7="3b Left Upper limb – proximal";8="4 Right Lower limb – distal and proximal";9="4a Right Lower limb – distal";10="4b Right Lower limb – proximal";11="5 Left Lower limb – distal and proximal";12="5a Left Lower limb – distal";13="5b Left Lower limb – proximal";14="6 Respiratory symptoms";15="7 Neck";16="8 Thoracic/abdomen";17="9 Dyscognition"</v>
+        <v>#N/A</v>
       </c>
       <c r="I100" s="1"/>
       <c r="J100" s="1" t="s">
-        <v>2056</v>
+        <v>2377</v>
       </c>
       <c r="K100" s="1" t="s">
         <v>2344</v>
       </c>
-      <c r="L100" s="1" t="s">
-        <v>2057</v>
-      </c>
+      <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
-      <c r="Q100" s="1">
+      <c r="Q100" s="1" t="e">
         <f t="shared" ca="1" si="72"/>
-        <v>110</v>
-      </c>
-      <c r="R100" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R100" t="e">
         <f t="shared" ref="R100:T100" ca="1" si="107">IF(Q100&lt;&gt;"",INDEX(INDIRECT(R$2),$Q100),"")</f>
-        <v>11th region</v>
-      </c>
-      <c r="S100" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S100" t="e">
         <f t="shared" ca="1" si="107"/>
-        <v>factor</v>
-      </c>
-      <c r="T100" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T100" t="e">
         <f t="shared" ca="1" si="107"/>
-        <v>1="1 Oro-facial";2="2 Right Upper limb – distal and proximal";3="2a Right Upper limb – distal";4="2b Right Upper limb – proximal";5="3 Left Upper limb – distal and proximal";6="3a Left Upper limb – distal";7="3b Left Upper limb – proximal";8="4 Right Lower limb – distal and proximal";9="4a Right Lower limb – distal";10="4b Right Lower limb – proximal";11="5 Left Lower limb – distal and proximal";12="5a Left Lower limb – distal";13="5b Left Lower limb – proximal";14="6 Respiratory symptoms";15="7 Neck";16="8 Thoracic/abdomen";17="9 Dyscognition"</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -13497,53 +13513,51 @@
       <c r="C101" t="s">
         <v>1231</v>
       </c>
-      <c r="D101" s="3" t="str">
+      <c r="D101" s="3" t="e">
         <f t="shared" ca="1" si="74"/>
-        <v>12th region</v>
+        <v>#N/A</v>
       </c>
       <c r="E101" t="s">
         <v>8</v>
       </c>
-      <c r="F101" s="3" t="str">
+      <c r="F101" s="3" t="e">
         <f t="shared" ca="1" si="70"/>
-        <v>factor</v>
+        <v>#N/A</v>
       </c>
       <c r="G101" t="s">
         <v>1209</v>
       </c>
-      <c r="H101" s="3" t="str">
+      <c r="H101" s="3" t="e">
         <f t="shared" ca="1" si="71"/>
-        <v>1="1 Oro-facial";2="2 Right Upper limb – distal and proximal";3="2a Right Upper limb – distal";4="2b Right Upper limb – proximal";5="3 Left Upper limb – distal and proximal";6="3a Left Upper limb – distal";7="3b Left Upper limb – proximal";8="4 Right Lower limb – distal and proximal";9="4a Right Lower limb – distal";10="4b Right Lower limb – proximal";11="5 Left Lower limb – distal and proximal";12="5a Left Lower limb – distal";13="5b Left Lower limb – proximal";14="6 Respiratory symptoms";15="7 Neck";16="8 Thoracic/abdomen";17="9 Dyscognition"</v>
+        <v>#N/A</v>
       </c>
       <c r="I101" s="1"/>
       <c r="J101" s="1" t="s">
-        <v>2059</v>
+        <v>2378</v>
       </c>
       <c r="K101" s="1" t="s">
         <v>2344</v>
       </c>
-      <c r="L101" s="1" t="s">
-        <v>2060</v>
-      </c>
+      <c r="L101" s="1"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
-      <c r="Q101" s="1">
+      <c r="Q101" s="1" t="e">
         <f t="shared" ca="1" si="72"/>
-        <v>112</v>
-      </c>
-      <c r="R101" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R101" t="e">
         <f t="shared" ref="R101:T101" ca="1" si="108">IF(Q101&lt;&gt;"",INDEX(INDIRECT(R$2),$Q101),"")</f>
-        <v>12th region</v>
-      </c>
-      <c r="S101" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S101" t="e">
         <f t="shared" ca="1" si="108"/>
-        <v>factor</v>
-      </c>
-      <c r="T101" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T101" t="e">
         <f t="shared" ca="1" si="108"/>
-        <v>1="1 Oro-facial";2="2 Right Upper limb – distal and proximal";3="2a Right Upper limb – distal";4="2b Right Upper limb – proximal";5="3 Left Upper limb – distal and proximal";6="3a Left Upper limb – distal";7="3b Left Upper limb – proximal";8="4 Right Lower limb – distal and proximal";9="4a Right Lower limb – distal";10="4b Right Lower limb – proximal";11="5 Left Lower limb – distal and proximal";12="5a Left Lower limb – distal";13="5b Left Lower limb – proximal";14="6 Respiratory symptoms";15="7 Neck";16="8 Thoracic/abdomen";17="9 Dyscognition"</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="102" spans="1:20">
@@ -13556,53 +13570,51 @@
       <c r="C102" t="s">
         <v>1233</v>
       </c>
-      <c r="D102" s="3" t="str">
+      <c r="D102" s="3" t="e">
         <f t="shared" ca="1" si="74"/>
-        <v>13th region</v>
+        <v>#N/A</v>
       </c>
       <c r="E102" t="s">
         <v>8</v>
       </c>
-      <c r="F102" s="3" t="str">
+      <c r="F102" s="3" t="e">
         <f t="shared" ca="1" si="70"/>
-        <v>factor</v>
+        <v>#N/A</v>
       </c>
       <c r="G102" t="s">
         <v>1209</v>
       </c>
-      <c r="H102" s="3" t="str">
+      <c r="H102" s="3" t="e">
         <f t="shared" ca="1" si="71"/>
-        <v>1="1 Oro-facial";2="2 Right Upper limb – distal and proximal";3="2a Right Upper limb – distal";4="2b Right Upper limb – proximal";5="3 Left Upper limb – distal and proximal";6="3a Left Upper limb – distal";7="3b Left Upper limb – proximal";8="4 Right Lower limb – distal and proximal";9="4a Right Lower limb – distal";10="4b Right Lower limb – proximal";11="5 Left Lower limb – distal and proximal";12="5a Left Lower limb – distal";13="5b Left Lower limb – proximal";14="6 Respiratory symptoms";15="7 Neck";16="8 Thoracic/abdomen";17="9 Dyscognition"</v>
+        <v>#N/A</v>
       </c>
       <c r="I102" s="1"/>
       <c r="J102" s="1" t="s">
-        <v>2062</v>
+        <v>2379</v>
       </c>
       <c r="K102" s="1" t="s">
         <v>2344</v>
       </c>
-      <c r="L102" s="1" t="s">
-        <v>2063</v>
-      </c>
+      <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
-      <c r="Q102" s="1">
+      <c r="Q102" s="1" t="e">
         <f t="shared" ca="1" si="72"/>
-        <v>114</v>
-      </c>
-      <c r="R102" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R102" t="e">
         <f t="shared" ref="R102:T102" ca="1" si="109">IF(Q102&lt;&gt;"",INDEX(INDIRECT(R$2),$Q102),"")</f>
-        <v>13th region</v>
-      </c>
-      <c r="S102" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S102" t="e">
         <f t="shared" ca="1" si="109"/>
-        <v>factor</v>
-      </c>
-      <c r="T102" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T102" t="e">
         <f t="shared" ca="1" si="109"/>
-        <v>1="1 Oro-facial";2="2 Right Upper limb – distal and proximal";3="2a Right Upper limb – distal";4="2b Right Upper limb – proximal";5="3 Left Upper limb – distal and proximal";6="3a Left Upper limb – distal";7="3b Left Upper limb – proximal";8="4 Right Lower limb – distal and proximal";9="4a Right Lower limb – distal";10="4b Right Lower limb – proximal";11="5 Left Lower limb – distal and proximal";12="5a Left Lower limb – distal";13="5b Left Lower limb – proximal";14="6 Respiratory symptoms";15="7 Neck";16="8 Thoracic/abdomen";17="9 Dyscognition"</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="103" spans="1:20">
@@ -13977,7 +13989,7 @@
         <v/>
       </c>
       <c r="I109" s="1"/>
-      <c r="J109" s="7" t="s">
+      <c r="J109" s="6" t="s">
         <v>728</v>
       </c>
       <c r="K109" s="1" t="s">
@@ -14034,7 +14046,7 @@
         <v/>
       </c>
       <c r="I110" s="1"/>
-      <c r="J110" s="7" t="s">
+      <c r="J110" s="6" t="s">
         <v>729</v>
       </c>
       <c r="K110" s="1" t="s">
@@ -14091,7 +14103,7 @@
         <v/>
       </c>
       <c r="I111" s="1"/>
-      <c r="J111" s="7" t="s">
+      <c r="J111" s="6" t="s">
         <v>730</v>
       </c>
       <c r="K111" s="1" t="s">
@@ -14148,7 +14160,7 @@
         <v/>
       </c>
       <c r="I112" s="1"/>
-      <c r="J112" s="7" t="s">
+      <c r="J112" s="6" t="s">
         <v>731</v>
       </c>
       <c r="K112" s="1" t="s">
@@ -14205,7 +14217,7 @@
         <v/>
       </c>
       <c r="I113" s="1"/>
-      <c r="J113" s="7" t="s">
+      <c r="J113" s="6" t="s">
         <v>732</v>
       </c>
       <c r="K113" s="1" t="s">
@@ -14262,7 +14274,7 @@
         <v/>
       </c>
       <c r="I114" s="1"/>
-      <c r="J114" s="7" t="s">
+      <c r="J114" s="6" t="s">
         <v>733</v>
       </c>
       <c r="K114" s="1" t="s">
@@ -14319,7 +14331,7 @@
         <v/>
       </c>
       <c r="I115" s="1"/>
-      <c r="J115" s="7" t="s">
+      <c r="J115" s="6" t="s">
         <v>734</v>
       </c>
       <c r="K115" s="1" t="s">
@@ -14376,7 +14388,7 @@
         <v/>
       </c>
       <c r="I116" s="1"/>
-      <c r="J116" s="7" t="s">
+      <c r="J116" s="6" t="s">
         <v>735</v>
       </c>
       <c r="K116" s="1" t="s">
@@ -14433,7 +14445,7 @@
         <v/>
       </c>
       <c r="I117" s="1"/>
-      <c r="J117" s="7" t="s">
+      <c r="J117" s="6" t="s">
         <v>736</v>
       </c>
       <c r="K117" s="1" t="s">
@@ -14490,7 +14502,7 @@
         <v/>
       </c>
       <c r="I118" s="1"/>
-      <c r="J118" s="7" t="s">
+      <c r="J118" s="6" t="s">
         <v>737</v>
       </c>
       <c r="K118" s="1" t="s">
@@ -14547,7 +14559,7 @@
         <v/>
       </c>
       <c r="I119" s="1"/>
-      <c r="J119" s="7" t="s">
+      <c r="J119" s="6" t="s">
         <v>738</v>
       </c>
       <c r="K119" s="1" t="s">
@@ -14604,7 +14616,7 @@
         <v/>
       </c>
       <c r="I120" s="1"/>
-      <c r="J120" s="7" t="s">
+      <c r="J120" s="6" t="s">
         <v>739</v>
       </c>
       <c r="K120" s="1" t="s">
@@ -14661,7 +14673,7 @@
         <v/>
       </c>
       <c r="I121" s="1"/>
-      <c r="J121" s="8" t="s">
+      <c r="J121" s="7" t="s">
         <v>740</v>
       </c>
       <c r="K121" s="1"/>
@@ -14716,7 +14728,7 @@
         <v/>
       </c>
       <c r="I122" s="1"/>
-      <c r="J122" s="8" t="s">
+      <c r="J122" s="7" t="s">
         <v>741</v>
       </c>
       <c r="K122" s="1"/>
@@ -16560,53 +16572,51 @@
       <c r="C155" t="s">
         <v>1296</v>
       </c>
-      <c r="D155" s="3" t="str">
+      <c r="D155" s="3" t="e">
         <f t="shared" ca="1" si="143"/>
-        <v>Brain MRI - Normal</v>
+        <v>#N/A</v>
       </c>
       <c r="E155" t="s">
         <v>8</v>
       </c>
-      <c r="F155" s="3" t="str">
+      <c r="F155" s="3" t="e">
         <f t="shared" ca="1" si="139"/>
-        <v>factor</v>
+        <v>#N/A</v>
       </c>
       <c r="G155" t="s">
         <v>1297</v>
       </c>
-      <c r="H155" s="3" t="str">
+      <c r="H155" s="3" t="e">
         <f t="shared" ca="1" si="140"/>
-        <v>1="No";2="Yes"</v>
+        <v>#N/A</v>
       </c>
       <c r="I155" s="1"/>
       <c r="J155" s="1" t="s">
-        <v>791</v>
+        <v>2380</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>2346</v>
-      </c>
-      <c r="L155" s="1">
-        <v>1</v>
-      </c>
+        <v>2345</v>
+      </c>
+      <c r="L155" s="1"/>
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
-      <c r="Q155" s="1">
+      <c r="Q155" s="1" t="e">
         <f t="shared" ca="1" si="141"/>
-        <v>184</v>
-      </c>
-      <c r="R155" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R155" t="e">
         <f t="shared" ref="R155:T155" ca="1" si="167">IF(Q155&lt;&gt;"",INDEX(INDIRECT(R$2),$Q155),"")</f>
-        <v>Brain MRI - Normal</v>
-      </c>
-      <c r="S155" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S155" t="e">
         <f t="shared" ca="1" si="167"/>
-        <v>factor</v>
-      </c>
-      <c r="T155" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T155" t="e">
         <f t="shared" ca="1" si="167"/>
-        <v>1="No";2="Yes"</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="156" spans="1:20">
@@ -16638,15 +16648,13 @@
         <v>1="No";2="Yes"</v>
       </c>
       <c r="I156" s="1"/>
-      <c r="J156" s="48" t="s">
+      <c r="J156" s="47" t="s">
         <v>798</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>2346</v>
-      </c>
-      <c r="L156" s="9">
-        <v>1</v>
-      </c>
+        <v>2345</v>
+      </c>
+      <c r="L156" s="8"/>
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
@@ -16697,15 +16705,13 @@
         <v>1="No";2="Yes"</v>
       </c>
       <c r="I157" s="1"/>
-      <c r="J157" s="48" t="s">
+      <c r="J157" s="47" t="s">
         <v>806</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>2346</v>
-      </c>
-      <c r="L157" s="10">
-        <v>1</v>
-      </c>
+        <v>2345</v>
+      </c>
+      <c r="L157" s="9"/>
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
@@ -16756,15 +16762,13 @@
         <v>1="No";2="Yes"</v>
       </c>
       <c r="I158" s="1"/>
-      <c r="J158" s="48" t="s">
+      <c r="J158" s="47" t="s">
         <v>814</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>2346</v>
-      </c>
-      <c r="L158" s="11">
-        <v>1</v>
-      </c>
+        <v>2345</v>
+      </c>
+      <c r="L158" s="10"/>
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
@@ -17215,7 +17219,7 @@
         <v>548</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
@@ -17275,7 +17279,7 @@
         <v>548</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
@@ -17335,7 +17339,7 @@
         <v>548</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
@@ -17395,7 +17399,7 @@
         <v>548</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
@@ -17455,7 +17459,7 @@
         <v>548</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
@@ -17515,7 +17519,7 @@
         <v>548</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
@@ -17575,7 +17579,7 @@
         <v>548</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
@@ -17635,7 +17639,7 @@
         <v>548</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
@@ -17753,7 +17757,7 @@
         <v>548</v>
       </c>
       <c r="L175" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
@@ -17813,7 +17817,7 @@
         <v>548</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
@@ -17873,7 +17877,7 @@
         <v>548</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
@@ -17925,19 +17929,19 @@
         <v>1="No";2="Yes"</v>
       </c>
       <c r="I178" s="1"/>
-      <c r="J178" s="48" t="s">
+      <c r="J178" s="47" t="s">
         <v>843</v>
       </c>
       <c r="K178" s="1" t="s">
         <v>548</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="M178" s="1" t="s">
-        <v>2346</v>
-      </c>
-      <c r="N178" s="12">
+        <v>2345</v>
+      </c>
+      <c r="N178" s="11">
         <v>3</v>
       </c>
       <c r="O178" s="1"/>
@@ -17988,19 +17992,19 @@
         <v>1="No";2="Yes"</v>
       </c>
       <c r="I179" s="1"/>
-      <c r="J179" s="48" t="s">
+      <c r="J179" s="47" t="s">
         <v>862</v>
       </c>
       <c r="K179" s="1" t="s">
         <v>548</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="M179" s="1" t="s">
-        <v>2346</v>
-      </c>
-      <c r="N179" s="13">
+        <v>2345</v>
+      </c>
+      <c r="N179" s="12">
         <v>7</v>
       </c>
       <c r="O179" s="1"/>
@@ -18059,7 +18063,7 @@
         <v>548</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
@@ -18175,7 +18179,7 @@
         <v>548</v>
       </c>
       <c r="L182" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
@@ -18291,7 +18295,7 @@
         <v>548</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
@@ -18348,7 +18352,7 @@
         <v>q_88b</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="L185" s="1"/>
       <c r="M185" s="1"/>
@@ -18409,7 +18413,7 @@
         <v>548</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
@@ -18466,7 +18470,7 @@
         <v>q_88d</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="L187" s="1"/>
       <c r="M187" s="1"/>
@@ -18583,7 +18587,7 @@
         <v>548</v>
       </c>
       <c r="L189" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
@@ -18699,7 +18703,7 @@
         <v>548</v>
       </c>
       <c r="L191" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
@@ -18815,7 +18819,7 @@
         <v>548</v>
       </c>
       <c r="L193" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
@@ -18872,7 +18876,7 @@
         <v>q_91b</v>
       </c>
       <c r="K194" s="1" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="L194" s="1"/>
       <c r="M194" s="1"/>
@@ -18989,7 +18993,7 @@
         <v>548</v>
       </c>
       <c r="L196" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
@@ -19105,7 +19109,7 @@
         <v>548</v>
       </c>
       <c r="L198" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="M198" s="1"/>
       <c r="N198" s="1"/>
@@ -19221,7 +19225,7 @@
         <v>548</v>
       </c>
       <c r="L200" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
@@ -19337,7 +19341,7 @@
         <v>548</v>
       </c>
       <c r="L202" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="M202" s="1"/>
       <c r="N202" s="1"/>
@@ -19453,7 +19457,7 @@
         <v>548</v>
       </c>
       <c r="L204" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
@@ -19569,7 +19573,7 @@
         <v>548</v>
       </c>
       <c r="L206" s="1" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="M206" s="1"/>
       <c r="N206" s="1"/>
@@ -19677,11 +19681,11 @@
         <v>1="Pending";2="A";3="AQ";4="B";5="BQ";6="C";7="CQ"</v>
       </c>
       <c r="I208" s="1"/>
-      <c r="J208" s="14" t="s">
+      <c r="J208" s="13" t="s">
         <v>909</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="L208" s="1"/>
       <c r="M208" s="1"/>
@@ -19790,11 +19794,11 @@
         <v>1="FIG4";2="OPTN";3="ATXN2";4="VCP";5="UBQLN2";6="SIGMAR1";7="CHMP2B";8="PFN1";9="ERBB4";10="HNRNPA1";11="MATR3";12="CHCHD10";13="PRPH";14="SQSTM1";15="TAF15";16="SPAST";17="ELP3";18="LMNB1";19="ALS2";20="ALS3";21="SETX";22="SPG11";23="FUS";24="ALS7";25="VAPB";26="ANG";27="TARDBP"</v>
       </c>
       <c r="I210" s="1"/>
-      <c r="J210" s="15" t="s">
+      <c r="J210" s="14" t="s">
         <v>1125</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="L210" s="1"/>
       <c r="M210" s="1"/>
@@ -19847,7 +19851,7 @@
         <v/>
       </c>
       <c r="I211" s="1"/>
-      <c r="J211" s="16" t="s">
+      <c r="J211" s="15" t="s">
         <v>1126</v>
       </c>
       <c r="K211" s="1"/>
@@ -19902,11 +19906,11 @@
         <v>1="FIG4";2="OPTN";3="ATXN2";4="VCP";5="UBQLN2";6="SIGMAR1";7="CHMP2B";8="PFN1";9="ERBB4";10="HNRNPA1";11="MATR3";12="CHCHD10";13="PRPH";14="SQSTM1";15="TAF15";16="SPAST";17="ELP3";18="LMNB1";19="ALS2";20="ALS3";21="SETX";22="SPG11";23="FUS";24="ALS7";25="VAPB";26="ANG";27="TARDBP"</v>
       </c>
       <c r="I212" s="1"/>
-      <c r="J212" s="17" t="s">
+      <c r="J212" s="16" t="s">
         <v>1127</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="L212" s="1"/>
       <c r="M212" s="1"/>
@@ -19959,7 +19963,7 @@
         <v/>
       </c>
       <c r="I213" s="1"/>
-      <c r="J213" s="18" t="s">
+      <c r="J213" s="17" t="s">
         <v>1128</v>
       </c>
       <c r="K213" s="1"/>
@@ -20014,11 +20018,11 @@
         <v>1="FIG4";2="OPTN";3="ATXN2";4="VCP";5="UBQLN2";6="SIGMAR1";7="CHMP2B";8="PFN1";9="ERBB4";10="HNRNPA1";11="MATR3";12="CHCHD10";13="PRPH";14="SQSTM1";15="TAF15";16="SPAST";17="ELP3";18="LMNB1";19="ALS2";20="ALS3";21="SETX";22="SPG11";23="FUS";24="ALS7";25="VAPB";26="ANG";27="TARDBP"</v>
       </c>
       <c r="I214" s="1"/>
-      <c r="J214" s="19" t="s">
+      <c r="J214" s="18" t="s">
         <v>2115</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="L214" s="1"/>
       <c r="M214" s="1"/>
@@ -20071,7 +20075,7 @@
         <v/>
       </c>
       <c r="I215" s="1"/>
-      <c r="J215" s="20" t="s">
+      <c r="J215" s="19" t="s">
         <v>2116</v>
       </c>
       <c r="K215" s="1"/>
@@ -20126,11 +20130,11 @@
         <v>1="FIG4";2="OPTN";3="ATXN2";4="VCP";5="UBQLN2";6="SIGMAR1";7="CHMP2B";8="PFN1";9="ERBB4";10="HNRNPA1";11="MATR3";12="CHCHD10";13="PRPH";14="SQSTM1";15="TAF15";16="SPAST";17="ELP3";18="LMNB1";19="ALS2";20="ALS3";21="SETX";22="SPG11";23="FUS";24="ALS7";25="VAPB";26="ANG";27="TARDBP"</v>
       </c>
       <c r="I216" s="1"/>
-      <c r="J216" s="21" t="s">
+      <c r="J216" s="20" t="s">
         <v>2118</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="L216" s="1"/>
       <c r="M216" s="1"/>
@@ -20183,7 +20187,7 @@
         <v/>
       </c>
       <c r="I217" s="1"/>
-      <c r="J217" s="22" t="s">
+      <c r="J217" s="21" t="s">
         <v>2119</v>
       </c>
       <c r="K217" s="1"/>
@@ -20238,11 +20242,11 @@
         <v>#N/A</v>
       </c>
       <c r="I218" s="1"/>
-      <c r="J218" s="22" t="s">
-        <v>2354</v>
+      <c r="J218" s="21" t="s">
+        <v>2353</v>
       </c>
       <c r="K218" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="L218" s="1"/>
       <c r="M218" s="1"/>
@@ -20295,8 +20299,8 @@
         <v>#N/A</v>
       </c>
       <c r="I219" s="1"/>
-      <c r="J219" s="22" t="s">
-        <v>2355</v>
+      <c r="J219" s="21" t="s">
+        <v>2354</v>
       </c>
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
@@ -20350,14 +20354,14 @@
         <v>1="Yes";2="No"</v>
       </c>
       <c r="I220" s="1"/>
-      <c r="J220" s="23" t="s">
+      <c r="J220" s="22" t="s">
         <v>2121</v>
       </c>
       <c r="K220" s="1" t="s">
         <v>548</v>
       </c>
       <c r="L220" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="M220" s="1"/>
       <c r="N220" s="1"/>
@@ -20409,7 +20413,7 @@
         <v/>
       </c>
       <c r="I221" s="1"/>
-      <c r="J221" s="24" t="s">
+      <c r="J221" s="23" t="s">
         <v>2122</v>
       </c>
       <c r="K221" s="1"/>
@@ -20464,7 +20468,7 @@
         <v/>
       </c>
       <c r="I222" s="1"/>
-      <c r="J222" s="25" t="s">
+      <c r="J222" s="24" t="s">
         <v>2123</v>
       </c>
       <c r="K222" s="1"/>
@@ -20524,9 +20528,9 @@
         <v>q_100a</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>2356</v>
-      </c>
-      <c r="L223" s="26" t="s">
+        <v>2355</v>
+      </c>
+      <c r="L223" s="25" t="s">
         <v>912</v>
       </c>
       <c r="M223" s="1"/>
@@ -21088,9 +21092,9 @@
         <v>q_101a</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>2356</v>
-      </c>
-      <c r="L233" s="27" t="s">
+        <v>2355</v>
+      </c>
+      <c r="L233" s="26" t="s">
         <v>969</v>
       </c>
       <c r="M233" s="1"/>
@@ -21652,9 +21656,9 @@
         <v>q_102a</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>2356</v>
-      </c>
-      <c r="L243" s="28" t="s">
+        <v>2355</v>
+      </c>
+      <c r="L243" s="27" t="s">
         <v>918</v>
       </c>
       <c r="M243" s="1"/>
@@ -22216,9 +22220,9 @@
         <v>q_103a</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>2356</v>
-      </c>
-      <c r="L253" s="29" t="s">
+        <v>2355</v>
+      </c>
+      <c r="L253" s="28" t="s">
         <v>980</v>
       </c>
       <c r="M253" s="1"/>
@@ -22780,9 +22784,9 @@
         <v>q_104a</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>2356</v>
-      </c>
-      <c r="L263" s="30" t="s">
+        <v>2355</v>
+      </c>
+      <c r="L263" s="29" t="s">
         <v>920</v>
       </c>
       <c r="M263" s="1"/>
@@ -23344,9 +23348,9 @@
         <v>q_105a</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>2357</v>
-      </c>
-      <c r="L273" s="31" t="s">
+        <v>2356</v>
+      </c>
+      <c r="L273" s="30" t="s">
         <v>981</v>
       </c>
       <c r="M273" s="1"/>
@@ -24020,9 +24024,9 @@
         <v>q_106.1a</v>
       </c>
       <c r="K285" s="1" t="s">
-        <v>2358</v>
-      </c>
-      <c r="L285" s="32" t="s">
+        <v>2357</v>
+      </c>
+      <c r="L285" s="31" t="s">
         <v>996</v>
       </c>
       <c r="M285" s="1"/>
@@ -25531,13 +25535,13 @@
         <v/>
       </c>
       <c r="I312" s="1"/>
-      <c r="J312" s="33" t="s">
+      <c r="J312" s="32" t="s">
         <v>924</v>
       </c>
       <c r="K312" s="1" t="s">
-        <v>2359</v>
-      </c>
-      <c r="L312" s="34" t="s">
+        <v>2358</v>
+      </c>
+      <c r="L312" s="33" t="s">
         <v>925</v>
       </c>
       <c r="M312" s="1"/>
@@ -25590,13 +25594,13 @@
         <v/>
       </c>
       <c r="I313" s="1"/>
-      <c r="J313" s="35" t="s">
+      <c r="J313" s="34" t="s">
         <v>926</v>
       </c>
       <c r="K313" s="1" t="s">
-        <v>2359</v>
-      </c>
-      <c r="L313" s="36" t="s">
+        <v>2358</v>
+      </c>
+      <c r="L313" s="35" t="s">
         <v>927</v>
       </c>
       <c r="M313" s="1"/>
@@ -25709,7 +25713,7 @@
         <v/>
       </c>
       <c r="I315" s="1"/>
-      <c r="J315" s="37" t="s">
+      <c r="J315" s="36" t="s">
         <v>929</v>
       </c>
       <c r="K315" s="1"/>
@@ -25764,13 +25768,13 @@
         <v/>
       </c>
       <c r="I316" s="1"/>
-      <c r="J316" s="38" t="s">
+      <c r="J316" s="37" t="s">
         <v>930</v>
       </c>
       <c r="K316" s="1" t="s">
-        <v>2359</v>
-      </c>
-      <c r="L316" s="39" t="s">
+        <v>2358</v>
+      </c>
+      <c r="L316" s="38" t="s">
         <v>931</v>
       </c>
       <c r="M316" s="1"/>
@@ -26003,11 +26007,11 @@
         <v>1="Basketball";2="Boxing";3="Climbing";4="Cycling";5="Dancing";6="Diving";7="Fast walking";8="Fencing";9="Fitness";10="Football";11="Golf";12="Handball";13="Hockey";14="Rowing";15="Rugby";16="Running";17="Skiing";18="Swimming";19="Tennis";20="Volleyball";21="Weightlifting";22="Other"</v>
       </c>
       <c r="I320" s="1"/>
-      <c r="J320" s="40" t="s">
+      <c r="J320" s="39" t="s">
         <v>1013</v>
       </c>
       <c r="K320" s="1" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="L320" s="1"/>
       <c r="M320" s="1"/>
@@ -28473,7 +28477,7 @@
         <v>q_112a.3</v>
       </c>
       <c r="K364" s="1" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="L364" s="1"/>
       <c r="M364" s="1"/>
@@ -30939,7 +30943,7 @@
         <v>q_113a.1</v>
       </c>
       <c r="K408" s="1" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="L408" s="1"/>
       <c r="M408" s="1"/>
@@ -33400,11 +33404,11 @@
         <v>1="No";2="Yes"</v>
       </c>
       <c r="I452" s="1"/>
-      <c r="J452" s="41" t="s">
+      <c r="J452" s="40" t="s">
         <v>1040</v>
       </c>
       <c r="K452" s="1" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="L452" s="1">
         <v>1</v>
@@ -33464,7 +33468,7 @@
         <v>q_115</v>
       </c>
       <c r="K453" s="1" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="L453" s="1"/>
       <c r="M453" s="1"/>
@@ -33522,7 +33526,7 @@
         <v>q_116</v>
       </c>
       <c r="K454" s="1" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="L454" s="1"/>
       <c r="M454" s="1"/>
@@ -36668,7 +36672,7 @@
         <v>548</v>
       </c>
       <c r="L508" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="Q508" s="1">
         <f t="shared" ca="1" si="486"/>
@@ -36723,7 +36727,7 @@
         <v>548</v>
       </c>
       <c r="L509" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="Q509" s="1">
         <f t="shared" ca="1" si="486"/>
@@ -36778,7 +36782,7 @@
         <v>548</v>
       </c>
       <c r="L510" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="Q510" s="1">
         <f t="shared" ca="1" si="486"/>
@@ -36833,7 +36837,7 @@
         <v>548</v>
       </c>
       <c r="L511" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="Q511" s="1">
         <f t="shared" ca="1" si="486"/>
@@ -36888,7 +36892,7 @@
         <v>548</v>
       </c>
       <c r="L512" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="Q512" s="1">
         <f t="shared" ca="1" si="486"/>
@@ -36943,7 +36947,7 @@
         <v>548</v>
       </c>
       <c r="L513" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="Q513" s="1">
         <f t="shared" ca="1" si="486"/>
@@ -36998,7 +37002,7 @@
         <v>548</v>
       </c>
       <c r="L514" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="Q514" s="1">
         <f t="shared" ca="1" si="486"/>
@@ -37053,7 +37057,7 @@
         <v>548</v>
       </c>
       <c r="L515" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="Q515" s="1">
         <f t="shared" ca="1" si="486"/>
@@ -37105,7 +37109,7 @@
         <v>q_150</v>
       </c>
       <c r="K516" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="Q516" s="1">
         <f t="shared" ref="Q516:Q574" ca="1" si="555">IF(J516&lt;&gt;"",MATCH(J516,INDIRECT(Q$2),0),"")</f>
@@ -37255,7 +37259,7 @@
         <v>548</v>
       </c>
       <c r="L519" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="Q519" s="1">
         <f t="shared" ca="1" si="555"/>
@@ -37310,7 +37314,7 @@
         <v>548</v>
       </c>
       <c r="L520" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="Q520" s="1">
         <f t="shared" ca="1" si="555"/>
@@ -37365,7 +37369,7 @@
         <v>548</v>
       </c>
       <c r="L521" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="Q521" s="1">
         <f t="shared" ca="1" si="555"/>
@@ -37420,7 +37424,7 @@
         <v>548</v>
       </c>
       <c r="L522" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="Q522" s="1">
         <f t="shared" ca="1" si="555"/>
@@ -37475,7 +37479,7 @@
         <v>548</v>
       </c>
       <c r="L523" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="Q523" s="1">
         <f t="shared" ca="1" si="555"/>
@@ -37530,7 +37534,7 @@
         <v>548</v>
       </c>
       <c r="L524" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="Q524" s="1">
         <f t="shared" ca="1" si="555"/>
@@ -37585,7 +37589,7 @@
         <v>548</v>
       </c>
       <c r="L525" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="Q525" s="1">
         <f t="shared" ca="1" si="555"/>
@@ -37640,7 +37644,7 @@
         <v>548</v>
       </c>
       <c r="L526" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="Q526" s="1">
         <f t="shared" ca="1" si="555"/>
@@ -37692,7 +37696,7 @@
         <v>q_153</v>
       </c>
       <c r="K527" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="Q527" s="1">
         <f t="shared" ca="1" si="555"/>
@@ -37785,11 +37789,11 @@
         <f t="shared" ca="1" si="554"/>
         <v/>
       </c>
-      <c r="J529" s="42" t="s">
+      <c r="J529" s="41" t="s">
         <v>1088</v>
       </c>
       <c r="K529" s="1" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="Q529" s="1">
         <f t="shared" ca="1" si="555"/>
@@ -37836,11 +37840,11 @@
         <f t="shared" ca="1" si="554"/>
         <v/>
       </c>
-      <c r="J530" s="43" t="s">
+      <c r="J530" s="42" t="s">
         <v>1092</v>
       </c>
       <c r="K530" s="1" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="Q530" s="1">
         <f t="shared" ca="1" si="555"/>
@@ -37887,11 +37891,11 @@
         <f t="shared" ca="1" si="554"/>
         <v/>
       </c>
-      <c r="J531" s="44" t="s">
+      <c r="J531" s="43" t="s">
         <v>1096</v>
       </c>
       <c r="K531" s="1" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="Q531" s="1">
         <f t="shared" ca="1" si="555"/>
@@ -37938,11 +37942,11 @@
         <f t="shared" ca="1" si="554"/>
         <v/>
       </c>
-      <c r="J532" s="45" t="s">
+      <c r="J532" s="44" t="s">
         <v>1100</v>
       </c>
       <c r="K532" s="1" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="Q532" s="1">
         <f t="shared" ca="1" si="555"/>
@@ -37989,11 +37993,11 @@
         <f t="shared" ca="1" si="554"/>
         <v/>
       </c>
-      <c r="J533" s="46" t="s">
+      <c r="J533" s="45" t="s">
         <v>1104</v>
       </c>
       <c r="K533" s="1" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="Q533" s="1">
         <f t="shared" ca="1" si="555"/>
@@ -38040,11 +38044,11 @@
         <f t="shared" ca="1" si="554"/>
         <v/>
       </c>
-      <c r="J534" s="47" t="s">
+      <c r="J534" s="46" t="s">
         <v>1108</v>
       </c>
       <c r="K534" s="1" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="Q534" s="1">
         <f t="shared" ca="1" si="555"/>
@@ -38091,11 +38095,11 @@
         <f t="shared" ca="1" si="554"/>
         <v/>
       </c>
-      <c r="J535" s="48" t="s">
+      <c r="J535" s="47" t="s">
         <v>1112</v>
       </c>
       <c r="K535" s="1" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="Q535" s="1">
         <f t="shared" ca="1" si="555"/>
@@ -38248,7 +38252,7 @@
         <v>548</v>
       </c>
       <c r="L538" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="Q538" s="1">
         <f t="shared" ca="1" si="555"/>
@@ -38303,7 +38307,7 @@
         <v>548</v>
       </c>
       <c r="L539" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="Q539" s="1">
         <f t="shared" ca="1" si="555"/>
@@ -38358,7 +38362,7 @@
         <v>548</v>
       </c>
       <c r="L540" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="Q540" s="1">
         <f t="shared" ca="1" si="555"/>
@@ -38413,7 +38417,7 @@
         <v>548</v>
       </c>
       <c r="L541" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="Q541" s="1">
         <f t="shared" ca="1" si="555"/>
@@ -38468,7 +38472,7 @@
         <v>548</v>
       </c>
       <c r="L542" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="Q542" s="1">
         <f t="shared" ca="1" si="555"/>
@@ -38523,7 +38527,7 @@
         <v>548</v>
       </c>
       <c r="L543" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="Q543" s="1">
         <f t="shared" ca="1" si="555"/>
@@ -38578,7 +38582,7 @@
         <v>548</v>
       </c>
       <c r="L544" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="Q544" s="1">
         <f t="shared" ca="1" si="555"/>
@@ -38633,7 +38637,7 @@
         <v>548</v>
       </c>
       <c r="L545" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="Q545" s="1">
         <f t="shared" ca="1" si="555"/>
@@ -39048,7 +39052,7 @@
         <f t="shared" ca="1" si="554"/>
         <v/>
       </c>
-      <c r="J554" s="49" t="s">
+      <c r="J554" s="48" t="s">
         <v>743</v>
       </c>
       <c r="Q554" s="1">
@@ -39096,7 +39100,7 @@
         <f t="shared" ca="1" si="554"/>
         <v/>
       </c>
-      <c r="J555" s="49" t="s">
+      <c r="J555" s="48" t="s">
         <v>744</v>
       </c>
       <c r="Q555" s="1">
@@ -39144,7 +39148,7 @@
         <f t="shared" ca="1" si="554"/>
         <v/>
       </c>
-      <c r="J556" s="49" t="s">
+      <c r="J556" s="48" t="s">
         <v>745</v>
       </c>
       <c r="Q556" s="1">
@@ -39192,7 +39196,7 @@
         <f t="shared" ca="1" si="554"/>
         <v/>
       </c>
-      <c r="J557" s="49" t="s">
+      <c r="J557" s="48" t="s">
         <v>746</v>
       </c>
       <c r="Q557" s="1">
@@ -39240,7 +39244,7 @@
         <f t="shared" ca="1" si="554"/>
         <v/>
       </c>
-      <c r="J558" s="49" t="s">
+      <c r="J558" s="48" t="s">
         <v>747</v>
       </c>
       <c r="Q558" s="1">
@@ -39288,7 +39292,7 @@
         <f t="shared" ca="1" si="554"/>
         <v/>
       </c>
-      <c r="J559" s="49" t="s">
+      <c r="J559" s="48" t="s">
         <v>748</v>
       </c>
       <c r="Q559" s="1">
@@ -39336,7 +39340,7 @@
         <f t="shared" ca="1" si="554"/>
         <v/>
       </c>
-      <c r="J560" s="49" t="s">
+      <c r="J560" s="48" t="s">
         <v>749</v>
       </c>
       <c r="Q560" s="1">
@@ -39384,7 +39388,7 @@
         <f t="shared" ca="1" si="554"/>
         <v/>
       </c>
-      <c r="J561" s="49" t="s">
+      <c r="J561" s="48" t="s">
         <v>750</v>
       </c>
       <c r="Q561" s="1">
@@ -39432,7 +39436,7 @@
         <f t="shared" ca="1" si="554"/>
         <v/>
       </c>
-      <c r="J562" s="49" t="s">
+      <c r="J562" s="48" t="s">
         <v>751</v>
       </c>
       <c r="Q562" s="1">
@@ -39480,7 +39484,7 @@
         <f t="shared" ca="1" si="554"/>
         <v/>
       </c>
-      <c r="J563" s="49" t="s">
+      <c r="J563" s="48" t="s">
         <v>752</v>
       </c>
       <c r="Q563" s="1">
@@ -39528,7 +39532,7 @@
         <f t="shared" ca="1" si="554"/>
         <v/>
       </c>
-      <c r="J564" s="49" t="s">
+      <c r="J564" s="48" t="s">
         <v>753</v>
       </c>
       <c r="Q564" s="1">
@@ -39576,7 +39580,7 @@
         <f t="shared" ca="1" si="554"/>
         <v/>
       </c>
-      <c r="J565" s="49" t="s">
+      <c r="J565" s="48" t="s">
         <v>754</v>
       </c>
       <c r="Q565" s="1">
@@ -39624,7 +39628,7 @@
         <f t="shared" ca="1" si="554"/>
         <v/>
       </c>
-      <c r="J566" s="49" t="s">
+      <c r="J566" s="48" t="s">
         <v>755</v>
       </c>
       <c r="Q566" s="1">
@@ -39672,7 +39676,7 @@
         <f t="shared" ca="1" si="554"/>
         <v/>
       </c>
-      <c r="J567" s="49" t="s">
+      <c r="J567" s="48" t="s">
         <v>756</v>
       </c>
       <c r="Q567" s="1">
@@ -39720,7 +39724,7 @@
         <f t="shared" ca="1" si="554"/>
         <v/>
       </c>
-      <c r="J568" s="50" t="s">
+      <c r="J568" s="49" t="s">
         <v>757</v>
       </c>
       <c r="Q568" s="1">
@@ -39768,11 +39772,11 @@
         <f t="shared" ca="1" si="554"/>
         <v>#N/A</v>
       </c>
-      <c r="J569" s="50" t="s">
-        <v>2364</v>
+      <c r="J569" s="49" t="s">
+        <v>2363</v>
       </c>
       <c r="K569" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="Q569" s="1" t="e">
         <f t="shared" ca="1" si="555"/>
@@ -39819,8 +39823,8 @@
         <f t="shared" ca="1" si="554"/>
         <v>#N/A</v>
       </c>
-      <c r="J570" s="50" t="s">
-        <v>2365</v>
+      <c r="J570" s="49" t="s">
+        <v>2364</v>
       </c>
       <c r="K570" s="1"/>
       <c r="Q570" s="1" t="e">
@@ -39868,11 +39872,11 @@
         <f t="shared" ca="1" si="554"/>
         <v>#N/A</v>
       </c>
-      <c r="J571" s="50" t="s">
-        <v>2366</v>
+      <c r="J571" s="49" t="s">
+        <v>2365</v>
       </c>
       <c r="K571" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="Q571" s="1" t="e">
         <f t="shared" ca="1" si="555"/>
@@ -39919,8 +39923,8 @@
         <f t="shared" ca="1" si="554"/>
         <v>#N/A</v>
       </c>
-      <c r="J572" s="50" t="s">
-        <v>2367</v>
+      <c r="J572" s="49" t="s">
+        <v>2366</v>
       </c>
       <c r="K572" s="1"/>
       <c r="Q572" s="1" t="e">

--- a/inst/xls_xls_dic.xlsx
+++ b/inst/xls_xls_dic.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8413" uniqueCount="2402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8414" uniqueCount="2411">
   <si>
     <t>colname</t>
   </si>
@@ -7221,6 +7221,33 @@
   </si>
   <si>
     <t>to_factor</t>
+  </si>
+  <si>
+    <t>q_53a:q_53d</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>q_54a:q_54d</t>
+  </si>
+  <si>
+    <t>q_55a:q_55d</t>
+  </si>
+  <si>
+    <t>q_56a:q_56d</t>
+  </si>
+  <si>
+    <t>q_57a:q_57d</t>
+  </si>
+  <si>
+    <t>q_58a:q_58d</t>
+  </si>
+  <si>
+    <t>q_59a:q_59d</t>
+  </si>
+  <si>
+    <t>µkat/l</t>
   </si>
 </sst>
 </file>
@@ -7230,7 +7257,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _z_ł_-;\-* #,##0.00\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -7270,6 +7297,12 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Fira Code"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -7297,7 +7330,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7342,6 +7375,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Dziesiętny 2" xfId="2"/>
@@ -7720,8 +7754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A532" workbookViewId="0">
-      <selection activeCell="K573" sqref="K573"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="L123" sqref="L123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -14769,49 +14803,53 @@
       <c r="C123" t="s">
         <v>1269</v>
       </c>
-      <c r="D123" s="3" t="str">
+      <c r="D123" s="3" t="e">
         <f t="shared" ca="1" si="72"/>
-        <v>CK level  (or NF, NA, NR)</v>
+        <v>#N/A</v>
       </c>
       <c r="E123" t="s">
         <v>1130</v>
       </c>
-      <c r="F123" s="3" t="str">
+      <c r="F123" s="3" t="e">
         <f t="shared" ca="1" si="68"/>
-        <v>numeric</v>
+        <v>#N/A</v>
       </c>
       <c r="G123" t="s">
         <v>6</v>
       </c>
-      <c r="H123" s="3" t="str">
+      <c r="H123" s="3" t="e">
         <f t="shared" ca="1" si="69"/>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="I123" s="1"/>
       <c r="J123" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="K123" s="1"/>
-      <c r="L123" s="1"/>
+        <v>2402</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="L123" s="44" t="s">
+        <v>2410</v>
+      </c>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
-      <c r="Q123" s="1">
+      <c r="Q123" s="1" t="e">
         <f t="shared" ca="1" si="70"/>
-        <v>152</v>
-      </c>
-      <c r="R123" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R123" t="e">
         <f t="shared" ref="R123:T123" ca="1" si="127">IF(Q123&lt;&gt;"",INDEX(INDIRECT(R$2),$Q123),"")</f>
-        <v>CK level  (or NF, NA, NR)</v>
-      </c>
-      <c r="S123" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S123" t="e">
         <f t="shared" ca="1" si="127"/>
-        <v>numeric</v>
-      </c>
-      <c r="T123" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T123" t="e">
         <f t="shared" ca="1" si="127"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="124" spans="1:20">
@@ -14824,49 +14862,52 @@
       <c r="C124" t="s">
         <v>1270</v>
       </c>
-      <c r="D124" s="3" t="str">
+      <c r="D124" s="3" t="e">
         <f t="shared" ca="1" si="72"/>
-        <v>CK lower range</v>
+        <v>#N/A</v>
       </c>
       <c r="E124" t="s">
         <v>1130</v>
       </c>
-      <c r="F124" s="3" t="str">
+      <c r="F124" s="3" t="e">
         <f t="shared" ca="1" si="68"/>
-        <v>numeric</v>
+        <v>#N/A</v>
       </c>
       <c r="G124" t="s">
         <v>6</v>
       </c>
-      <c r="H124" s="3" t="str">
+      <c r="H124" s="3" t="e">
         <f t="shared" ca="1" si="69"/>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="I124" s="1"/>
-      <c r="J124" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="K124" s="1"/>
+      <c r="J124" s="1" t="str">
+        <f>J123</f>
+        <v>q_53a:q_53d</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>2373</v>
+      </c>
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
-      <c r="Q124" s="1">
+      <c r="Q124" s="1" t="e">
         <f t="shared" ca="1" si="70"/>
-        <v>153</v>
-      </c>
-      <c r="R124" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R124" t="e">
         <f t="shared" ref="R124:T124" ca="1" si="128">IF(Q124&lt;&gt;"",INDEX(INDIRECT(R$2),$Q124),"")</f>
-        <v>CK lower range</v>
-      </c>
-      <c r="S124" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S124" t="e">
         <f t="shared" ca="1" si="128"/>
-        <v>numeric</v>
-      </c>
-      <c r="T124" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T124" t="e">
         <f t="shared" ca="1" si="128"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="125" spans="1:20">
@@ -14879,49 +14920,52 @@
       <c r="C125" t="s">
         <v>1271</v>
       </c>
-      <c r="D125" s="3" t="str">
+      <c r="D125" s="3" t="e">
         <f t="shared" ca="1" si="72"/>
-        <v>CK upper range</v>
+        <v>#N/A</v>
       </c>
       <c r="E125" t="s">
         <v>1130</v>
       </c>
-      <c r="F125" s="3" t="str">
+      <c r="F125" s="3" t="e">
         <f t="shared" ca="1" si="68"/>
-        <v>numeric</v>
+        <v>#N/A</v>
       </c>
       <c r="G125" t="s">
         <v>6</v>
       </c>
-      <c r="H125" s="3" t="str">
+      <c r="H125" s="3" t="e">
         <f t="shared" ca="1" si="69"/>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="I125" s="1"/>
-      <c r="J125" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="K125" s="1"/>
+      <c r="J125" s="1" t="str">
+        <f>J124</f>
+        <v>q_53a:q_53d</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>2373</v>
+      </c>
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
-      <c r="Q125" s="1">
+      <c r="Q125" s="1" t="e">
         <f t="shared" ca="1" si="70"/>
-        <v>154</v>
-      </c>
-      <c r="R125" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R125" t="e">
         <f t="shared" ref="R125:T125" ca="1" si="129">IF(Q125&lt;&gt;"",INDEX(INDIRECT(R$2),$Q125),"")</f>
-        <v>CK upper range</v>
-      </c>
-      <c r="S125" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S125" t="e">
         <f t="shared" ca="1" si="129"/>
-        <v>numeric</v>
-      </c>
-      <c r="T125" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T125" t="e">
         <f t="shared" ca="1" si="129"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="126" spans="1:20">
@@ -14934,51 +14978,52 @@
       <c r="C126" t="s">
         <v>1272</v>
       </c>
-      <c r="D126" s="3" t="str">
+      <c r="D126" s="3" t="e">
         <f t="shared" ca="1" si="72"/>
-        <v>CK unit</v>
+        <v>#N/A</v>
       </c>
       <c r="E126" t="s">
         <v>5</v>
       </c>
-      <c r="F126" s="3" t="str">
+      <c r="F126" s="3" t="e">
         <f t="shared" ca="1" si="68"/>
-        <v>factor</v>
+        <v>#N/A</v>
       </c>
       <c r="G126" t="s">
         <v>6</v>
       </c>
-      <c r="H126" s="3" t="str">
+      <c r="H126" s="3" t="e">
         <f t="shared" ca="1" si="69"/>
-        <v>1="U/l";2="µkat/l";3="µmol/l·s"</v>
+        <v>#N/A</v>
       </c>
       <c r="I126" s="1"/>
-      <c r="J126" s="1" t="s">
-        <v>761</v>
+      <c r="J126" s="1" t="str">
+        <f>J125</f>
+        <v>q_53a:q_53d</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>2351</v>
+        <v>2373</v>
       </c>
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
       <c r="P126" s="1"/>
-      <c r="Q126" s="1">
+      <c r="Q126" s="1" t="e">
         <f t="shared" ca="1" si="70"/>
-        <v>155</v>
-      </c>
-      <c r="R126" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R126" t="e">
         <f t="shared" ref="R126:T126" ca="1" si="130">IF(Q126&lt;&gt;"",INDEX(INDIRECT(R$2),$Q126),"")</f>
-        <v>CK unit</v>
-      </c>
-      <c r="S126" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S126" t="e">
         <f t="shared" ca="1" si="130"/>
-        <v>factor</v>
-      </c>
-      <c r="T126" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T126" t="e">
         <f t="shared" ca="1" si="130"/>
-        <v>1="U/l";2="µkat/l";3="µmol/l·s"</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="127" spans="1:20">
@@ -14991,49 +15036,51 @@
       <c r="C127" t="s">
         <v>1273</v>
       </c>
-      <c r="D127" s="3" t="str">
+      <c r="D127" s="3" t="e">
         <f t="shared" ca="1" si="72"/>
-        <v>Albumin level  (or NF, NA, NR)</v>
+        <v>#N/A</v>
       </c>
       <c r="E127" t="s">
         <v>1130</v>
       </c>
-      <c r="F127" s="3" t="str">
+      <c r="F127" s="3" t="e">
         <f t="shared" ca="1" si="68"/>
-        <v>numeric</v>
+        <v>#N/A</v>
       </c>
       <c r="G127" t="s">
         <v>6</v>
       </c>
-      <c r="H127" s="3" t="str">
+      <c r="H127" s="3" t="e">
         <f t="shared" ca="1" si="69"/>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="I127" s="1"/>
       <c r="J127" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="K127" s="1"/>
+        <v>2404</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>2403</v>
+      </c>
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
-      <c r="Q127" s="1">
+      <c r="Q127" s="1" t="e">
         <f t="shared" ca="1" si="70"/>
-        <v>156</v>
-      </c>
-      <c r="R127" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R127" t="e">
         <f t="shared" ref="R127:T127" ca="1" si="131">IF(Q127&lt;&gt;"",INDEX(INDIRECT(R$2),$Q127),"")</f>
-        <v>Albumin level  (or NF, NA, NR)</v>
-      </c>
-      <c r="S127" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S127" t="e">
         <f t="shared" ca="1" si="131"/>
-        <v>numeric</v>
-      </c>
-      <c r="T127" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T127" t="e">
         <f t="shared" ca="1" si="131"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="128" spans="1:20">
@@ -15046,49 +15093,52 @@
       <c r="C128" t="s">
         <v>1274</v>
       </c>
-      <c r="D128" s="3" t="str">
+      <c r="D128" s="3" t="e">
         <f t="shared" ca="1" si="72"/>
-        <v>Albumin lower range</v>
+        <v>#N/A</v>
       </c>
       <c r="E128" t="s">
         <v>1130</v>
       </c>
-      <c r="F128" s="3" t="str">
+      <c r="F128" s="3" t="e">
         <f t="shared" ca="1" si="68"/>
-        <v>numeric</v>
+        <v>#N/A</v>
       </c>
       <c r="G128" t="s">
         <v>6</v>
       </c>
-      <c r="H128" s="3" t="str">
+      <c r="H128" s="3" t="e">
         <f t="shared" ca="1" si="69"/>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="I128" s="1"/>
-      <c r="J128" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="K128" s="1"/>
+      <c r="J128" s="1" t="str">
+        <f>J127</f>
+        <v>q_54a:q_54d</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>2373</v>
+      </c>
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
-      <c r="Q128" s="1">
+      <c r="Q128" s="1" t="e">
         <f t="shared" ca="1" si="70"/>
-        <v>157</v>
-      </c>
-      <c r="R128" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R128" t="e">
         <f t="shared" ref="R128:T128" ca="1" si="132">IF(Q128&lt;&gt;"",INDEX(INDIRECT(R$2),$Q128),"")</f>
-        <v>Albumin lower range</v>
-      </c>
-      <c r="S128" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S128" t="e">
         <f t="shared" ca="1" si="132"/>
-        <v>numeric</v>
-      </c>
-      <c r="T128" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T128" t="e">
         <f t="shared" ca="1" si="132"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="129" spans="1:20">
@@ -15101,49 +15151,52 @@
       <c r="C129" t="s">
         <v>1275</v>
       </c>
-      <c r="D129" s="3" t="str">
+      <c r="D129" s="3" t="e">
         <f t="shared" ca="1" si="72"/>
-        <v>Albumin upper range</v>
+        <v>#N/A</v>
       </c>
       <c r="E129" t="s">
         <v>1130</v>
       </c>
-      <c r="F129" s="3" t="str">
+      <c r="F129" s="3" t="e">
         <f t="shared" ca="1" si="68"/>
-        <v>numeric</v>
+        <v>#N/A</v>
       </c>
       <c r="G129" t="s">
         <v>6</v>
       </c>
-      <c r="H129" s="3" t="str">
+      <c r="H129" s="3" t="e">
         <f t="shared" ca="1" si="69"/>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="I129" s="1"/>
-      <c r="J129" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="K129" s="1"/>
+      <c r="J129" s="1" t="str">
+        <f>J128</f>
+        <v>q_54a:q_54d</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>2373</v>
+      </c>
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
-      <c r="Q129" s="1">
+      <c r="Q129" s="1" t="e">
         <f t="shared" ca="1" si="70"/>
-        <v>158</v>
-      </c>
-      <c r="R129" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R129" t="e">
         <f t="shared" ref="R129:T129" ca="1" si="133">IF(Q129&lt;&gt;"",INDEX(INDIRECT(R$2),$Q129),"")</f>
-        <v>Albumin upper range</v>
-      </c>
-      <c r="S129" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S129" t="e">
         <f t="shared" ca="1" si="133"/>
-        <v>numeric</v>
-      </c>
-      <c r="T129" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T129" t="e">
         <f t="shared" ca="1" si="133"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="130" spans="1:20">
@@ -15156,51 +15209,52 @@
       <c r="C130" t="s">
         <v>1276</v>
       </c>
-      <c r="D130" s="3" t="str">
+      <c r="D130" s="3" t="e">
         <f t="shared" ca="1" si="72"/>
-        <v>Albumin unit</v>
+        <v>#N/A</v>
       </c>
       <c r="E130" t="s">
         <v>5</v>
       </c>
-      <c r="F130" s="3" t="str">
+      <c r="F130" s="3" t="e">
         <f t="shared" ca="1" si="68"/>
-        <v>factor</v>
+        <v>#N/A</v>
       </c>
       <c r="G130" t="s">
         <v>6</v>
       </c>
-      <c r="H130" s="3" t="str">
+      <c r="H130" s="3" t="e">
         <f t="shared" ca="1" si="69"/>
-        <v>1="mg/dl";2="g/l";3="g/dl";4="%"</v>
+        <v>#N/A</v>
       </c>
       <c r="I130" s="1"/>
-      <c r="J130" s="1" t="s">
-        <v>765</v>
+      <c r="J130" s="1" t="str">
+        <f>J129</f>
+        <v>q_54a:q_54d</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>2351</v>
+        <v>2373</v>
       </c>
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
-      <c r="Q130" s="1">
+      <c r="Q130" s="1" t="e">
         <f t="shared" ca="1" si="70"/>
-        <v>159</v>
-      </c>
-      <c r="R130" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R130" t="e">
         <f t="shared" ref="R130:T130" ca="1" si="134">IF(Q130&lt;&gt;"",INDEX(INDIRECT(R$2),$Q130),"")</f>
-        <v>Albumin unit</v>
-      </c>
-      <c r="S130" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S130" t="e">
         <f t="shared" ca="1" si="134"/>
-        <v>factor</v>
-      </c>
-      <c r="T130" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T130" t="e">
         <f t="shared" ca="1" si="134"/>
-        <v>1="mg/dl";2="g/l";3="g/dl";4="%"</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="131" spans="1:20">
@@ -15213,49 +15267,51 @@
       <c r="C131" t="s">
         <v>178</v>
       </c>
-      <c r="D131" s="3" t="str">
+      <c r="D131" s="3" t="e">
         <f t="shared" ca="1" si="72"/>
-        <v>Creatinine level  (or NF, NA, NR)</v>
+        <v>#N/A</v>
       </c>
       <c r="E131" t="s">
         <v>1130</v>
       </c>
-      <c r="F131" s="3" t="str">
+      <c r="F131" s="3" t="e">
         <f t="shared" ca="1" si="68"/>
-        <v>numeric</v>
+        <v>#N/A</v>
       </c>
       <c r="G131" t="s">
         <v>6</v>
       </c>
-      <c r="H131" s="3" t="str">
+      <c r="H131" s="3" t="e">
         <f t="shared" ca="1" si="69"/>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="I131" s="1"/>
       <c r="J131" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="K131" s="1"/>
+        <v>2405</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>2403</v>
+      </c>
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
-      <c r="Q131" s="1">
+      <c r="Q131" s="1" t="e">
         <f t="shared" ca="1" si="70"/>
-        <v>160</v>
-      </c>
-      <c r="R131" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R131" t="e">
         <f t="shared" ref="R131:T131" ca="1" si="135">IF(Q131&lt;&gt;"",INDEX(INDIRECT(R$2),$Q131),"")</f>
-        <v>Creatinine level  (or NF, NA, NR)</v>
-      </c>
-      <c r="S131" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S131" t="e">
         <f t="shared" ca="1" si="135"/>
-        <v>numeric</v>
-      </c>
-      <c r="T131" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T131" t="e">
         <f t="shared" ca="1" si="135"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="132" spans="1:20">
@@ -15268,49 +15324,52 @@
       <c r="C132" t="s">
         <v>1277</v>
       </c>
-      <c r="D132" s="3" t="str">
+      <c r="D132" s="3" t="e">
         <f t="shared" ca="1" si="72"/>
-        <v>Creatinine lower range</v>
+        <v>#N/A</v>
       </c>
       <c r="E132" t="s">
         <v>1130</v>
       </c>
-      <c r="F132" s="3" t="str">
+      <c r="F132" s="3" t="e">
         <f t="shared" ref="F132:F203" ca="1" si="136">S132</f>
-        <v>numeric</v>
+        <v>#N/A</v>
       </c>
       <c r="G132" t="s">
         <v>6</v>
       </c>
-      <c r="H132" s="3" t="str">
+      <c r="H132" s="3" t="e">
         <f t="shared" ref="H132:H203" ca="1" si="137">T132</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="I132" s="1"/>
-      <c r="J132" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="K132" s="1"/>
+      <c r="J132" s="1" t="str">
+        <f>J131</f>
+        <v>q_55a:q_55d</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>2373</v>
+      </c>
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
-      <c r="Q132" s="1">
+      <c r="Q132" s="1" t="e">
         <f t="shared" ref="Q132:Q203" ca="1" si="138">IF(J132&lt;&gt;"",MATCH(J132,INDIRECT(Q$2),0),"")</f>
-        <v>161</v>
-      </c>
-      <c r="R132" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R132" t="e">
         <f t="shared" ref="R132:T132" ca="1" si="139">IF(Q132&lt;&gt;"",INDEX(INDIRECT(R$2),$Q132),"")</f>
-        <v>Creatinine lower range</v>
-      </c>
-      <c r="S132" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S132" t="e">
         <f t="shared" ca="1" si="139"/>
-        <v>numeric</v>
-      </c>
-      <c r="T132" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T132" t="e">
         <f t="shared" ca="1" si="139"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="133" spans="1:20">
@@ -15323,49 +15382,52 @@
       <c r="C133" t="s">
         <v>1278</v>
       </c>
-      <c r="D133" s="3" t="str">
+      <c r="D133" s="3" t="e">
         <f t="shared" ref="D133:D204" ca="1" si="140">R133</f>
-        <v>Creatinine upper range</v>
+        <v>#N/A</v>
       </c>
       <c r="E133" t="s">
         <v>1130</v>
       </c>
-      <c r="F133" s="3" t="str">
+      <c r="F133" s="3" t="e">
         <f t="shared" ca="1" si="136"/>
-        <v>numeric</v>
+        <v>#N/A</v>
       </c>
       <c r="G133" t="s">
         <v>6</v>
       </c>
-      <c r="H133" s="3" t="str">
+      <c r="H133" s="3" t="e">
         <f t="shared" ca="1" si="137"/>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="I133" s="1"/>
-      <c r="J133" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="K133" s="1"/>
+      <c r="J133" s="1" t="str">
+        <f>J132</f>
+        <v>q_55a:q_55d</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>2373</v>
+      </c>
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
-      <c r="Q133" s="1">
+      <c r="Q133" s="1" t="e">
         <f t="shared" ca="1" si="138"/>
-        <v>162</v>
-      </c>
-      <c r="R133" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R133" t="e">
         <f t="shared" ref="R133:T133" ca="1" si="141">IF(Q133&lt;&gt;"",INDEX(INDIRECT(R$2),$Q133),"")</f>
-        <v>Creatinine upper range</v>
-      </c>
-      <c r="S133" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S133" t="e">
         <f t="shared" ca="1" si="141"/>
-        <v>numeric</v>
-      </c>
-      <c r="T133" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T133" t="e">
         <f t="shared" ca="1" si="141"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="134" spans="1:20">
@@ -15378,51 +15440,52 @@
       <c r="C134" t="s">
         <v>1279</v>
       </c>
-      <c r="D134" s="3" t="str">
+      <c r="D134" s="3" t="e">
         <f t="shared" ca="1" si="140"/>
-        <v>Creatinine unit</v>
+        <v>#N/A</v>
       </c>
       <c r="E134" t="s">
         <v>5</v>
       </c>
-      <c r="F134" s="3" t="str">
+      <c r="F134" s="3" t="e">
         <f t="shared" ca="1" si="136"/>
-        <v>factor</v>
+        <v>#N/A</v>
       </c>
       <c r="G134" t="s">
         <v>6</v>
       </c>
-      <c r="H134" s="3" t="str">
+      <c r="H134" s="3" t="e">
         <f t="shared" ca="1" si="137"/>
-        <v>1="mg/dl";2="µmol/l";3="mmol/l"</v>
+        <v>#N/A</v>
       </c>
       <c r="I134" s="1"/>
-      <c r="J134" s="1" t="s">
-        <v>769</v>
+      <c r="J134" s="1" t="str">
+        <f>J133</f>
+        <v>q_55a:q_55d</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>2351</v>
+        <v>2373</v>
       </c>
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
-      <c r="Q134" s="1">
+      <c r="Q134" s="1" t="e">
         <f t="shared" ca="1" si="138"/>
-        <v>163</v>
-      </c>
-      <c r="R134" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R134" t="e">
         <f t="shared" ref="R134:T134" ca="1" si="142">IF(Q134&lt;&gt;"",INDEX(INDIRECT(R$2),$Q134),"")</f>
-        <v>Creatinine unit</v>
-      </c>
-      <c r="S134" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S134" t="e">
         <f t="shared" ca="1" si="142"/>
-        <v>factor</v>
-      </c>
-      <c r="T134" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T134" t="e">
         <f t="shared" ca="1" si="142"/>
-        <v>1="mg/dl";2="µmol/l";3="mmol/l"</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="135" spans="1:20">
@@ -15435,49 +15498,51 @@
       <c r="C135" t="s">
         <v>1280</v>
       </c>
-      <c r="D135" s="3" t="str">
+      <c r="D135" s="3" t="e">
         <f t="shared" ca="1" si="140"/>
-        <v>Total Cholesterol level  (or NF, NA, NR)</v>
+        <v>#N/A</v>
       </c>
       <c r="E135" t="s">
         <v>1130</v>
       </c>
-      <c r="F135" s="3" t="str">
+      <c r="F135" s="3" t="e">
         <f t="shared" ca="1" si="136"/>
-        <v>numeric</v>
+        <v>#N/A</v>
       </c>
       <c r="G135" t="s">
         <v>6</v>
       </c>
-      <c r="H135" s="3" t="str">
+      <c r="H135" s="3" t="e">
         <f t="shared" ca="1" si="137"/>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="I135" s="1"/>
       <c r="J135" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="K135" s="1"/>
+        <v>2406</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>2403</v>
+      </c>
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
       <c r="P135" s="1"/>
-      <c r="Q135" s="1">
+      <c r="Q135" s="1" t="e">
         <f t="shared" ca="1" si="138"/>
-        <v>164</v>
-      </c>
-      <c r="R135" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R135" t="e">
         <f t="shared" ref="R135:T135" ca="1" si="143">IF(Q135&lt;&gt;"",INDEX(INDIRECT(R$2),$Q135),"")</f>
-        <v>Total Cholesterol level  (or NF, NA, NR)</v>
-      </c>
-      <c r="S135" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S135" t="e">
         <f t="shared" ca="1" si="143"/>
-        <v>numeric</v>
-      </c>
-      <c r="T135" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T135" t="e">
         <f t="shared" ca="1" si="143"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="136" spans="1:20">
@@ -15490,49 +15555,52 @@
       <c r="C136" t="s">
         <v>1281</v>
       </c>
-      <c r="D136" s="3" t="str">
+      <c r="D136" s="3" t="e">
         <f t="shared" ca="1" si="140"/>
-        <v>Total Cholesterol lower range</v>
+        <v>#N/A</v>
       </c>
       <c r="E136" t="s">
         <v>1130</v>
       </c>
-      <c r="F136" s="3" t="str">
+      <c r="F136" s="3" t="e">
         <f t="shared" ca="1" si="136"/>
-        <v>numeric</v>
+        <v>#N/A</v>
       </c>
       <c r="G136" t="s">
         <v>6</v>
       </c>
-      <c r="H136" s="3" t="str">
+      <c r="H136" s="3" t="e">
         <f t="shared" ca="1" si="137"/>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="I136" s="1"/>
-      <c r="J136" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="K136" s="1"/>
+      <c r="J136" s="1" t="str">
+        <f>J135</f>
+        <v>q_56a:q_56d</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>2373</v>
+      </c>
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
       <c r="P136" s="1"/>
-      <c r="Q136" s="1">
+      <c r="Q136" s="1" t="e">
         <f t="shared" ca="1" si="138"/>
-        <v>165</v>
-      </c>
-      <c r="R136" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R136" t="e">
         <f t="shared" ref="R136:T136" ca="1" si="144">IF(Q136&lt;&gt;"",INDEX(INDIRECT(R$2),$Q136),"")</f>
-        <v>Total Cholesterol lower range</v>
-      </c>
-      <c r="S136" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S136" t="e">
         <f t="shared" ca="1" si="144"/>
-        <v>numeric</v>
-      </c>
-      <c r="T136" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T136" t="e">
         <f t="shared" ca="1" si="144"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="137" spans="1:20">
@@ -15545,49 +15613,52 @@
       <c r="C137" t="s">
         <v>1282</v>
       </c>
-      <c r="D137" s="3" t="str">
+      <c r="D137" s="3" t="e">
         <f t="shared" ca="1" si="140"/>
-        <v>Total Cholesterol upper range</v>
+        <v>#N/A</v>
       </c>
       <c r="E137" t="s">
         <v>1130</v>
       </c>
-      <c r="F137" s="3" t="str">
+      <c r="F137" s="3" t="e">
         <f t="shared" ca="1" si="136"/>
-        <v>numeric</v>
+        <v>#N/A</v>
       </c>
       <c r="G137" t="s">
         <v>6</v>
       </c>
-      <c r="H137" s="3" t="str">
+      <c r="H137" s="3" t="e">
         <f t="shared" ca="1" si="137"/>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="I137" s="1"/>
-      <c r="J137" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="K137" s="1"/>
+      <c r="J137" s="1" t="str">
+        <f>J136</f>
+        <v>q_56a:q_56d</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>2373</v>
+      </c>
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
       <c r="P137" s="1"/>
-      <c r="Q137" s="1">
+      <c r="Q137" s="1" t="e">
         <f t="shared" ca="1" si="138"/>
-        <v>166</v>
-      </c>
-      <c r="R137" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R137" t="e">
         <f t="shared" ref="R137:T137" ca="1" si="145">IF(Q137&lt;&gt;"",INDEX(INDIRECT(R$2),$Q137),"")</f>
-        <v>Total Cholesterol upper range</v>
-      </c>
-      <c r="S137" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S137" t="e">
         <f t="shared" ca="1" si="145"/>
-        <v>numeric</v>
-      </c>
-      <c r="T137" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T137" t="e">
         <f t="shared" ca="1" si="145"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="138" spans="1:20">
@@ -15600,51 +15671,52 @@
       <c r="C138" t="s">
         <v>1283</v>
       </c>
-      <c r="D138" s="3" t="str">
+      <c r="D138" s="3" t="e">
         <f t="shared" ca="1" si="140"/>
-        <v>Total Cholesterol unit</v>
+        <v>#N/A</v>
       </c>
       <c r="E138" t="s">
         <v>5</v>
       </c>
-      <c r="F138" s="3" t="str">
+      <c r="F138" s="3" t="e">
         <f t="shared" ca="1" si="136"/>
-        <v>factor</v>
+        <v>#N/A</v>
       </c>
       <c r="G138" t="s">
         <v>6</v>
       </c>
-      <c r="H138" s="3" t="str">
+      <c r="H138" s="3" t="e">
         <f t="shared" ca="1" si="137"/>
-        <v>1="mg/dl";2="µmol/l";3="mmol/l"</v>
+        <v>#N/A</v>
       </c>
       <c r="I138" s="1"/>
-      <c r="J138" s="1" t="s">
-        <v>773</v>
+      <c r="J138" s="1" t="str">
+        <f>J137</f>
+        <v>q_56a:q_56d</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>2351</v>
+        <v>2373</v>
       </c>
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
       <c r="P138" s="1"/>
-      <c r="Q138" s="1">
+      <c r="Q138" s="1" t="e">
         <f t="shared" ca="1" si="138"/>
-        <v>167</v>
-      </c>
-      <c r="R138" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R138" t="e">
         <f t="shared" ref="R138:T138" ca="1" si="146">IF(Q138&lt;&gt;"",INDEX(INDIRECT(R$2),$Q138),"")</f>
-        <v>Total Cholesterol unit</v>
-      </c>
-      <c r="S138" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S138" t="e">
         <f t="shared" ca="1" si="146"/>
-        <v>factor</v>
-      </c>
-      <c r="T138" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T138" t="e">
         <f t="shared" ca="1" si="146"/>
-        <v>1="mg/dl";2="µmol/l";3="mmol/l"</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="139" spans="1:20">
@@ -15657,49 +15729,51 @@
       <c r="C139" t="s">
         <v>187</v>
       </c>
-      <c r="D139" s="3" t="str">
+      <c r="D139" s="3" t="e">
         <f t="shared" ca="1" si="140"/>
-        <v>HDL Cholesterol level  (or NF, NA, NR)</v>
+        <v>#N/A</v>
       </c>
       <c r="E139" t="s">
         <v>1130</v>
       </c>
-      <c r="F139" s="3" t="str">
+      <c r="F139" s="3" t="e">
         <f t="shared" ca="1" si="136"/>
-        <v>numeric</v>
+        <v>#N/A</v>
       </c>
       <c r="G139" t="s">
         <v>6</v>
       </c>
-      <c r="H139" s="3" t="str">
+      <c r="H139" s="3" t="e">
         <f t="shared" ca="1" si="137"/>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="I139" s="1"/>
       <c r="J139" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="K139" s="1"/>
+        <v>2407</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>2403</v>
+      </c>
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
       <c r="P139" s="1"/>
-      <c r="Q139" s="1">
+      <c r="Q139" s="1" t="e">
         <f t="shared" ca="1" si="138"/>
-        <v>168</v>
-      </c>
-      <c r="R139" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R139" t="e">
         <f t="shared" ref="R139:T139" ca="1" si="147">IF(Q139&lt;&gt;"",INDEX(INDIRECT(R$2),$Q139),"")</f>
-        <v>HDL Cholesterol level  (or NF, NA, NR)</v>
-      </c>
-      <c r="S139" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S139" t="e">
         <f t="shared" ca="1" si="147"/>
-        <v>numeric</v>
-      </c>
-      <c r="T139" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T139" t="e">
         <f t="shared" ca="1" si="147"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="140" spans="1:20">
@@ -15712,49 +15786,52 @@
       <c r="C140" t="s">
         <v>1284</v>
       </c>
-      <c r="D140" s="3" t="str">
+      <c r="D140" s="3" t="e">
         <f t="shared" ca="1" si="140"/>
-        <v>HDL Cholesterol lower range</v>
+        <v>#N/A</v>
       </c>
       <c r="E140" t="s">
         <v>1130</v>
       </c>
-      <c r="F140" s="3" t="str">
+      <c r="F140" s="3" t="e">
         <f t="shared" ca="1" si="136"/>
-        <v>numeric</v>
+        <v>#N/A</v>
       </c>
       <c r="G140" t="s">
         <v>6</v>
       </c>
-      <c r="H140" s="3" t="str">
+      <c r="H140" s="3" t="e">
         <f t="shared" ca="1" si="137"/>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="I140" s="1"/>
-      <c r="J140" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="K140" s="1"/>
+      <c r="J140" s="1" t="str">
+        <f>J139</f>
+        <v>q_57a:q_57d</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>2373</v>
+      </c>
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>
-      <c r="Q140" s="1">
+      <c r="Q140" s="1" t="e">
         <f t="shared" ca="1" si="138"/>
-        <v>169</v>
-      </c>
-      <c r="R140" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R140" t="e">
         <f t="shared" ref="R140:T140" ca="1" si="148">IF(Q140&lt;&gt;"",INDEX(INDIRECT(R$2),$Q140),"")</f>
-        <v>HDL Cholesterol lower range</v>
-      </c>
-      <c r="S140" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S140" t="e">
         <f t="shared" ca="1" si="148"/>
-        <v>numeric</v>
-      </c>
-      <c r="T140" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T140" t="e">
         <f t="shared" ca="1" si="148"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="141" spans="1:20">
@@ -15767,49 +15844,52 @@
       <c r="C141" t="s">
         <v>1285</v>
       </c>
-      <c r="D141" s="3" t="str">
+      <c r="D141" s="3" t="e">
         <f t="shared" ca="1" si="140"/>
-        <v>HDL Cholesterol upper range</v>
+        <v>#N/A</v>
       </c>
       <c r="E141" t="s">
         <v>1130</v>
       </c>
-      <c r="F141" s="3" t="str">
+      <c r="F141" s="3" t="e">
         <f t="shared" ca="1" si="136"/>
-        <v>numeric</v>
+        <v>#N/A</v>
       </c>
       <c r="G141" t="s">
         <v>6</v>
       </c>
-      <c r="H141" s="3" t="str">
+      <c r="H141" s="3" t="e">
         <f t="shared" ca="1" si="137"/>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="I141" s="1"/>
-      <c r="J141" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="K141" s="1"/>
+      <c r="J141" s="1" t="str">
+        <f>J140</f>
+        <v>q_57a:q_57d</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>2373</v>
+      </c>
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
-      <c r="Q141" s="1">
+      <c r="Q141" s="1" t="e">
         <f t="shared" ca="1" si="138"/>
-        <v>170</v>
-      </c>
-      <c r="R141" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R141" t="e">
         <f t="shared" ref="R141:T141" ca="1" si="149">IF(Q141&lt;&gt;"",INDEX(INDIRECT(R$2),$Q141),"")</f>
-        <v>HDL Cholesterol upper range</v>
-      </c>
-      <c r="S141" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S141" t="e">
         <f t="shared" ca="1" si="149"/>
-        <v>numeric</v>
-      </c>
-      <c r="T141" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T141" t="e">
         <f t="shared" ca="1" si="149"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="142" spans="1:20">
@@ -15822,51 +15902,52 @@
       <c r="C142" t="s">
         <v>1286</v>
       </c>
-      <c r="D142" s="3" t="str">
+      <c r="D142" s="3" t="e">
         <f t="shared" ca="1" si="140"/>
-        <v>HDL Cholesterol unit</v>
+        <v>#N/A</v>
       </c>
       <c r="E142" t="s">
         <v>5</v>
       </c>
-      <c r="F142" s="3" t="str">
+      <c r="F142" s="3" t="e">
         <f t="shared" ca="1" si="136"/>
-        <v>factor</v>
+        <v>#N/A</v>
       </c>
       <c r="G142" t="s">
         <v>6</v>
       </c>
-      <c r="H142" s="3" t="str">
+      <c r="H142" s="3" t="e">
         <f t="shared" ca="1" si="137"/>
-        <v>1="mg/dl";2="µmol/l";3="mmol/l";4="% total"</v>
+        <v>#N/A</v>
       </c>
       <c r="I142" s="1"/>
-      <c r="J142" s="1" t="s">
-        <v>777</v>
+      <c r="J142" s="1" t="str">
+        <f>J141</f>
+        <v>q_57a:q_57d</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>2351</v>
+        <v>2373</v>
       </c>
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
       <c r="P142" s="1"/>
-      <c r="Q142" s="1">
+      <c r="Q142" s="1" t="e">
         <f t="shared" ca="1" si="138"/>
-        <v>171</v>
-      </c>
-      <c r="R142" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R142" t="e">
         <f t="shared" ref="R142:T142" ca="1" si="150">IF(Q142&lt;&gt;"",INDEX(INDIRECT(R$2),$Q142),"")</f>
-        <v>HDL Cholesterol unit</v>
-      </c>
-      <c r="S142" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S142" t="e">
         <f t="shared" ca="1" si="150"/>
-        <v>factor</v>
-      </c>
-      <c r="T142" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T142" t="e">
         <f t="shared" ca="1" si="150"/>
-        <v>1="mg/dl";2="µmol/l";3="mmol/l";4="% total"</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="143" spans="1:20">
@@ -15879,49 +15960,51 @@
       <c r="C143" t="s">
         <v>1287</v>
       </c>
-      <c r="D143" s="3" t="str">
+      <c r="D143" s="3" t="e">
         <f t="shared" ca="1" si="140"/>
-        <v>LDL Cholesterol level  (or NF, NA, NR)</v>
+        <v>#N/A</v>
       </c>
       <c r="E143" t="s">
         <v>1130</v>
       </c>
-      <c r="F143" s="3" t="str">
+      <c r="F143" s="3" t="e">
         <f t="shared" ca="1" si="136"/>
-        <v>numeric</v>
+        <v>#N/A</v>
       </c>
       <c r="G143" t="s">
         <v>6</v>
       </c>
-      <c r="H143" s="3" t="str">
+      <c r="H143" s="3" t="e">
         <f t="shared" ca="1" si="137"/>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="I143" s="1"/>
       <c r="J143" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="K143" s="1"/>
+        <v>2408</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>2403</v>
+      </c>
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
       <c r="P143" s="1"/>
-      <c r="Q143" s="1">
+      <c r="Q143" s="1" t="e">
         <f t="shared" ca="1" si="138"/>
-        <v>172</v>
-      </c>
-      <c r="R143" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R143" t="e">
         <f t="shared" ref="R143:T143" ca="1" si="151">IF(Q143&lt;&gt;"",INDEX(INDIRECT(R$2),$Q143),"")</f>
-        <v>LDL Cholesterol level  (or NF, NA, NR)</v>
-      </c>
-      <c r="S143" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S143" t="e">
         <f t="shared" ca="1" si="151"/>
-        <v>numeric</v>
-      </c>
-      <c r="T143" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T143" t="e">
         <f t="shared" ca="1" si="151"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="144" spans="1:20">
@@ -15934,49 +16017,52 @@
       <c r="C144" t="s">
         <v>1288</v>
       </c>
-      <c r="D144" s="3" t="str">
+      <c r="D144" s="3" t="e">
         <f t="shared" ca="1" si="140"/>
-        <v>LDL Cholesterol lower range</v>
+        <v>#N/A</v>
       </c>
       <c r="E144" t="s">
         <v>1130</v>
       </c>
-      <c r="F144" s="3" t="str">
+      <c r="F144" s="3" t="e">
         <f t="shared" ca="1" si="136"/>
-        <v>numeric</v>
+        <v>#N/A</v>
       </c>
       <c r="G144" t="s">
         <v>6</v>
       </c>
-      <c r="H144" s="3" t="str">
+      <c r="H144" s="3" t="e">
         <f t="shared" ca="1" si="137"/>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="I144" s="1"/>
-      <c r="J144" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="K144" s="1"/>
+      <c r="J144" s="1" t="str">
+        <f>J143</f>
+        <v>q_58a:q_58d</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>2373</v>
+      </c>
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
       <c r="P144" s="1"/>
-      <c r="Q144" s="1">
+      <c r="Q144" s="1" t="e">
         <f t="shared" ca="1" si="138"/>
-        <v>173</v>
-      </c>
-      <c r="R144" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R144" t="e">
         <f t="shared" ref="R144:T144" ca="1" si="152">IF(Q144&lt;&gt;"",INDEX(INDIRECT(R$2),$Q144),"")</f>
-        <v>LDL Cholesterol lower range</v>
-      </c>
-      <c r="S144" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S144" t="e">
         <f t="shared" ca="1" si="152"/>
-        <v>numeric</v>
-      </c>
-      <c r="T144" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T144" t="e">
         <f t="shared" ca="1" si="152"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="145" spans="1:20">
@@ -15989,49 +16075,52 @@
       <c r="C145" t="s">
         <v>1289</v>
       </c>
-      <c r="D145" s="3" t="str">
+      <c r="D145" s="3" t="e">
         <f t="shared" ca="1" si="140"/>
-        <v>LDL Cholesterol upper range</v>
+        <v>#N/A</v>
       </c>
       <c r="E145" t="s">
         <v>1130</v>
       </c>
-      <c r="F145" s="3" t="str">
+      <c r="F145" s="3" t="e">
         <f t="shared" ca="1" si="136"/>
-        <v>numeric</v>
+        <v>#N/A</v>
       </c>
       <c r="G145" t="s">
         <v>6</v>
       </c>
-      <c r="H145" s="3" t="str">
+      <c r="H145" s="3" t="e">
         <f t="shared" ca="1" si="137"/>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="I145" s="1"/>
-      <c r="J145" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="K145" s="1"/>
+      <c r="J145" s="1" t="str">
+        <f>J144</f>
+        <v>q_58a:q_58d</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>2373</v>
+      </c>
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
-      <c r="Q145" s="1">
+      <c r="Q145" s="1" t="e">
         <f t="shared" ca="1" si="138"/>
-        <v>174</v>
-      </c>
-      <c r="R145" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R145" t="e">
         <f t="shared" ref="R145:T145" ca="1" si="153">IF(Q145&lt;&gt;"",INDEX(INDIRECT(R$2),$Q145),"")</f>
-        <v>LDL Cholesterol upper range</v>
-      </c>
-      <c r="S145" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S145" t="e">
         <f t="shared" ca="1" si="153"/>
-        <v>numeric</v>
-      </c>
-      <c r="T145" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T145" t="e">
         <f t="shared" ca="1" si="153"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="146" spans="1:20">
@@ -16044,51 +16133,52 @@
       <c r="C146" t="s">
         <v>1290</v>
       </c>
-      <c r="D146" s="3" t="str">
+      <c r="D146" s="3" t="e">
         <f t="shared" ca="1" si="140"/>
-        <v>LDL Cholesterol unit</v>
+        <v>#N/A</v>
       </c>
       <c r="E146" t="s">
         <v>5</v>
       </c>
-      <c r="F146" s="3" t="str">
+      <c r="F146" s="3" t="e">
         <f t="shared" ca="1" si="136"/>
-        <v>factor</v>
+        <v>#N/A</v>
       </c>
       <c r="G146" t="s">
         <v>6</v>
       </c>
-      <c r="H146" s="3" t="str">
+      <c r="H146" s="3" t="e">
         <f t="shared" ca="1" si="137"/>
-        <v>1="mg/dl";2="µmol/l";3="mmol/l";4="% total"</v>
+        <v>#N/A</v>
       </c>
       <c r="I146" s="1"/>
-      <c r="J146" s="1" t="s">
-        <v>781</v>
+      <c r="J146" s="1" t="str">
+        <f>J145</f>
+        <v>q_58a:q_58d</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>2351</v>
+        <v>2373</v>
       </c>
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
       <c r="P146" s="1"/>
-      <c r="Q146" s="1">
+      <c r="Q146" s="1" t="e">
         <f t="shared" ca="1" si="138"/>
-        <v>175</v>
-      </c>
-      <c r="R146" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R146" t="e">
         <f t="shared" ref="R146:T146" ca="1" si="154">IF(Q146&lt;&gt;"",INDEX(INDIRECT(R$2),$Q146),"")</f>
-        <v>LDL Cholesterol unit</v>
-      </c>
-      <c r="S146" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S146" t="e">
         <f t="shared" ca="1" si="154"/>
-        <v>factor</v>
-      </c>
-      <c r="T146" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T146" t="e">
         <f t="shared" ca="1" si="154"/>
-        <v>1="mg/dl";2="µmol/l";3="mmol/l";4="% total"</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="147" spans="1:20">
@@ -16101,49 +16191,51 @@
       <c r="C147" t="s">
         <v>196</v>
       </c>
-      <c r="D147" s="3" t="str">
+      <c r="D147" s="3" t="e">
         <f t="shared" ca="1" si="140"/>
-        <v>Triglycerides level (or NF, NA, NR)</v>
+        <v>#N/A</v>
       </c>
       <c r="E147" t="s">
         <v>1130</v>
       </c>
-      <c r="F147" s="3" t="str">
+      <c r="F147" s="3" t="e">
         <f t="shared" ca="1" si="136"/>
-        <v>numeric</v>
+        <v>#N/A</v>
       </c>
       <c r="G147" t="s">
         <v>6</v>
       </c>
-      <c r="H147" s="3" t="str">
+      <c r="H147" s="3" t="e">
         <f t="shared" ca="1" si="137"/>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="I147" s="1"/>
       <c r="J147" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="K147" s="1"/>
+        <v>2409</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>2403</v>
+      </c>
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
       <c r="P147" s="1"/>
-      <c r="Q147" s="1">
+      <c r="Q147" s="1" t="e">
         <f t="shared" ca="1" si="138"/>
-        <v>176</v>
-      </c>
-      <c r="R147" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R147" t="e">
         <f t="shared" ref="R147:T147" ca="1" si="155">IF(Q147&lt;&gt;"",INDEX(INDIRECT(R$2),$Q147),"")</f>
-        <v>Triglycerides level (or NF, NA, NR)</v>
-      </c>
-      <c r="S147" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S147" t="e">
         <f t="shared" ca="1" si="155"/>
-        <v>numeric</v>
-      </c>
-      <c r="T147" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T147" t="e">
         <f t="shared" ca="1" si="155"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="148" spans="1:20">
@@ -16156,49 +16248,52 @@
       <c r="C148" t="s">
         <v>1291</v>
       </c>
-      <c r="D148" s="3" t="str">
+      <c r="D148" s="3" t="e">
         <f t="shared" ca="1" si="140"/>
-        <v>Triglycerides lower range</v>
+        <v>#N/A</v>
       </c>
       <c r="E148" t="s">
         <v>1130</v>
       </c>
-      <c r="F148" s="3" t="str">
+      <c r="F148" s="3" t="e">
         <f t="shared" ca="1" si="136"/>
-        <v>integer</v>
+        <v>#N/A</v>
       </c>
       <c r="G148" t="s">
         <v>6</v>
       </c>
-      <c r="H148" s="3" t="str">
+      <c r="H148" s="3" t="e">
         <f t="shared" ca="1" si="137"/>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="I148" s="1"/>
-      <c r="J148" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="K148" s="1"/>
+      <c r="J148" s="1" t="str">
+        <f>J147</f>
+        <v>q_59a:q_59d</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>2373</v>
+      </c>
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
-      <c r="Q148" s="1">
+      <c r="Q148" s="1" t="e">
         <f t="shared" ca="1" si="138"/>
-        <v>177</v>
-      </c>
-      <c r="R148" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R148" t="e">
         <f t="shared" ref="R148:T148" ca="1" si="156">IF(Q148&lt;&gt;"",INDEX(INDIRECT(R$2),$Q148),"")</f>
-        <v>Triglycerides lower range</v>
-      </c>
-      <c r="S148" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S148" t="e">
         <f t="shared" ca="1" si="156"/>
-        <v>integer</v>
-      </c>
-      <c r="T148" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T148" t="e">
         <f t="shared" ca="1" si="156"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="149" spans="1:20">
@@ -16211,49 +16306,52 @@
       <c r="C149" t="s">
         <v>1292</v>
       </c>
-      <c r="D149" s="3" t="str">
+      <c r="D149" s="3" t="e">
         <f t="shared" ca="1" si="140"/>
-        <v>Triglycerides upper range</v>
+        <v>#N/A</v>
       </c>
       <c r="E149" t="s">
         <v>1130</v>
       </c>
-      <c r="F149" s="3" t="str">
+      <c r="F149" s="3" t="e">
         <f t="shared" ca="1" si="136"/>
-        <v>numeric</v>
+        <v>#N/A</v>
       </c>
       <c r="G149" t="s">
         <v>6</v>
       </c>
-      <c r="H149" s="3" t="str">
+      <c r="H149" s="3" t="e">
         <f t="shared" ca="1" si="137"/>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="I149" s="1"/>
-      <c r="J149" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="K149" s="1"/>
+      <c r="J149" s="1" t="str">
+        <f>J148</f>
+        <v>q_59a:q_59d</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>2373</v>
+      </c>
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
-      <c r="Q149" s="1">
+      <c r="Q149" s="1" t="e">
         <f t="shared" ca="1" si="138"/>
-        <v>178</v>
-      </c>
-      <c r="R149" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R149" t="e">
         <f t="shared" ref="R149:T149" ca="1" si="157">IF(Q149&lt;&gt;"",INDEX(INDIRECT(R$2),$Q149),"")</f>
-        <v>Triglycerides upper range</v>
-      </c>
-      <c r="S149" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S149" t="e">
         <f t="shared" ca="1" si="157"/>
-        <v>numeric</v>
-      </c>
-      <c r="T149" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T149" t="e">
         <f t="shared" ca="1" si="157"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="150" spans="1:20">
@@ -16266,51 +16364,52 @@
       <c r="C150" t="s">
         <v>1293</v>
       </c>
-      <c r="D150" s="3" t="str">
+      <c r="D150" s="3" t="e">
         <f t="shared" ca="1" si="140"/>
-        <v>Triglycerides unit</v>
+        <v>#N/A</v>
       </c>
       <c r="E150" t="s">
         <v>5</v>
       </c>
-      <c r="F150" s="3" t="str">
+      <c r="F150" s="3" t="e">
         <f t="shared" ca="1" si="136"/>
-        <v>factor</v>
+        <v>#N/A</v>
       </c>
       <c r="G150" t="s">
         <v>6</v>
       </c>
-      <c r="H150" s="3" t="str">
+      <c r="H150" s="3" t="e">
         <f t="shared" ca="1" si="137"/>
-        <v>1="mg/dl";2="µmol/l";3="mmol/l"</v>
+        <v>#N/A</v>
       </c>
       <c r="I150" s="1"/>
-      <c r="J150" s="1" t="s">
-        <v>785</v>
+      <c r="J150" s="1" t="str">
+        <f>J149</f>
+        <v>q_59a:q_59d</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>2351</v>
+        <v>2373</v>
       </c>
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
       <c r="P150" s="1"/>
-      <c r="Q150" s="1">
+      <c r="Q150" s="1" t="e">
         <f t="shared" ca="1" si="138"/>
-        <v>179</v>
-      </c>
-      <c r="R150" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R150" t="e">
         <f t="shared" ref="R150:T150" ca="1" si="158">IF(Q150&lt;&gt;"",INDEX(INDIRECT(R$2),$Q150),"")</f>
-        <v>Triglycerides unit</v>
-      </c>
-      <c r="S150" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S150" t="e">
         <f t="shared" ca="1" si="158"/>
-        <v>factor</v>
-      </c>
-      <c r="T150" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T150" t="e">
         <f t="shared" ca="1" si="158"/>
-        <v>1="mg/dl";2="µmol/l";3="mmol/l"</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="151" spans="1:20">

--- a/inst/xls_xls_dic.xlsx
+++ b/inst/xls_xls_dic.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8414" uniqueCount="2411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8420" uniqueCount="2415">
   <si>
     <t>colname</t>
   </si>
@@ -7247,7 +7247,19 @@
     <t>q_59a:q_59d</t>
   </si>
   <si>
-    <t>µkat/l</t>
+    <t>U/L-&gt;U/l;ukat/l-&gt;µkat/l</t>
+  </si>
+  <si>
+    <t>g/L-&gt;g/l;g/dL-&gt;g/dl</t>
+  </si>
+  <si>
+    <t>mg/dL-&gt;mg/dl;umol/l-&gt;µmol/l</t>
+  </si>
+  <si>
+    <t>mg/dL-&gt;mg/dl</t>
+  </si>
+  <si>
+    <t>mg/dL-&gt;mg/dl;mg/Dl-&gt;mg/dl</t>
   </si>
 </sst>
 </file>
@@ -7754,8 +7766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="L123" sqref="L123"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="L202" sqref="L202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -14888,7 +14900,6 @@
       <c r="K124" s="1" t="s">
         <v>2373</v>
       </c>
-      <c r="L124" s="1"/>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
@@ -14946,7 +14957,7 @@
       <c r="K125" s="1" t="s">
         <v>2373</v>
       </c>
-      <c r="L125" s="1"/>
+      <c r="L125" s="44"/>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
@@ -15061,7 +15072,9 @@
       <c r="K127" s="1" t="s">
         <v>2403</v>
       </c>
-      <c r="L127" s="1"/>
+      <c r="L127" s="44" t="s">
+        <v>2411</v>
+      </c>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
@@ -15292,7 +15305,9 @@
       <c r="K131" s="1" t="s">
         <v>2403</v>
       </c>
-      <c r="L131" s="1"/>
+      <c r="L131" s="44" t="s">
+        <v>2412</v>
+      </c>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
@@ -15523,7 +15538,9 @@
       <c r="K135" s="1" t="s">
         <v>2403</v>
       </c>
-      <c r="L135" s="1"/>
+      <c r="L135" s="44" t="s">
+        <v>2413</v>
+      </c>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
@@ -15754,7 +15771,9 @@
       <c r="K139" s="1" t="s">
         <v>2403</v>
       </c>
-      <c r="L139" s="1"/>
+      <c r="L139" s="44" t="s">
+        <v>2413</v>
+      </c>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
@@ -15985,7 +16004,9 @@
       <c r="K143" s="1" t="s">
         <v>2403</v>
       </c>
-      <c r="L143" s="1"/>
+      <c r="L143" s="44" t="s">
+        <v>2413</v>
+      </c>
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
@@ -16216,7 +16237,9 @@
       <c r="K147" s="1" t="s">
         <v>2403</v>
       </c>
-      <c r="L147" s="1"/>
+      <c r="L147" s="44" t="s">
+        <v>2414</v>
+      </c>
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>

--- a/inst/xls_xls_dic.xlsx
+++ b/inst/xls_xls_dic.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8639" uniqueCount="2415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8646" uniqueCount="2420">
   <si>
     <t>colname</t>
   </si>
@@ -7148,9 +7148,6 @@
     <t>q_102a_1:q_102d_2</t>
   </si>
   <si>
-    <t>q_103a_1:q_103a_2</t>
-  </si>
-  <si>
     <t>q_104a_1:q_104d_2</t>
   </si>
   <si>
@@ -7260,6 +7257,24 @@
   </si>
   <si>
     <t>mg/dL-&gt;mg/dl;mg/Dl-&gt;mg/dl</t>
+  </si>
+  <si>
+    <t>q_103a_1:q_103d_2</t>
+  </si>
+  <si>
+    <t>SPG4-&gt;!</t>
+  </si>
+  <si>
+    <t>No-&gt;NA;SPG3A-&gt;!;MFN2-&gt;!</t>
+  </si>
+  <si>
+    <t>No-&gt;NA;SPG7-&gt;!</t>
+  </si>
+  <si>
+    <t>No-&gt;NA</t>
+  </si>
+  <si>
+    <t>GP-&gt;General Practitioner;general practicioner-&gt;General Practitioner;general pracitioner-&gt;General Practitioner;general and familiar medicine (gp)-&gt;General Practitioner;general practitioner n-&gt;General Practitioner;general practioner-&gt;General Practitioner;general practicer-&gt;General Practitioner;practitioner-&gt;General Practitioner;family doctor-&gt;General Practitioner;ftr-&gt;!;internal medicen-&gt;internal medicine;internal medixcine-&gt;internal medicine;interna medicine-&gt;internal medicine;neurosurgery-&gt;neurosurgeon;ortopedist-&gt;Orthopaedist;pneumolog-&gt;Pneumologist;neurosurgen-&gt;Neurosurgeon;neurosurgeon no-&gt;Neurosurgeon;lor-&gt;!;physiotherayist-&gt;!other;orthopedic surgeon-&gt;!Orthopaedist;orthopedist hospital-&gt;Orthopaedist;orthopediest-&gt;Orthopaedist;orthopedist n-&gt;Orthopaedist;neurology-&gt;Neurologist;second neurologist-&gt;Neurologist;phoniatrist/ent-&gt;!;ent-&gt;Ear-Nose-Throat Doctor (ENT);ear nose troat doctor-&gt;Ear-Nose-Throat Doctor (ENT);ent n-&gt;Ear-Nose-Throat Doctor (ENT);ear-nose-throat-doctor-&gt;Ear-Nose-Throat Doctor (ENT);ortopaedist-&gt;Orthopaedist;nf-&gt;NA;ent y-&gt;Ear-Nose-Throat Doctor (ENT);ear-nose-troat-doctor-&gt;Ear-Nose-Throat Doctor (ENT);neurologist (clinic) y-&gt;Neurologist;neurologist clinic-&gt;Neurologist;neurologist (hospital)-&gt;Neurologist;neurologist n-&gt;Neurologist;first neurologist-&gt;Neurologist;neurologist, n-&gt;Neurologist;neurologisy y-&gt;Neurologist;neruologist-&gt;Neurologist;neurlogist-&gt;Neurologist;neurologist no-&gt;Neurologist;orthopaedist n-&gt;Orthopaedist;neurologist (clinic)-&gt;Neurologist;neurologist c y-&gt;Neurologist;second neurology-&gt;Neurologist;neurologist in clinic-&gt;Neurologist;neurologist c  y-&gt;Neurologist;neurology,yes-&gt;Neurologist;neurologist 8th specialist-&gt;Neurologist;neurologist c-&gt;Neurologist;neurologist c n-&gt;Neurologist;orthopedist-&gt;Orthopaedist;orthopedic-&gt;Orthopaedist;ortophedist-&gt;Orthopaedist;neurologist y-&gt;Neurologist;dentist-&gt;!other;dentist n-&gt;!other;surgeon-&gt;General surgeon;vascular surgeon-&gt;!General surgeon;rehabilitation-&gt;Rehabilitation specialist;physical medicine and rehabilitation-&gt;Rehabilitation specialist;rheumathologist-&gt;Rheumatologist;reumathologist-&gt;Rheumatologist;reumatologist-&gt;Rheumatologist;hematologist-&gt;!other;surgeon /ent-&gt;!general surgeon;otorhinolaryngology (ent)-&gt;!other;psychologist-&gt;!other;pm&amp;r-&gt;!Psychiatrist;41913-&gt;!;internist-&gt;!other;laryngologist-&gt;!other;kardiologist-&gt;Cardiologist;phoniater,no-&gt;!other;no-&gt;NA;pulmonologist-&gt;!Pneumologist;otolaryngologist-&gt;!other;no other-&gt;NA;clinic-&gt;!;orthodontist n-&gt;!other;physiatrist-&gt;Psychiatrist;gastroenterologist-&gt;!other;first-&gt;!;second-&gt;!;mhh-&gt;!;hospital-&gt;!;no diagnosis till consultation-&gt;NA;university hostpital desden-&gt;!;pm&amp;r (physiatrist)-&gt;Psychiatrist</t>
   </si>
 </sst>
 </file>
@@ -7760,8 +7775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C537" workbookViewId="0">
-      <selection activeCell="J537" sqref="J537"/>
+    <sheetView tabSelected="1" topLeftCell="A516" workbookViewId="0">
+      <selection activeCell="J536" sqref="J536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8011,7 +8026,7 @@
         <v>548</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -8966,7 +8981,7 @@
         <v>548</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -9025,7 +9040,7 @@
         <v>548</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -9084,7 +9099,7 @@
         <v>548</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -9143,7 +9158,7 @@
         <v>548</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -9202,7 +9217,7 @@
         <v>548</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -9261,7 +9276,7 @@
         <v>548</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -9320,7 +9335,7 @@
         <v>548</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -9607,7 +9622,7 @@
         <v>548</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -9666,7 +9681,7 @@
         <v>548</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -9725,7 +9740,7 @@
         <v>548</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -9898,7 +9913,7 @@
         <v>548</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -9957,7 +9972,7 @@
         <v>548</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -10016,7 +10031,7 @@
         <v>548</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -10075,7 +10090,7 @@
         <v>548</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -10134,7 +10149,7 @@
         <v>548</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -10193,7 +10208,7 @@
         <v>548</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -10252,7 +10267,7 @@
         <v>548</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -10311,7 +10326,7 @@
         <v>548</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -10370,7 +10385,7 @@
         <v>548</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -10429,7 +10444,7 @@
         <v>548</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -10488,7 +10503,7 @@
         <v>548</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -10547,7 +10562,7 @@
         <v>548</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -10606,7 +10621,7 @@
         <v>548</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -10665,7 +10680,7 @@
         <v>548</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
@@ -10724,7 +10739,7 @@
         <v>548</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -10783,7 +10798,7 @@
         <v>548</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -10842,7 +10857,7 @@
         <v>548</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
@@ -10901,7 +10916,7 @@
         <v>548</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
@@ -10960,7 +10975,7 @@
         <v>548</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -11019,7 +11034,7 @@
         <v>548</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
@@ -11078,7 +11093,7 @@
         <v>548</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
@@ -11137,7 +11152,7 @@
         <v>548</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
@@ -11196,7 +11211,7 @@
         <v>548</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
@@ -11255,7 +11270,7 @@
         <v>548</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
@@ -11314,7 +11329,7 @@
         <v>548</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
@@ -11373,7 +11388,7 @@
         <v>548</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
@@ -11432,7 +11447,7 @@
         <v>548</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
@@ -11491,7 +11506,7 @@
         <v>548</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
@@ -11550,7 +11565,7 @@
         <v>548</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
@@ -11609,7 +11624,7 @@
         <v>548</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
@@ -11668,7 +11683,7 @@
         <v>548</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
@@ -11839,7 +11854,7 @@
         <v>548</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
@@ -11898,7 +11913,7 @@
         <v>548</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
@@ -11957,7 +11972,7 @@
         <v>548</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
@@ -12016,7 +12031,7 @@
         <v>548</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
@@ -12075,7 +12090,7 @@
         <v>548</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
@@ -12191,7 +12206,7 @@
         <v>548</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
@@ -12250,7 +12265,7 @@
         <v>548</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
@@ -12309,7 +12324,7 @@
         <v>548</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
@@ -12368,7 +12383,7 @@
         <v>548</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
@@ -13841,7 +13856,7 @@
         <v>725</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
@@ -13955,7 +13970,7 @@
         <v>727</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
@@ -14829,13 +14844,13 @@
       </c>
       <c r="I123" s="1"/>
       <c r="J123" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="K123" s="1" t="s">
         <v>2402</v>
       </c>
-      <c r="K123" s="1" t="s">
-        <v>2403</v>
-      </c>
       <c r="L123" s="38" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
@@ -15061,13 +15076,13 @@
       </c>
       <c r="I127" s="1"/>
       <c r="J127" s="1" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="L127" s="38" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
@@ -15294,13 +15309,13 @@
       </c>
       <c r="I131" s="1"/>
       <c r="J131" s="1" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="L131" s="38" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
@@ -15527,13 +15542,13 @@
       </c>
       <c r="I135" s="1"/>
       <c r="J135" s="1" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="L135" s="38" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
@@ -15760,13 +15775,13 @@
       </c>
       <c r="I139" s="1"/>
       <c r="J139" s="1" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="L139" s="38" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
@@ -15993,13 +16008,13 @@
       </c>
       <c r="I143" s="1"/>
       <c r="J143" s="1" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="L143" s="38" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
@@ -16226,13 +16241,13 @@
       </c>
       <c r="I147" s="1"/>
       <c r="J147" s="1" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="L147" s="38" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
@@ -17314,7 +17329,7 @@
         <v>548</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
@@ -17373,7 +17388,7 @@
         <v>548</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
@@ -17432,7 +17447,7 @@
         <v>548</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
@@ -17491,7 +17506,7 @@
         <v>548</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
@@ -17550,7 +17565,7 @@
         <v>548</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
@@ -17609,7 +17624,7 @@
         <v>548</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
@@ -17668,7 +17683,7 @@
         <v>548</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
@@ -17727,7 +17742,7 @@
         <v>548</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
@@ -17843,7 +17858,7 @@
         <v>548</v>
       </c>
       <c r="L175" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
@@ -17902,7 +17917,7 @@
         <v>548</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
@@ -17961,7 +17976,7 @@
         <v>548</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
@@ -18014,13 +18029,13 @@
       </c>
       <c r="I178" s="1"/>
       <c r="J178" s="37" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="K178" s="1" t="s">
         <v>2339</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="M178" s="1"/>
       <c r="N178" s="11"/>
@@ -18072,7 +18087,7 @@
         <v>#N/A</v>
       </c>
       <c r="J179" s="37" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="K179" s="1" t="s">
         <v>2373</v>
@@ -18126,7 +18141,7 @@
         <v>#N/A</v>
       </c>
       <c r="J180" s="37" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="K180" s="1" t="s">
         <v>2373</v>
@@ -18181,13 +18196,13 @@
       </c>
       <c r="I181" s="1"/>
       <c r="J181" s="37" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="K181" s="1" t="s">
         <v>2339</v>
       </c>
       <c r="L181" s="1" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="M181" s="1"/>
       <c r="N181" s="12"/>
@@ -18239,7 +18254,7 @@
         <v>#N/A</v>
       </c>
       <c r="J182" s="37" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="K182" s="1" t="s">
         <v>2373</v>
@@ -18293,7 +18308,7 @@
         <v>#N/A</v>
       </c>
       <c r="J183" s="37" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="K183" s="1" t="s">
         <v>2373</v>
@@ -18347,7 +18362,7 @@
         <v>#N/A</v>
       </c>
       <c r="J184" s="37" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="K184" s="1" t="s">
         <v>2373</v>
@@ -18401,7 +18416,7 @@
         <v>#N/A</v>
       </c>
       <c r="J185" s="37" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="K185" s="1" t="s">
         <v>2373</v>
@@ -18455,7 +18470,7 @@
         <v>#N/A</v>
       </c>
       <c r="J186" s="37" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="K186" s="1" t="s">
         <v>2373</v>
@@ -18509,7 +18524,7 @@
         <v>#N/A</v>
       </c>
       <c r="J187" s="37" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="K187" s="1" t="s">
         <v>2373</v>
@@ -18570,7 +18585,7 @@
         <v>548</v>
       </c>
       <c r="L188" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
@@ -18684,7 +18699,7 @@
         <v>548</v>
       </c>
       <c r="L190" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
@@ -18798,7 +18813,7 @@
         <v>548</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
@@ -18854,10 +18869,10 @@
         <v>886</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2398</v>
-      </c>
-      <c r="L193" s="1" t="s">
-        <v>2399</v>
       </c>
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
@@ -18916,7 +18931,7 @@
         <v>548</v>
       </c>
       <c r="L194" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
@@ -18972,10 +18987,10 @@
         <v>888</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2398</v>
-      </c>
-      <c r="L195" s="1" t="s">
-        <v>2399</v>
       </c>
       <c r="M195" s="1"/>
       <c r="N195" s="1"/>
@@ -19031,10 +19046,10 @@
         <v>889</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2398</v>
-      </c>
-      <c r="L196" s="1" t="s">
-        <v>2399</v>
       </c>
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
@@ -19093,7 +19108,7 @@
         <v>548</v>
       </c>
       <c r="L197" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M197" s="1"/>
       <c r="N197" s="1"/>
@@ -19207,7 +19222,7 @@
         <v>548</v>
       </c>
       <c r="L199" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M199" s="1"/>
       <c r="N199" s="1"/>
@@ -19321,7 +19336,7 @@
         <v>548</v>
       </c>
       <c r="L201" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
@@ -19492,7 +19507,7 @@
         <v>548</v>
       </c>
       <c r="L204" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
@@ -19606,7 +19621,7 @@
         <v>548</v>
       </c>
       <c r="L206" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M206" s="1"/>
       <c r="N206" s="1"/>
@@ -19720,7 +19735,7 @@
         <v>548</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M208" s="1"/>
       <c r="N208" s="1"/>
@@ -19834,7 +19849,7 @@
         <v>548</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
@@ -19948,7 +19963,7 @@
         <v>548</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
@@ -20062,7 +20077,7 @@
         <v>548</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
@@ -20285,7 +20300,9 @@
       <c r="K218" s="1" t="s">
         <v>2343</v>
       </c>
-      <c r="L218" s="1"/>
+      <c r="L218" s="1" t="s">
+        <v>2415</v>
+      </c>
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
@@ -20397,7 +20414,9 @@
       <c r="K220" s="1" t="s">
         <v>2343</v>
       </c>
-      <c r="L220" s="1"/>
+      <c r="L220" s="1" t="s">
+        <v>2416</v>
+      </c>
       <c r="M220" s="1"/>
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
@@ -20509,7 +20528,9 @@
       <c r="K222" s="1" t="s">
         <v>2343</v>
       </c>
-      <c r="L222" s="1"/>
+      <c r="L222" s="1" t="s">
+        <v>2417</v>
+      </c>
       <c r="M222" s="1"/>
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
@@ -20621,7 +20642,9 @@
       <c r="K224" s="1" t="s">
         <v>2343</v>
       </c>
-      <c r="L224" s="1"/>
+      <c r="L224" s="1" t="s">
+        <v>2418</v>
+      </c>
       <c r="M224" s="1"/>
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
@@ -20733,7 +20756,9 @@
       <c r="K226" s="1" t="s">
         <v>2343</v>
       </c>
-      <c r="L226" s="1"/>
+      <c r="L226" s="1" t="s">
+        <v>2418</v>
+      </c>
       <c r="M226" s="1"/>
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
@@ -20846,7 +20871,7 @@
         <v>548</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
@@ -22718,8 +22743,8 @@
         <v>#N/A</v>
       </c>
       <c r="I261" s="1"/>
-      <c r="J261" s="34" t="s">
-        <v>2377</v>
+      <c r="J261" s="37" t="s">
+        <v>2414</v>
       </c>
       <c r="K261" s="1" t="s">
         <v>2346</v>
@@ -22776,7 +22801,7 @@
       </c>
       <c r="I262" s="1"/>
       <c r="J262" s="37" t="s">
-        <v>2377</v>
+        <v>2414</v>
       </c>
       <c r="K262" s="1" t="s">
         <v>2373</v>
@@ -22833,7 +22858,7 @@
       </c>
       <c r="I263" s="1"/>
       <c r="J263" s="37" t="s">
-        <v>2377</v>
+        <v>2414</v>
       </c>
       <c r="K263" s="1" t="s">
         <v>2373</v>
@@ -22890,7 +22915,7 @@
       </c>
       <c r="I264" s="1"/>
       <c r="J264" s="37" t="s">
-        <v>2377</v>
+        <v>2414</v>
       </c>
       <c r="K264" s="1" t="s">
         <v>2373</v>
@@ -22947,7 +22972,7 @@
       </c>
       <c r="I265" s="1"/>
       <c r="J265" s="37" t="s">
-        <v>2377</v>
+        <v>2414</v>
       </c>
       <c r="K265" s="1" t="s">
         <v>2373</v>
@@ -23004,7 +23029,7 @@
       </c>
       <c r="I266" s="1"/>
       <c r="J266" s="37" t="s">
-        <v>2377</v>
+        <v>2414</v>
       </c>
       <c r="K266" s="1" t="s">
         <v>2373</v>
@@ -23061,7 +23086,7 @@
       </c>
       <c r="I267" s="1"/>
       <c r="J267" s="37" t="s">
-        <v>2377</v>
+        <v>2414</v>
       </c>
       <c r="K267" s="1" t="s">
         <v>2373</v>
@@ -23118,7 +23143,7 @@
       </c>
       <c r="I268" s="1"/>
       <c r="J268" s="37" t="s">
-        <v>2377</v>
+        <v>2414</v>
       </c>
       <c r="K268" s="1" t="s">
         <v>2373</v>
@@ -23175,7 +23200,7 @@
       </c>
       <c r="I269" s="1"/>
       <c r="J269" s="37" t="s">
-        <v>2377</v>
+        <v>2414</v>
       </c>
       <c r="K269" s="1" t="s">
         <v>2373</v>
@@ -23232,7 +23257,7 @@
       </c>
       <c r="I270" s="1"/>
       <c r="J270" s="37" t="s">
-        <v>2377</v>
+        <v>2414</v>
       </c>
       <c r="K270" s="1" t="s">
         <v>2373</v>
@@ -23289,7 +23314,7 @@
       </c>
       <c r="I271" s="1"/>
       <c r="J271" s="34" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="K271" s="1" t="s">
         <v>2346</v>
@@ -23346,7 +23371,7 @@
       </c>
       <c r="I272" s="1"/>
       <c r="J272" s="37" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="K272" s="1" t="s">
         <v>2373</v>
@@ -23403,7 +23428,7 @@
       </c>
       <c r="I273" s="1"/>
       <c r="J273" s="37" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="K273" s="1" t="s">
         <v>2373</v>
@@ -23460,7 +23485,7 @@
       </c>
       <c r="I274" s="1"/>
       <c r="J274" s="37" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="K274" s="1" t="s">
         <v>2373</v>
@@ -23517,7 +23542,7 @@
       </c>
       <c r="I275" s="1"/>
       <c r="J275" s="37" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="K275" s="1" t="s">
         <v>2373</v>
@@ -23574,7 +23599,7 @@
       </c>
       <c r="I276" s="1"/>
       <c r="J276" s="37" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="K276" s="1" t="s">
         <v>2373</v>
@@ -23631,7 +23656,7 @@
       </c>
       <c r="I277" s="1"/>
       <c r="J277" s="37" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="K277" s="1" t="s">
         <v>2373</v>
@@ -23688,7 +23713,7 @@
       </c>
       <c r="I278" s="1"/>
       <c r="J278" s="37" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="K278" s="1" t="s">
         <v>2373</v>
@@ -23745,7 +23770,7 @@
       </c>
       <c r="I279" s="1"/>
       <c r="J279" s="37" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="K279" s="1" t="s">
         <v>2373</v>
@@ -23802,7 +23827,7 @@
       </c>
       <c r="I280" s="1"/>
       <c r="J280" s="37" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="K280" s="1" t="s">
         <v>2373</v>
@@ -23859,7 +23884,7 @@
       </c>
       <c r="I281" s="1"/>
       <c r="J281" s="34" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="K281" s="1" t="s">
         <v>2347</v>
@@ -23916,7 +23941,7 @@
       </c>
       <c r="I282" s="1"/>
       <c r="J282" s="37" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="K282" s="1" t="s">
         <v>2373</v>
@@ -23973,7 +23998,7 @@
       </c>
       <c r="I283" s="1"/>
       <c r="J283" s="37" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="K283" s="1" t="s">
         <v>2373</v>
@@ -24030,7 +24055,7 @@
       </c>
       <c r="I284" s="1"/>
       <c r="J284" s="37" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="K284" s="1" t="s">
         <v>2373</v>
@@ -24087,7 +24112,7 @@
       </c>
       <c r="I285" s="1"/>
       <c r="J285" s="37" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="K285" s="1" t="s">
         <v>2373</v>
@@ -24144,7 +24169,7 @@
       </c>
       <c r="I286" s="1"/>
       <c r="J286" s="37" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="K286" s="1" t="s">
         <v>2373</v>
@@ -24201,7 +24226,7 @@
       </c>
       <c r="I287" s="1"/>
       <c r="J287" s="37" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="K287" s="1" t="s">
         <v>2373</v>
@@ -24258,7 +24283,7 @@
       </c>
       <c r="I288" s="1"/>
       <c r="J288" s="37" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="K288" s="1" t="s">
         <v>2373</v>
@@ -24315,7 +24340,7 @@
       </c>
       <c r="I289" s="1"/>
       <c r="J289" s="37" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="K289" s="1" t="s">
         <v>2373</v>
@@ -24372,7 +24397,7 @@
       </c>
       <c r="I290" s="1"/>
       <c r="J290" s="37" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="K290" s="1" t="s">
         <v>2373</v>
@@ -24429,7 +24454,7 @@
       </c>
       <c r="I291" s="1"/>
       <c r="J291" s="37" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="K291" s="1" t="s">
         <v>2373</v>
@@ -24486,7 +24511,7 @@
       </c>
       <c r="I292" s="1"/>
       <c r="J292" s="37" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="K292" s="1" t="s">
         <v>2373</v>
@@ -24543,7 +24568,7 @@
       </c>
       <c r="I293" s="1"/>
       <c r="J293" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="K293" s="1" t="s">
         <v>2348</v>
@@ -24600,7 +24625,7 @@
       </c>
       <c r="I294" s="1"/>
       <c r="J294" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="K294" s="1" t="s">
         <v>2373</v>
@@ -24657,7 +24682,7 @@
       </c>
       <c r="I295" s="1"/>
       <c r="J295" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="K295" s="1" t="s">
         <v>2373</v>
@@ -24714,7 +24739,7 @@
       </c>
       <c r="I296" s="1"/>
       <c r="J296" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="K296" s="1" t="s">
         <v>2373</v>
@@ -24771,7 +24796,7 @@
       </c>
       <c r="I297" s="1"/>
       <c r="J297" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="K297" s="1" t="s">
         <v>2373</v>
@@ -24828,7 +24853,7 @@
       </c>
       <c r="I298" s="1"/>
       <c r="J298" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="K298" s="1" t="s">
         <v>2373</v>
@@ -24885,7 +24910,7 @@
       </c>
       <c r="I299" s="1"/>
       <c r="J299" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="K299" s="1" t="s">
         <v>2373</v>
@@ -24942,7 +24967,7 @@
       </c>
       <c r="I300" s="1"/>
       <c r="J300" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="K300" s="1" t="s">
         <v>2373</v>
@@ -24999,7 +25024,7 @@
       </c>
       <c r="I301" s="1"/>
       <c r="J301" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="K301" s="1" t="s">
         <v>2373</v>
@@ -25056,7 +25081,7 @@
       </c>
       <c r="I302" s="1"/>
       <c r="J302" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="K302" s="1" t="s">
         <v>2373</v>
@@ -25113,7 +25138,7 @@
       </c>
       <c r="I303" s="1"/>
       <c r="J303" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="K303" s="1" t="s">
         <v>2373</v>
@@ -25170,7 +25195,7 @@
       </c>
       <c r="I304" s="1"/>
       <c r="J304" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="K304" s="1" t="s">
         <v>2373</v>
@@ -25227,7 +25252,7 @@
       </c>
       <c r="I305" s="1"/>
       <c r="J305" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="K305" s="1" t="s">
         <v>2373</v>
@@ -25284,7 +25309,7 @@
       </c>
       <c r="I306" s="1"/>
       <c r="J306" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="K306" s="1" t="s">
         <v>2373</v>
@@ -25341,7 +25366,7 @@
       </c>
       <c r="I307" s="1"/>
       <c r="J307" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="K307" s="1" t="s">
         <v>2373</v>
@@ -25398,7 +25423,7 @@
       </c>
       <c r="I308" s="1"/>
       <c r="J308" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="K308" s="1" t="s">
         <v>2373</v>
@@ -25455,7 +25480,7 @@
       </c>
       <c r="I309" s="1"/>
       <c r="J309" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="K309" s="1" t="s">
         <v>2373</v>
@@ -25512,7 +25537,7 @@
       </c>
       <c r="I310" s="1"/>
       <c r="J310" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="K310" s="1" t="s">
         <v>2373</v>
@@ -25569,7 +25594,7 @@
       </c>
       <c r="I311" s="1"/>
       <c r="J311" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="K311" s="1" t="s">
         <v>2373</v>
@@ -25626,7 +25651,7 @@
       </c>
       <c r="I312" s="1"/>
       <c r="J312" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="K312" s="1" t="s">
         <v>2373</v>
@@ -25683,7 +25708,7 @@
       </c>
       <c r="I313" s="1"/>
       <c r="J313" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="K313" s="1" t="s">
         <v>2373</v>
@@ -25740,7 +25765,7 @@
       </c>
       <c r="I314" s="1"/>
       <c r="J314" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="K314" s="1" t="s">
         <v>2373</v>
@@ -25797,7 +25822,7 @@
       </c>
       <c r="I315" s="1"/>
       <c r="J315" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="K315" s="1" t="s">
         <v>2373</v>
@@ -25854,7 +25879,7 @@
       </c>
       <c r="I316" s="1"/>
       <c r="J316" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="K316" s="1" t="s">
         <v>2373</v>
@@ -25911,7 +25936,7 @@
       </c>
       <c r="I317" s="1"/>
       <c r="J317" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="K317" s="1" t="s">
         <v>2373</v>
@@ -25968,7 +25993,7 @@
       </c>
       <c r="I318" s="1"/>
       <c r="J318" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="K318" s="1" t="s">
         <v>2373</v>
@@ -26025,7 +26050,7 @@
       </c>
       <c r="I319" s="1"/>
       <c r="J319" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="K319" s="1" t="s">
         <v>2373</v>
@@ -26206,7 +26231,7 @@
         <v>548</v>
       </c>
       <c r="L322" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M322" s="1"/>
       <c r="N322" s="1"/>
@@ -26262,7 +26287,7 @@
         <v>929</v>
       </c>
       <c r="K323" s="1" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="L323" s="1"/>
       <c r="M323" s="1"/>
@@ -26381,7 +26406,7 @@
         <v>548</v>
       </c>
       <c r="L325" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M325" s="1"/>
       <c r="N325" s="1"/>
@@ -26440,7 +26465,7 @@
         <v>548</v>
       </c>
       <c r="L326" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M326" s="1"/>
       <c r="N326" s="1"/>
@@ -26499,7 +26524,7 @@
         <v>548</v>
       </c>
       <c r="L327" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M327" s="1"/>
       <c r="N327" s="1"/>
@@ -26552,7 +26577,7 @@
       </c>
       <c r="I328" s="1"/>
       <c r="J328" s="35" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K328" s="1" t="s">
         <v>2350</v>
@@ -26609,7 +26634,7 @@
       </c>
       <c r="I329" s="1"/>
       <c r="J329" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K329" s="1" t="s">
         <v>2373</v>
@@ -26666,7 +26691,7 @@
       </c>
       <c r="I330" s="1"/>
       <c r="J330" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K330" s="1" t="s">
         <v>2373</v>
@@ -26723,7 +26748,7 @@
       </c>
       <c r="I331" s="1"/>
       <c r="J331" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K331" s="1" t="s">
         <v>2373</v>
@@ -26780,7 +26805,7 @@
       </c>
       <c r="I332" s="1"/>
       <c r="J332" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K332" s="1" t="s">
         <v>2373</v>
@@ -26837,7 +26862,7 @@
       </c>
       <c r="I333" s="1"/>
       <c r="J333" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K333" s="1" t="s">
         <v>2373</v>
@@ -26894,7 +26919,7 @@
       </c>
       <c r="I334" s="1"/>
       <c r="J334" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K334" s="1" t="s">
         <v>2373</v>
@@ -26951,7 +26976,7 @@
       </c>
       <c r="I335" s="1"/>
       <c r="J335" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K335" s="1" t="s">
         <v>2373</v>
@@ -27008,7 +27033,7 @@
       </c>
       <c r="I336" s="1"/>
       <c r="J336" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K336" s="1" t="s">
         <v>2373</v>
@@ -27065,7 +27090,7 @@
       </c>
       <c r="I337" s="1"/>
       <c r="J337" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K337" s="1" t="s">
         <v>2373</v>
@@ -27122,7 +27147,7 @@
       </c>
       <c r="I338" s="1"/>
       <c r="J338" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K338" s="1" t="s">
         <v>2373</v>
@@ -27179,7 +27204,7 @@
       </c>
       <c r="I339" s="1"/>
       <c r="J339" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K339" s="1" t="s">
         <v>2373</v>
@@ -27236,7 +27261,7 @@
       </c>
       <c r="I340" s="1"/>
       <c r="J340" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K340" s="1" t="s">
         <v>2373</v>
@@ -27293,7 +27318,7 @@
       </c>
       <c r="I341" s="1"/>
       <c r="J341" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K341" s="1" t="s">
         <v>2373</v>
@@ -27350,7 +27375,7 @@
       </c>
       <c r="I342" s="1"/>
       <c r="J342" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K342" s="1" t="s">
         <v>2373</v>
@@ -27407,7 +27432,7 @@
       </c>
       <c r="I343" s="1"/>
       <c r="J343" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K343" s="1" t="s">
         <v>2373</v>
@@ -27464,7 +27489,7 @@
       </c>
       <c r="I344" s="1"/>
       <c r="J344" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K344" s="1" t="s">
         <v>2373</v>
@@ -27521,7 +27546,7 @@
       </c>
       <c r="I345" s="1"/>
       <c r="J345" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K345" s="1" t="s">
         <v>2373</v>
@@ -27578,7 +27603,7 @@
       </c>
       <c r="I346" s="1"/>
       <c r="J346" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K346" s="1" t="s">
         <v>2373</v>
@@ -27635,7 +27660,7 @@
       </c>
       <c r="I347" s="1"/>
       <c r="J347" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K347" s="1" t="s">
         <v>2373</v>
@@ -27692,7 +27717,7 @@
       </c>
       <c r="I348" s="1"/>
       <c r="J348" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K348" s="1" t="s">
         <v>2373</v>
@@ -27749,7 +27774,7 @@
       </c>
       <c r="I349" s="1"/>
       <c r="J349" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K349" s="1" t="s">
         <v>2373</v>
@@ -27806,7 +27831,7 @@
       </c>
       <c r="I350" s="1"/>
       <c r="J350" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K350" s="1" t="s">
         <v>2373</v>
@@ -27863,7 +27888,7 @@
       </c>
       <c r="I351" s="1"/>
       <c r="J351" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K351" s="1" t="s">
         <v>2373</v>
@@ -27920,7 +27945,7 @@
       </c>
       <c r="I352" s="1"/>
       <c r="J352" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K352" s="1" t="s">
         <v>2373</v>
@@ -27977,7 +28002,7 @@
       </c>
       <c r="I353" s="1"/>
       <c r="J353" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K353" s="1" t="s">
         <v>2373</v>
@@ -28034,7 +28059,7 @@
       </c>
       <c r="I354" s="1"/>
       <c r="J354" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K354" s="1" t="s">
         <v>2373</v>
@@ -28091,7 +28116,7 @@
       </c>
       <c r="I355" s="1"/>
       <c r="J355" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K355" s="1" t="s">
         <v>2373</v>
@@ -28148,7 +28173,7 @@
       </c>
       <c r="I356" s="1"/>
       <c r="J356" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K356" s="1" t="s">
         <v>2373</v>
@@ -28205,7 +28230,7 @@
       </c>
       <c r="I357" s="1"/>
       <c r="J357" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K357" s="1" t="s">
         <v>2373</v>
@@ -28262,7 +28287,7 @@
       </c>
       <c r="I358" s="1"/>
       <c r="J358" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K358" s="1" t="s">
         <v>2373</v>
@@ -28319,7 +28344,7 @@
       </c>
       <c r="I359" s="1"/>
       <c r="J359" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K359" s="1" t="s">
         <v>2373</v>
@@ -28376,7 +28401,7 @@
       </c>
       <c r="I360" s="1"/>
       <c r="J360" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K360" s="1" t="s">
         <v>2373</v>
@@ -28433,7 +28458,7 @@
       </c>
       <c r="I361" s="1"/>
       <c r="J361" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K361" s="1" t="s">
         <v>2373</v>
@@ -28490,7 +28515,7 @@
       </c>
       <c r="I362" s="1"/>
       <c r="J362" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K362" s="1" t="s">
         <v>2373</v>
@@ -28547,7 +28572,7 @@
       </c>
       <c r="I363" s="1"/>
       <c r="J363" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K363" s="1" t="s">
         <v>2373</v>
@@ -28604,7 +28629,7 @@
       </c>
       <c r="I364" s="1"/>
       <c r="J364" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K364" s="1" t="s">
         <v>2373</v>
@@ -28661,7 +28686,7 @@
       </c>
       <c r="I365" s="1"/>
       <c r="J365" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K365" s="1" t="s">
         <v>2373</v>
@@ -28718,7 +28743,7 @@
       </c>
       <c r="I366" s="1"/>
       <c r="J366" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K366" s="1" t="s">
         <v>2373</v>
@@ -28775,7 +28800,7 @@
       </c>
       <c r="I367" s="1"/>
       <c r="J367" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K367" s="1" t="s">
         <v>2373</v>
@@ -28832,7 +28857,7 @@
       </c>
       <c r="I368" s="1"/>
       <c r="J368" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K368" s="1" t="s">
         <v>2373</v>
@@ -28889,7 +28914,7 @@
       </c>
       <c r="I369" s="1"/>
       <c r="J369" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K369" s="1" t="s">
         <v>2373</v>
@@ -28946,7 +28971,7 @@
       </c>
       <c r="I370" s="1"/>
       <c r="J370" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K370" s="1" t="s">
         <v>2373</v>
@@ -29003,7 +29028,7 @@
       </c>
       <c r="I371" s="1"/>
       <c r="J371" s="37" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="K371" s="1" t="s">
         <v>2373</v>
@@ -29060,7 +29085,7 @@
       </c>
       <c r="I372" s="1"/>
       <c r="J372" s="36" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K372" s="1" t="s">
         <v>2350</v>
@@ -29117,7 +29142,7 @@
       </c>
       <c r="I373" s="1"/>
       <c r="J373" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K373" s="1" t="s">
         <v>2373</v>
@@ -29174,7 +29199,7 @@
       </c>
       <c r="I374" s="1"/>
       <c r="J374" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K374" s="1" t="s">
         <v>2373</v>
@@ -29231,7 +29256,7 @@
       </c>
       <c r="I375" s="1"/>
       <c r="J375" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K375" s="1" t="s">
         <v>2373</v>
@@ -29288,7 +29313,7 @@
       </c>
       <c r="I376" s="1"/>
       <c r="J376" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K376" s="1" t="s">
         <v>2373</v>
@@ -29345,7 +29370,7 @@
       </c>
       <c r="I377" s="1"/>
       <c r="J377" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K377" s="1" t="s">
         <v>2373</v>
@@ -29402,7 +29427,7 @@
       </c>
       <c r="I378" s="1"/>
       <c r="J378" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K378" s="1" t="s">
         <v>2373</v>
@@ -29459,7 +29484,7 @@
       </c>
       <c r="I379" s="1"/>
       <c r="J379" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K379" s="1" t="s">
         <v>2373</v>
@@ -29516,7 +29541,7 @@
       </c>
       <c r="I380" s="1"/>
       <c r="J380" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K380" s="1" t="s">
         <v>2373</v>
@@ -29573,7 +29598,7 @@
       </c>
       <c r="I381" s="1"/>
       <c r="J381" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K381" s="1" t="s">
         <v>2373</v>
@@ -29630,7 +29655,7 @@
       </c>
       <c r="I382" s="1"/>
       <c r="J382" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K382" s="1" t="s">
         <v>2373</v>
@@ -29687,7 +29712,7 @@
       </c>
       <c r="I383" s="1"/>
       <c r="J383" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K383" s="1" t="s">
         <v>2373</v>
@@ -29744,7 +29769,7 @@
       </c>
       <c r="I384" s="1"/>
       <c r="J384" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K384" s="1" t="s">
         <v>2373</v>
@@ -29801,7 +29826,7 @@
       </c>
       <c r="I385" s="1"/>
       <c r="J385" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K385" s="1" t="s">
         <v>2373</v>
@@ -29858,7 +29883,7 @@
       </c>
       <c r="I386" s="1"/>
       <c r="J386" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K386" s="1" t="s">
         <v>2373</v>
@@ -29915,7 +29940,7 @@
       </c>
       <c r="I387" s="1"/>
       <c r="J387" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K387" s="1" t="s">
         <v>2373</v>
@@ -29972,7 +29997,7 @@
       </c>
       <c r="I388" s="1"/>
       <c r="J388" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K388" s="1" t="s">
         <v>2373</v>
@@ -30029,7 +30054,7 @@
       </c>
       <c r="I389" s="1"/>
       <c r="J389" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K389" s="1" t="s">
         <v>2373</v>
@@ -30086,7 +30111,7 @@
       </c>
       <c r="I390" s="1"/>
       <c r="J390" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K390" s="1" t="s">
         <v>2373</v>
@@ -30143,7 +30168,7 @@
       </c>
       <c r="I391" s="1"/>
       <c r="J391" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K391" s="1" t="s">
         <v>2373</v>
@@ -30200,7 +30225,7 @@
       </c>
       <c r="I392" s="1"/>
       <c r="J392" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K392" s="1" t="s">
         <v>2373</v>
@@ -30257,7 +30282,7 @@
       </c>
       <c r="I393" s="1"/>
       <c r="J393" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K393" s="1" t="s">
         <v>2373</v>
@@ -30314,7 +30339,7 @@
       </c>
       <c r="I394" s="1"/>
       <c r="J394" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K394" s="1" t="s">
         <v>2373</v>
@@ -30371,7 +30396,7 @@
       </c>
       <c r="I395" s="1"/>
       <c r="J395" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K395" s="1" t="s">
         <v>2373</v>
@@ -30428,7 +30453,7 @@
       </c>
       <c r="I396" s="1"/>
       <c r="J396" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K396" s="1" t="s">
         <v>2373</v>
@@ -30485,7 +30510,7 @@
       </c>
       <c r="I397" s="1"/>
       <c r="J397" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K397" s="1" t="s">
         <v>2373</v>
@@ -30542,7 +30567,7 @@
       </c>
       <c r="I398" s="1"/>
       <c r="J398" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K398" s="1" t="s">
         <v>2373</v>
@@ -30599,7 +30624,7 @@
       </c>
       <c r="I399" s="1"/>
       <c r="J399" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K399" s="1" t="s">
         <v>2373</v>
@@ -30656,7 +30681,7 @@
       </c>
       <c r="I400" s="1"/>
       <c r="J400" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K400" s="1" t="s">
         <v>2373</v>
@@ -30713,7 +30738,7 @@
       </c>
       <c r="I401" s="1"/>
       <c r="J401" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K401" s="1" t="s">
         <v>2373</v>
@@ -30770,7 +30795,7 @@
       </c>
       <c r="I402" s="1"/>
       <c r="J402" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K402" s="1" t="s">
         <v>2373</v>
@@ -30827,7 +30852,7 @@
       </c>
       <c r="I403" s="1"/>
       <c r="J403" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K403" s="1" t="s">
         <v>2373</v>
@@ -30884,7 +30909,7 @@
       </c>
       <c r="I404" s="1"/>
       <c r="J404" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K404" s="1" t="s">
         <v>2373</v>
@@ -30941,7 +30966,7 @@
       </c>
       <c r="I405" s="1"/>
       <c r="J405" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K405" s="1" t="s">
         <v>2373</v>
@@ -30998,7 +31023,7 @@
       </c>
       <c r="I406" s="1"/>
       <c r="J406" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K406" s="1" t="s">
         <v>2373</v>
@@ -31055,7 +31080,7 @@
       </c>
       <c r="I407" s="1"/>
       <c r="J407" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K407" s="1" t="s">
         <v>2373</v>
@@ -31112,7 +31137,7 @@
       </c>
       <c r="I408" s="1"/>
       <c r="J408" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K408" s="1" t="s">
         <v>2373</v>
@@ -31169,7 +31194,7 @@
       </c>
       <c r="I409" s="1"/>
       <c r="J409" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K409" s="1" t="s">
         <v>2373</v>
@@ -31226,7 +31251,7 @@
       </c>
       <c r="I410" s="1"/>
       <c r="J410" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K410" s="1" t="s">
         <v>2373</v>
@@ -31283,7 +31308,7 @@
       </c>
       <c r="I411" s="1"/>
       <c r="J411" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K411" s="1" t="s">
         <v>2373</v>
@@ -31340,7 +31365,7 @@
       </c>
       <c r="I412" s="1"/>
       <c r="J412" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K412" s="1" t="s">
         <v>2373</v>
@@ -31397,7 +31422,7 @@
       </c>
       <c r="I413" s="1"/>
       <c r="J413" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K413" s="1" t="s">
         <v>2373</v>
@@ -31454,7 +31479,7 @@
       </c>
       <c r="I414" s="1"/>
       <c r="J414" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K414" s="1" t="s">
         <v>2373</v>
@@ -31511,7 +31536,7 @@
       </c>
       <c r="I415" s="1"/>
       <c r="J415" s="37" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="K415" s="1" t="s">
         <v>2373</v>
@@ -31568,7 +31593,7 @@
       </c>
       <c r="I416" s="1"/>
       <c r="J416" s="36" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K416" s="1" t="s">
         <v>2350</v>
@@ -31625,7 +31650,7 @@
       </c>
       <c r="I417" s="1"/>
       <c r="J417" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K417" s="1" t="s">
         <v>2373</v>
@@ -31682,7 +31707,7 @@
       </c>
       <c r="I418" s="1"/>
       <c r="J418" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K418" s="1" t="s">
         <v>2373</v>
@@ -31739,7 +31764,7 @@
       </c>
       <c r="I419" s="1"/>
       <c r="J419" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K419" s="1" t="s">
         <v>2373</v>
@@ -31796,7 +31821,7 @@
       </c>
       <c r="I420" s="1"/>
       <c r="J420" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K420" s="1" t="s">
         <v>2373</v>
@@ -31853,7 +31878,7 @@
       </c>
       <c r="I421" s="1"/>
       <c r="J421" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K421" s="1" t="s">
         <v>2373</v>
@@ -31910,7 +31935,7 @@
       </c>
       <c r="I422" s="1"/>
       <c r="J422" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K422" s="1" t="s">
         <v>2373</v>
@@ -31967,7 +31992,7 @@
       </c>
       <c r="I423" s="1"/>
       <c r="J423" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K423" s="1" t="s">
         <v>2373</v>
@@ -32024,7 +32049,7 @@
       </c>
       <c r="I424" s="1"/>
       <c r="J424" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K424" s="1" t="s">
         <v>2373</v>
@@ -32081,7 +32106,7 @@
       </c>
       <c r="I425" s="1"/>
       <c r="J425" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K425" s="1" t="s">
         <v>2373</v>
@@ -32138,7 +32163,7 @@
       </c>
       <c r="I426" s="1"/>
       <c r="J426" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K426" s="1" t="s">
         <v>2373</v>
@@ -32195,7 +32220,7 @@
       </c>
       <c r="I427" s="1"/>
       <c r="J427" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K427" s="1" t="s">
         <v>2373</v>
@@ -32252,7 +32277,7 @@
       </c>
       <c r="I428" s="1"/>
       <c r="J428" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K428" s="1" t="s">
         <v>2373</v>
@@ -32309,7 +32334,7 @@
       </c>
       <c r="I429" s="1"/>
       <c r="J429" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K429" s="1" t="s">
         <v>2373</v>
@@ -32366,7 +32391,7 @@
       </c>
       <c r="I430" s="1"/>
       <c r="J430" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K430" s="1" t="s">
         <v>2373</v>
@@ -32423,7 +32448,7 @@
       </c>
       <c r="I431" s="1"/>
       <c r="J431" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K431" s="1" t="s">
         <v>2373</v>
@@ -32480,7 +32505,7 @@
       </c>
       <c r="I432" s="1"/>
       <c r="J432" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K432" s="1" t="s">
         <v>2373</v>
@@ -32537,7 +32562,7 @@
       </c>
       <c r="I433" s="1"/>
       <c r="J433" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K433" s="1" t="s">
         <v>2373</v>
@@ -32594,7 +32619,7 @@
       </c>
       <c r="I434" s="1"/>
       <c r="J434" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K434" s="1" t="s">
         <v>2373</v>
@@ -32651,7 +32676,7 @@
       </c>
       <c r="I435" s="1"/>
       <c r="J435" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K435" s="1" t="s">
         <v>2373</v>
@@ -32708,7 +32733,7 @@
       </c>
       <c r="I436" s="1"/>
       <c r="J436" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K436" s="1" t="s">
         <v>2373</v>
@@ -32765,7 +32790,7 @@
       </c>
       <c r="I437" s="1"/>
       <c r="J437" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K437" s="1" t="s">
         <v>2373</v>
@@ -32822,7 +32847,7 @@
       </c>
       <c r="I438" s="1"/>
       <c r="J438" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K438" s="1" t="s">
         <v>2373</v>
@@ -32879,7 +32904,7 @@
       </c>
       <c r="I439" s="1"/>
       <c r="J439" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K439" s="1" t="s">
         <v>2373</v>
@@ -32936,7 +32961,7 @@
       </c>
       <c r="I440" s="1"/>
       <c r="J440" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K440" s="1" t="s">
         <v>2373</v>
@@ -32993,7 +33018,7 @@
       </c>
       <c r="I441" s="1"/>
       <c r="J441" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K441" s="1" t="s">
         <v>2373</v>
@@ -33050,7 +33075,7 @@
       </c>
       <c r="I442" s="1"/>
       <c r="J442" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K442" s="1" t="s">
         <v>2373</v>
@@ -33107,7 +33132,7 @@
       </c>
       <c r="I443" s="1"/>
       <c r="J443" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K443" s="1" t="s">
         <v>2373</v>
@@ -33164,7 +33189,7 @@
       </c>
       <c r="I444" s="1"/>
       <c r="J444" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K444" s="1" t="s">
         <v>2373</v>
@@ -33221,7 +33246,7 @@
       </c>
       <c r="I445" s="1"/>
       <c r="J445" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K445" s="1" t="s">
         <v>2373</v>
@@ -33278,7 +33303,7 @@
       </c>
       <c r="I446" s="1"/>
       <c r="J446" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K446" s="1" t="s">
         <v>2373</v>
@@ -33335,7 +33360,7 @@
       </c>
       <c r="I447" s="1"/>
       <c r="J447" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K447" s="1" t="s">
         <v>2373</v>
@@ -33392,7 +33417,7 @@
       </c>
       <c r="I448" s="1"/>
       <c r="J448" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K448" s="1" t="s">
         <v>2373</v>
@@ -33449,7 +33474,7 @@
       </c>
       <c r="I449" s="1"/>
       <c r="J449" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K449" s="1" t="s">
         <v>2373</v>
@@ -33506,7 +33531,7 @@
       </c>
       <c r="I450" s="1"/>
       <c r="J450" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K450" s="1" t="s">
         <v>2373</v>
@@ -33563,7 +33588,7 @@
       </c>
       <c r="I451" s="1"/>
       <c r="J451" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K451" s="1" t="s">
         <v>2373</v>
@@ -33620,7 +33645,7 @@
       </c>
       <c r="I452" s="1"/>
       <c r="J452" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K452" s="1" t="s">
         <v>2373</v>
@@ -33677,7 +33702,7 @@
       </c>
       <c r="I453" s="1"/>
       <c r="J453" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K453" s="1" t="s">
         <v>2373</v>
@@ -33734,7 +33759,7 @@
       </c>
       <c r="I454" s="1"/>
       <c r="J454" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K454" s="1" t="s">
         <v>2373</v>
@@ -33791,7 +33816,7 @@
       </c>
       <c r="I455" s="1"/>
       <c r="J455" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K455" s="1" t="s">
         <v>2373</v>
@@ -33848,7 +33873,7 @@
       </c>
       <c r="I456" s="1"/>
       <c r="J456" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K456" s="1" t="s">
         <v>2373</v>
@@ -33905,7 +33930,7 @@
       </c>
       <c r="I457" s="1"/>
       <c r="J457" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K457" s="1" t="s">
         <v>2373</v>
@@ -33962,7 +33987,7 @@
       </c>
       <c r="I458" s="1"/>
       <c r="J458" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K458" s="1" t="s">
         <v>2373</v>
@@ -34019,7 +34044,7 @@
       </c>
       <c r="I459" s="1"/>
       <c r="J459" s="37" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="K459" s="1" t="s">
         <v>2373</v>
@@ -34076,7 +34101,7 @@
       </c>
       <c r="I460" s="1"/>
       <c r="J460" s="36" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="K460" s="1" t="s">
         <v>2339</v>
@@ -34253,7 +34278,7 @@
         <v>548</v>
       </c>
       <c r="L463" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M463" s="1"/>
       <c r="N463" s="1"/>
@@ -34312,7 +34337,7 @@
         <v>548</v>
       </c>
       <c r="L464" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M464" s="1"/>
       <c r="N464" s="1"/>
@@ -34371,7 +34396,7 @@
         <v>548</v>
       </c>
       <c r="L465" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M465" s="1"/>
       <c r="N465" s="1"/>
@@ -34430,7 +34455,7 @@
         <v>548</v>
       </c>
       <c r="L466" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M466" s="1"/>
       <c r="N466" s="1"/>
@@ -34489,7 +34514,7 @@
         <v>548</v>
       </c>
       <c r="L467" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M467" s="1"/>
       <c r="N467" s="1"/>
@@ -34548,7 +34573,7 @@
         <v>548</v>
       </c>
       <c r="L468" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M468" s="1"/>
       <c r="N468" s="1"/>
@@ -34607,7 +34632,7 @@
         <v>548</v>
       </c>
       <c r="L469" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M469" s="1"/>
       <c r="N469" s="1"/>
@@ -34666,7 +34691,7 @@
         <v>548</v>
       </c>
       <c r="L470" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M470" s="1"/>
       <c r="N470" s="1"/>
@@ -34725,7 +34750,7 @@
         <v>548</v>
       </c>
       <c r="L471" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M471" s="1"/>
       <c r="N471" s="1"/>
@@ -34784,7 +34809,7 @@
         <v>548</v>
       </c>
       <c r="L472" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M472" s="1"/>
       <c r="N472" s="1"/>
@@ -34843,7 +34868,7 @@
         <v>548</v>
       </c>
       <c r="L473" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M473" s="1"/>
       <c r="N473" s="1"/>
@@ -34902,7 +34927,7 @@
         <v>548</v>
       </c>
       <c r="L474" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M474" s="1"/>
       <c r="N474" s="1"/>
@@ -34961,7 +34986,7 @@
         <v>548</v>
       </c>
       <c r="L475" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M475" s="1"/>
       <c r="N475" s="1"/>
@@ -35020,7 +35045,7 @@
         <v>548</v>
       </c>
       <c r="L476" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M476" s="1"/>
       <c r="N476" s="1"/>
@@ -35079,7 +35104,7 @@
         <v>548</v>
       </c>
       <c r="L477" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M477" s="1"/>
       <c r="N477" s="1"/>
@@ -35138,7 +35163,7 @@
         <v>548</v>
       </c>
       <c r="L478" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M478" s="1"/>
       <c r="N478" s="1"/>
@@ -35197,7 +35222,7 @@
         <v>548</v>
       </c>
       <c r="L479" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M479" s="1"/>
       <c r="N479" s="1"/>
@@ -35256,7 +35281,7 @@
         <v>548</v>
       </c>
       <c r="L480" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M480" s="1"/>
       <c r="N480" s="1"/>
@@ -35315,7 +35340,7 @@
         <v>548</v>
       </c>
       <c r="L481" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M481" s="1"/>
       <c r="N481" s="1"/>
@@ -35374,7 +35399,7 @@
         <v>548</v>
       </c>
       <c r="L482" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M482" s="1"/>
       <c r="N482" s="1"/>
@@ -35433,7 +35458,7 @@
         <v>548</v>
       </c>
       <c r="L483" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M483" s="1"/>
       <c r="N483" s="1"/>
@@ -35492,7 +35517,7 @@
         <v>548</v>
       </c>
       <c r="L484" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M484" s="1"/>
       <c r="N484" s="1"/>
@@ -35551,7 +35576,7 @@
         <v>548</v>
       </c>
       <c r="L485" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M485" s="1"/>
       <c r="N485" s="1"/>
@@ -35610,7 +35635,7 @@
         <v>548</v>
       </c>
       <c r="L486" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M486" s="1"/>
       <c r="N486" s="1"/>
@@ -35669,7 +35694,7 @@
         <v>548</v>
       </c>
       <c r="L487" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M487" s="1"/>
       <c r="N487" s="1"/>
@@ -35728,7 +35753,7 @@
         <v>548</v>
       </c>
       <c r="L488" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M488" s="1"/>
       <c r="N488" s="1"/>
@@ -35787,7 +35812,7 @@
         <v>548</v>
       </c>
       <c r="L489" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M489" s="1"/>
       <c r="N489" s="1"/>
@@ -35846,7 +35871,7 @@
         <v>548</v>
       </c>
       <c r="L490" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M490" s="1"/>
       <c r="N490" s="1"/>
@@ -35905,7 +35930,7 @@
         <v>548</v>
       </c>
       <c r="L491" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M491" s="1"/>
       <c r="N491" s="1"/>
@@ -35964,7 +35989,7 @@
         <v>548</v>
       </c>
       <c r="L492" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M492" s="1"/>
       <c r="N492" s="1"/>
@@ -36023,7 +36048,7 @@
         <v>548</v>
       </c>
       <c r="L493" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M493" s="1"/>
       <c r="N493" s="1"/>
@@ -36082,7 +36107,7 @@
         <v>548</v>
       </c>
       <c r="L494" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M494" s="1"/>
       <c r="N494" s="1"/>
@@ -36475,7 +36500,7 @@
         <v>548</v>
       </c>
       <c r="L501" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M501" s="1"/>
       <c r="N501" s="1"/>
@@ -36534,7 +36559,7 @@
         <v>548</v>
       </c>
       <c r="L502" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M502" s="1"/>
       <c r="N502" s="1"/>
@@ -36593,7 +36618,7 @@
         <v>548</v>
       </c>
       <c r="L503" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M503" s="1"/>
       <c r="N503" s="1"/>
@@ -36651,7 +36676,7 @@
         <v>548</v>
       </c>
       <c r="L504" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="Q504" s="1">
         <f t="shared" ca="1" si="478"/>
@@ -36808,7 +36833,7 @@
         <v>548</v>
       </c>
       <c r="L507" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="Q507" s="1">
         <f t="shared" ca="1" si="478"/>
@@ -36862,7 +36887,7 @@
         <v>548</v>
       </c>
       <c r="L508" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="Q508" s="1">
         <f t="shared" ca="1" si="478"/>
@@ -36916,7 +36941,7 @@
         <v>548</v>
       </c>
       <c r="L509" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="Q509" s="1">
         <f t="shared" ca="1" si="478"/>
@@ -36970,7 +36995,7 @@
         <v>548</v>
       </c>
       <c r="L510" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="Q510" s="1">
         <f t="shared" ca="1" si="478"/>
@@ -37024,7 +37049,7 @@
         <v>548</v>
       </c>
       <c r="L511" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="Q511" s="1">
         <f t="shared" ca="1" si="478"/>
@@ -37078,7 +37103,7 @@
         <v>548</v>
       </c>
       <c r="L512" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="Q512" s="1">
         <f t="shared" ca="1" si="478"/>
@@ -37132,7 +37157,7 @@
         <v>548</v>
       </c>
       <c r="L513" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="Q513" s="1">
         <f t="shared" ca="1" si="478"/>
@@ -37185,6 +37210,9 @@
       <c r="K514" s="1" t="s">
         <v>2343</v>
       </c>
+      <c r="L514" s="1" t="s">
+        <v>2419</v>
+      </c>
       <c r="Q514" s="1">
         <f t="shared" ca="1" si="478"/>
         <v>503</v>
@@ -37233,6 +37261,7 @@
       <c r="J515" s="1" t="s">
         <v>1863</v>
       </c>
+      <c r="L515" s="1"/>
       <c r="Q515" s="1">
         <f t="shared" ca="1" si="478"/>
         <v>504</v>
@@ -37285,7 +37314,7 @@
         <v>548</v>
       </c>
       <c r="L516" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="Q516" s="1">
         <f t="shared" ca="1" si="478"/>
@@ -37339,7 +37368,7 @@
         <v>548</v>
       </c>
       <c r="L517" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="Q517" s="1">
         <f t="shared" ca="1" si="478"/>
@@ -37393,7 +37422,7 @@
         <v>548</v>
       </c>
       <c r="L518" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="Q518" s="1">
         <f t="shared" ca="1" si="478"/>
@@ -37447,7 +37476,7 @@
         <v>548</v>
       </c>
       <c r="L519" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="Q519" s="1">
         <f t="shared" ca="1" si="478"/>
@@ -37501,7 +37530,7 @@
         <v>548</v>
       </c>
       <c r="L520" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="Q520" s="1">
         <f t="shared" ca="1" si="478"/>
@@ -37555,7 +37584,7 @@
         <v>548</v>
       </c>
       <c r="L521" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="Q521" s="1">
         <f t="shared" ca="1" si="478"/>
@@ -37609,7 +37638,7 @@
         <v>548</v>
       </c>
       <c r="L522" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="Q522" s="1">
         <f t="shared" ca="1" si="478"/>
@@ -37663,7 +37692,7 @@
         <v>548</v>
       </c>
       <c r="L523" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="Q523" s="1">
         <f t="shared" ca="1" si="478"/>
@@ -37716,6 +37745,10 @@
       <c r="K524" s="1" t="s">
         <v>2343</v>
       </c>
+      <c r="L524" s="1" t="str">
+        <f>L514</f>
+        <v>GP-&gt;General Practitioner;general practicioner-&gt;General Practitioner;general pracitioner-&gt;General Practitioner;general and familiar medicine (gp)-&gt;General Practitioner;general practitioner n-&gt;General Practitioner;general practioner-&gt;General Practitioner;general practicer-&gt;General Practitioner;practitioner-&gt;General Practitioner;family doctor-&gt;General Practitioner;ftr-&gt;!;internal medicen-&gt;internal medicine;internal medixcine-&gt;internal medicine;interna medicine-&gt;internal medicine;neurosurgery-&gt;neurosurgeon;ortopedist-&gt;Orthopaedist;pneumolog-&gt;Pneumologist;neurosurgen-&gt;Neurosurgeon;neurosurgeon no-&gt;Neurosurgeon;lor-&gt;!;physiotherayist-&gt;!other;orthopedic surgeon-&gt;!Orthopaedist;orthopedist hospital-&gt;Orthopaedist;orthopediest-&gt;Orthopaedist;orthopedist n-&gt;Orthopaedist;neurology-&gt;Neurologist;second neurologist-&gt;Neurologist;phoniatrist/ent-&gt;!;ent-&gt;Ear-Nose-Throat Doctor (ENT);ear nose troat doctor-&gt;Ear-Nose-Throat Doctor (ENT);ent n-&gt;Ear-Nose-Throat Doctor (ENT);ear-nose-throat-doctor-&gt;Ear-Nose-Throat Doctor (ENT);ortopaedist-&gt;Orthopaedist;nf-&gt;NA;ent y-&gt;Ear-Nose-Throat Doctor (ENT);ear-nose-troat-doctor-&gt;Ear-Nose-Throat Doctor (ENT);neurologist (clinic) y-&gt;Neurologist;neurologist clinic-&gt;Neurologist;neurologist (hospital)-&gt;Neurologist;neurologist n-&gt;Neurologist;first neurologist-&gt;Neurologist;neurologist, n-&gt;Neurologist;neurologisy y-&gt;Neurologist;neruologist-&gt;Neurologist;neurlogist-&gt;Neurologist;neurologist no-&gt;Neurologist;orthopaedist n-&gt;Orthopaedist;neurologist (clinic)-&gt;Neurologist;neurologist c y-&gt;Neurologist;second neurology-&gt;Neurologist;neurologist in clinic-&gt;Neurologist;neurologist c  y-&gt;Neurologist;neurology,yes-&gt;Neurologist;neurologist 8th specialist-&gt;Neurologist;neurologist c-&gt;Neurologist;neurologist c n-&gt;Neurologist;orthopedist-&gt;Orthopaedist;orthopedic-&gt;Orthopaedist;ortophedist-&gt;Orthopaedist;neurologist y-&gt;Neurologist;dentist-&gt;!other;dentist n-&gt;!other;surgeon-&gt;General surgeon;vascular surgeon-&gt;!General surgeon;rehabilitation-&gt;Rehabilitation specialist;physical medicine and rehabilitation-&gt;Rehabilitation specialist;rheumathologist-&gt;Rheumatologist;reumathologist-&gt;Rheumatologist;reumatologist-&gt;Rheumatologist;hematologist-&gt;!other;surgeon /ent-&gt;!general surgeon;otorhinolaryngology (ent)-&gt;!other;psychologist-&gt;!other;pm&amp;r-&gt;!Psychiatrist;41913-&gt;!;internist-&gt;!other;laryngologist-&gt;!other;kardiologist-&gt;Cardiologist;phoniater,no-&gt;!other;no-&gt;NA;pulmonologist-&gt;!Pneumologist;otolaryngologist-&gt;!other;no other-&gt;NA;clinic-&gt;!;orthodontist n-&gt;!other;physiatrist-&gt;Psychiatrist;gastroenterologist-&gt;!other;first-&gt;!;second-&gt;!;mhh-&gt;!;hospital-&gt;!;no diagnosis till consultation-&gt;NA;university hostpital desden-&gt;!;pm&amp;r (physiatrist)-&gt;Psychiatrist</v>
+      </c>
       <c r="Q524" s="1">
         <f t="shared" ref="Q524:Q574" ca="1" si="546">IF(J524&lt;&gt;"",MATCH(J524,INDIRECT(Q$2),0),"")</f>
         <v>513</v>
@@ -37765,7 +37798,7 @@
         <v>1073</v>
       </c>
       <c r="K525" s="1" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="Q525" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -37865,7 +37898,7 @@
         <v>548</v>
       </c>
       <c r="L527" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="Q527" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -37919,7 +37952,7 @@
         <v>548</v>
       </c>
       <c r="L528" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="Q528" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -37973,7 +38006,7 @@
         <v>548</v>
       </c>
       <c r="L529" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="Q529" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -38027,7 +38060,7 @@
         <v>548</v>
       </c>
       <c r="L530" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="Q530" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -38081,7 +38114,7 @@
         <v>548</v>
       </c>
       <c r="L531" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="Q531" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -38135,7 +38168,7 @@
         <v>548</v>
       </c>
       <c r="L532" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="Q532" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -38189,7 +38222,7 @@
         <v>548</v>
       </c>
       <c r="L533" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="Q533" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -38243,7 +38276,7 @@
         <v>548</v>
       </c>
       <c r="L534" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="Q534" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -38296,6 +38329,10 @@
       <c r="K535" s="1" t="s">
         <v>2343</v>
       </c>
+      <c r="L535" s="1" t="str">
+        <f>L524</f>
+        <v>GP-&gt;General Practitioner;general practicioner-&gt;General Practitioner;general pracitioner-&gt;General Practitioner;general and familiar medicine (gp)-&gt;General Practitioner;general practitioner n-&gt;General Practitioner;general practioner-&gt;General Practitioner;general practicer-&gt;General Practitioner;practitioner-&gt;General Practitioner;family doctor-&gt;General Practitioner;ftr-&gt;!;internal medicen-&gt;internal medicine;internal medixcine-&gt;internal medicine;interna medicine-&gt;internal medicine;neurosurgery-&gt;neurosurgeon;ortopedist-&gt;Orthopaedist;pneumolog-&gt;Pneumologist;neurosurgen-&gt;Neurosurgeon;neurosurgeon no-&gt;Neurosurgeon;lor-&gt;!;physiotherayist-&gt;!other;orthopedic surgeon-&gt;!Orthopaedist;orthopedist hospital-&gt;Orthopaedist;orthopediest-&gt;Orthopaedist;orthopedist n-&gt;Orthopaedist;neurology-&gt;Neurologist;second neurologist-&gt;Neurologist;phoniatrist/ent-&gt;!;ent-&gt;Ear-Nose-Throat Doctor (ENT);ear nose troat doctor-&gt;Ear-Nose-Throat Doctor (ENT);ent n-&gt;Ear-Nose-Throat Doctor (ENT);ear-nose-throat-doctor-&gt;Ear-Nose-Throat Doctor (ENT);ortopaedist-&gt;Orthopaedist;nf-&gt;NA;ent y-&gt;Ear-Nose-Throat Doctor (ENT);ear-nose-troat-doctor-&gt;Ear-Nose-Throat Doctor (ENT);neurologist (clinic) y-&gt;Neurologist;neurologist clinic-&gt;Neurologist;neurologist (hospital)-&gt;Neurologist;neurologist n-&gt;Neurologist;first neurologist-&gt;Neurologist;neurologist, n-&gt;Neurologist;neurologisy y-&gt;Neurologist;neruologist-&gt;Neurologist;neurlogist-&gt;Neurologist;neurologist no-&gt;Neurologist;orthopaedist n-&gt;Orthopaedist;neurologist (clinic)-&gt;Neurologist;neurologist c y-&gt;Neurologist;second neurology-&gt;Neurologist;neurologist in clinic-&gt;Neurologist;neurologist c  y-&gt;Neurologist;neurology,yes-&gt;Neurologist;neurologist 8th specialist-&gt;Neurologist;neurologist c-&gt;Neurologist;neurologist c n-&gt;Neurologist;orthopedist-&gt;Orthopaedist;orthopedic-&gt;Orthopaedist;ortophedist-&gt;Orthopaedist;neurologist y-&gt;Neurologist;dentist-&gt;!other;dentist n-&gt;!other;surgeon-&gt;General surgeon;vascular surgeon-&gt;!General surgeon;rehabilitation-&gt;Rehabilitation specialist;physical medicine and rehabilitation-&gt;Rehabilitation specialist;rheumathologist-&gt;Rheumatologist;reumathologist-&gt;Rheumatologist;reumatologist-&gt;Rheumatologist;hematologist-&gt;!other;surgeon /ent-&gt;!general surgeon;otorhinolaryngology (ent)-&gt;!other;psychologist-&gt;!other;pm&amp;r-&gt;!Psychiatrist;41913-&gt;!;internist-&gt;!other;laryngologist-&gt;!other;kardiologist-&gt;Cardiologist;phoniater,no-&gt;!other;no-&gt;NA;pulmonologist-&gt;!Pneumologist;otolaryngologist-&gt;!other;no other-&gt;NA;clinic-&gt;!;orthodontist n-&gt;!other;physiatrist-&gt;Psychiatrist;gastroenterologist-&gt;!other;first-&gt;!;second-&gt;!;mhh-&gt;!;hospital-&gt;!;no diagnosis till consultation-&gt;NA;university hostpital desden-&gt;!;pm&amp;r (physiatrist)-&gt;Psychiatrist</v>
+      </c>
       <c r="Q535" s="1">
         <f t="shared" ca="1" si="546"/>
         <v>524</v>
@@ -38323,40 +38360,42 @@
       <c r="C536" t="s">
         <v>545</v>
       </c>
-      <c r="D536" s="3" t="str">
+      <c r="D536" s="3" t="e">
         <f t="shared" ca="1" si="548"/>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="E536" t="s">
         <v>8</v>
       </c>
-      <c r="F536" s="3" t="str">
+      <c r="F536" s="3" t="e">
         <f t="shared" ca="1" si="544"/>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="G536" t="s">
         <v>1886</v>
       </c>
-      <c r="H536" s="3" t="str">
+      <c r="H536" s="3" t="e">
         <f t="shared" ca="1" si="545"/>
-        <v/>
-      </c>
-      <c r="J536" s="1"/>
-      <c r="Q536" s="1" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="J536" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="Q536" s="1" t="e">
         <f t="shared" ca="1" si="546"/>
-        <v/>
-      </c>
-      <c r="R536" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R536" t="e">
         <f t="shared" ref="R536:T536" ca="1" si="560">IF(Q536&lt;&gt;"",INDEX(INDIRECT(R$2),$Q536),"")</f>
-        <v/>
-      </c>
-      <c r="S536" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S536" t="e">
         <f t="shared" ca="1" si="560"/>
-        <v/>
-      </c>
-      <c r="T536" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T536" t="e">
         <f t="shared" ca="1" si="560"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="537" spans="1:20">
@@ -38388,7 +38427,7 @@
         <v>#N/A</v>
       </c>
       <c r="J537" s="36" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="K537" s="1" t="s">
         <v>2352</v>
@@ -38439,7 +38478,7 @@
         <v>#N/A</v>
       </c>
       <c r="J538" s="37" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="K538" s="1" t="s">
         <v>2373</v>
@@ -38490,7 +38529,7 @@
         <v>#N/A</v>
       </c>
       <c r="J539" s="37" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="K539" s="1" t="s">
         <v>2373</v>
@@ -38541,7 +38580,7 @@
         <v>#N/A</v>
       </c>
       <c r="J540" s="37" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="K540" s="1" t="s">
         <v>2373</v>
@@ -38592,7 +38631,7 @@
         <v>#N/A</v>
       </c>
       <c r="J541" s="37" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="K541" s="1" t="s">
         <v>2373</v>
@@ -38643,7 +38682,7 @@
         <v>#N/A</v>
       </c>
       <c r="J542" s="37" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="K542" s="1" t="s">
         <v>2373</v>
@@ -38694,7 +38733,7 @@
         <v>#N/A</v>
       </c>
       <c r="J543" s="37" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="K543" s="1" t="s">
         <v>2373</v>
@@ -38847,7 +38886,7 @@
         <v>548</v>
       </c>
       <c r="L546" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="Q546" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -38901,7 +38940,7 @@
         <v>548</v>
       </c>
       <c r="L547" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="Q547" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -38955,7 +38994,7 @@
         <v>548</v>
       </c>
       <c r="L548" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="Q548" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -39009,7 +39048,7 @@
         <v>548</v>
       </c>
       <c r="L549" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="Q549" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -39063,7 +39102,7 @@
         <v>548</v>
       </c>
       <c r="L550" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="Q550" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -39117,7 +39156,7 @@
         <v>548</v>
       </c>
       <c r="L551" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="Q551" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -39171,7 +39210,7 @@
         <v>548</v>
       </c>
       <c r="L552" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="Q552" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -39225,7 +39264,7 @@
         <v>548</v>
       </c>
       <c r="L553" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="Q553" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -40235,7 +40274,7 @@
         <v>546</v>
       </c>
       <c r="K573" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="Q573" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -40286,7 +40325,7 @@
         <v>2015</v>
       </c>
       <c r="K574" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="Q574" s="1" t="e">
         <f t="shared" ca="1" si="546"/>

--- a/inst/xls_xls_dic.xlsx
+++ b/inst/xls_xls_dic.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8646" uniqueCount="2420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8647" uniqueCount="2422">
   <si>
     <t>colname</t>
   </si>
@@ -7275,6 +7275,12 @@
   </si>
   <si>
     <t>GP-&gt;General Practitioner;general practicioner-&gt;General Practitioner;general pracitioner-&gt;General Practitioner;general and familiar medicine (gp)-&gt;General Practitioner;general practitioner n-&gt;General Practitioner;general practioner-&gt;General Practitioner;general practicer-&gt;General Practitioner;practitioner-&gt;General Practitioner;family doctor-&gt;General Practitioner;ftr-&gt;!;internal medicen-&gt;internal medicine;internal medixcine-&gt;internal medicine;interna medicine-&gt;internal medicine;neurosurgery-&gt;neurosurgeon;ortopedist-&gt;Orthopaedist;pneumolog-&gt;Pneumologist;neurosurgen-&gt;Neurosurgeon;neurosurgeon no-&gt;Neurosurgeon;lor-&gt;!;physiotherayist-&gt;!other;orthopedic surgeon-&gt;!Orthopaedist;orthopedist hospital-&gt;Orthopaedist;orthopediest-&gt;Orthopaedist;orthopedist n-&gt;Orthopaedist;neurology-&gt;Neurologist;second neurologist-&gt;Neurologist;phoniatrist/ent-&gt;!;ent-&gt;Ear-Nose-Throat Doctor (ENT);ear nose troat doctor-&gt;Ear-Nose-Throat Doctor (ENT);ent n-&gt;Ear-Nose-Throat Doctor (ENT);ear-nose-throat-doctor-&gt;Ear-Nose-Throat Doctor (ENT);ortopaedist-&gt;Orthopaedist;nf-&gt;NA;ent y-&gt;Ear-Nose-Throat Doctor (ENT);ear-nose-troat-doctor-&gt;Ear-Nose-Throat Doctor (ENT);neurologist (clinic) y-&gt;Neurologist;neurologist clinic-&gt;Neurologist;neurologist (hospital)-&gt;Neurologist;neurologist n-&gt;Neurologist;first neurologist-&gt;Neurologist;neurologist, n-&gt;Neurologist;neurologisy y-&gt;Neurologist;neruologist-&gt;Neurologist;neurlogist-&gt;Neurologist;neurologist no-&gt;Neurologist;orthopaedist n-&gt;Orthopaedist;neurologist (clinic)-&gt;Neurologist;neurologist c y-&gt;Neurologist;second neurology-&gt;Neurologist;neurologist in clinic-&gt;Neurologist;neurologist c  y-&gt;Neurologist;neurology,yes-&gt;Neurologist;neurologist 8th specialist-&gt;Neurologist;neurologist c-&gt;Neurologist;neurologist c n-&gt;Neurologist;orthopedist-&gt;Orthopaedist;orthopedic-&gt;Orthopaedist;ortophedist-&gt;Orthopaedist;neurologist y-&gt;Neurologist;dentist-&gt;!other;dentist n-&gt;!other;surgeon-&gt;General surgeon;vascular surgeon-&gt;!General surgeon;rehabilitation-&gt;Rehabilitation specialist;physical medicine and rehabilitation-&gt;Rehabilitation specialist;rheumathologist-&gt;Rheumatologist;reumathologist-&gt;Rheumatologist;reumatologist-&gt;Rheumatologist;hematologist-&gt;!other;surgeon /ent-&gt;!general surgeon;otorhinolaryngology (ent)-&gt;!other;psychologist-&gt;!other;pm&amp;r-&gt;!Psychiatrist;41913-&gt;!;internist-&gt;!other;laryngologist-&gt;!other;kardiologist-&gt;Cardiologist;phoniater,no-&gt;!other;no-&gt;NA;pulmonologist-&gt;!Pneumologist;otolaryngologist-&gt;!other;no other-&gt;NA;clinic-&gt;!;orthodontist n-&gt;!other;physiatrist-&gt;Psychiatrist;gastroenterologist-&gt;!other;first-&gt;!;second-&gt;!;mhh-&gt;!;hospital-&gt;!;no diagnosis till consultation-&gt;NA;university hostpital desden-&gt;!;pm&amp;r (physiatrist)-&gt;Psychiatrist</t>
+  </si>
+  <si>
+    <t>yes-&gt;!</t>
+  </si>
+  <si>
+    <t>one_specialist</t>
   </si>
 </sst>
 </file>
@@ -7775,8 +7781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A516" workbookViewId="0">
-      <selection activeCell="J536" sqref="J536"/>
+    <sheetView tabSelected="1" topLeftCell="A498" workbookViewId="0">
+      <selection activeCell="L514" sqref="L514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -34163,7 +34169,9 @@
       <c r="K461" s="1" t="s">
         <v>2351</v>
       </c>
-      <c r="L461" s="1"/>
+      <c r="L461" s="1" t="s">
+        <v>2420</v>
+      </c>
       <c r="M461" s="1"/>
       <c r="N461" s="1"/>
       <c r="O461" s="1"/>
@@ -34220,7 +34228,9 @@
       <c r="K462" s="1" t="s">
         <v>2351</v>
       </c>
-      <c r="L462" s="1"/>
+      <c r="L462" s="1" t="s">
+        <v>2420</v>
+      </c>
       <c r="M462" s="1"/>
       <c r="N462" s="1"/>
       <c r="O462" s="1"/>
@@ -37208,7 +37218,7 @@
         <v>1063</v>
       </c>
       <c r="K514" s="1" t="s">
-        <v>2343</v>
+        <v>2421</v>
       </c>
       <c r="L514" s="1" t="s">
         <v>2419</v>
@@ -37743,7 +37753,7 @@
         <v>1072</v>
       </c>
       <c r="K524" s="1" t="s">
-        <v>2343</v>
+        <v>2421</v>
       </c>
       <c r="L524" s="1" t="str">
         <f>L514</f>
@@ -38327,7 +38337,7 @@
         <v>1087</v>
       </c>
       <c r="K535" s="1" t="s">
-        <v>2343</v>
+        <v>2421</v>
       </c>
       <c r="L535" s="1" t="str">
         <f>L524</f>
@@ -38360,42 +38370,40 @@
       <c r="C536" t="s">
         <v>545</v>
       </c>
-      <c r="D536" s="3" t="e">
+      <c r="D536" s="3" t="str">
         <f t="shared" ca="1" si="548"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="E536" t="s">
         <v>8</v>
       </c>
-      <c r="F536" s="3" t="e">
+      <c r="F536" s="3" t="str">
         <f t="shared" ca="1" si="544"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="G536" t="s">
         <v>1886</v>
       </c>
-      <c r="H536" s="3" t="e">
+      <c r="H536" s="3" t="str">
         <f t="shared" ca="1" si="545"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J536" s="1" t="s">
-        <v>1897</v>
-      </c>
-      <c r="Q536" s="1" t="e">
+        <v/>
+      </c>
+      <c r="J536" s="1"/>
+      <c r="Q536" s="1" t="str">
         <f t="shared" ca="1" si="546"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R536" t="e">
+        <v/>
+      </c>
+      <c r="R536" t="str">
         <f t="shared" ref="R536:T536" ca="1" si="560">IF(Q536&lt;&gt;"",INDEX(INDIRECT(R$2),$Q536),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S536" t="e">
+        <v/>
+      </c>
+      <c r="S536" t="str">
         <f t="shared" ca="1" si="560"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T536" t="e">
+        <v/>
+      </c>
+      <c r="T536" t="str">
         <f t="shared" ca="1" si="560"/>
-        <v>#N/A</v>
+        <v/>
       </c>
     </row>
     <row r="537" spans="1:20">

--- a/inst/xls_xls_dic.xlsx
+++ b/inst/xls_xls_dic.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8647" uniqueCount="2422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8648" uniqueCount="2423">
   <si>
     <t>colname</t>
   </si>
@@ -7281,6 +7281,9 @@
   </si>
   <si>
     <t>one_specialist</t>
+  </si>
+  <si>
+    <t>ANTC-&gt;ANTA;J-&gt;JENA</t>
   </si>
 </sst>
 </file>
@@ -7781,8 +7784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A498" workbookViewId="0">
-      <selection activeCell="L514" sqref="L514"/>
+    <sheetView tabSelected="1" topLeftCell="A535" workbookViewId="0">
+      <selection activeCell="L574" sqref="L574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -40332,8 +40335,11 @@
       <c r="J574" s="1" t="s">
         <v>2015</v>
       </c>
-      <c r="K574" t="s">
-        <v>2400</v>
+      <c r="K574" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="L574" t="s">
+        <v>2422</v>
       </c>
       <c r="Q574" s="1" t="e">
         <f t="shared" ca="1" si="546"/>

--- a/inst/xls_xls_dic.xlsx
+++ b/inst/xls_xls_dic.xlsx
@@ -7784,8 +7784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A535" workbookViewId="0">
-      <selection activeCell="L574" sqref="L574"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="I230" sqref="I230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/inst/xls_xls_dic.xlsx
+++ b/inst/xls_xls_dic.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8648" uniqueCount="2423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8651" uniqueCount="2423">
   <si>
     <t>colname</t>
   </si>
@@ -7187,9 +7187,6 @@
     <t>1-&gt;4;2-&gt;2;3-&gt;1;4-&gt;3</t>
   </si>
   <si>
-    <t>3-&gt;NF</t>
-  </si>
-  <si>
     <t>1-&gt;2;2-&gt;1;3-&gt;NF</t>
   </si>
   <si>
@@ -7283,7 +7280,10 @@
     <t>one_specialist</t>
   </si>
   <si>
-    <t>ANTC-&gt;ANTA;J-&gt;JENA</t>
+    <t>ANTC-&gt;ANTA;J-&gt;JENA;Hann-&gt;HANN;Con-&gt;HANN</t>
+  </si>
+  <si>
+    <t>1-&gt;!2;2-&gt;1</t>
   </si>
 </sst>
 </file>
@@ -7784,8 +7784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="I230" sqref="I230"/>
+    <sheetView tabSelected="1" topLeftCell="A539" workbookViewId="0">
+      <selection activeCell="D555" sqref="D555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -12333,7 +12333,7 @@
         <v>548</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>2390</v>
+        <v>790</v>
       </c>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
@@ -12392,7 +12392,7 @@
         <v>548</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
@@ -13865,7 +13865,7 @@
         <v>725</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
@@ -13979,7 +13979,7 @@
         <v>727</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
@@ -14853,13 +14853,13 @@
       </c>
       <c r="I123" s="1"/>
       <c r="J123" s="1" t="s">
+        <v>2400</v>
+      </c>
+      <c r="K123" s="1" t="s">
         <v>2401</v>
       </c>
-      <c r="K123" s="1" t="s">
-        <v>2402</v>
-      </c>
       <c r="L123" s="38" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
@@ -15085,13 +15085,13 @@
       </c>
       <c r="I127" s="1"/>
       <c r="J127" s="1" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="L127" s="38" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
@@ -15318,13 +15318,13 @@
       </c>
       <c r="I131" s="1"/>
       <c r="J131" s="1" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="L131" s="38" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
@@ -15551,13 +15551,13 @@
       </c>
       <c r="I135" s="1"/>
       <c r="J135" s="1" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="L135" s="38" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
@@ -15784,13 +15784,13 @@
       </c>
       <c r="I139" s="1"/>
       <c r="J139" s="1" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="L139" s="38" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
@@ -16017,13 +16017,13 @@
       </c>
       <c r="I143" s="1"/>
       <c r="J143" s="1" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="L143" s="38" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
@@ -16250,13 +16250,13 @@
       </c>
       <c r="I147" s="1"/>
       <c r="J147" s="1" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="L147" s="38" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
@@ -17338,7 +17338,7 @@
         <v>548</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
@@ -17397,7 +17397,7 @@
         <v>548</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
@@ -17456,7 +17456,7 @@
         <v>548</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
@@ -17515,7 +17515,7 @@
         <v>548</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
@@ -17574,7 +17574,7 @@
         <v>548</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
@@ -17633,7 +17633,7 @@
         <v>548</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
@@ -17692,7 +17692,7 @@
         <v>548</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
@@ -17751,7 +17751,7 @@
         <v>548</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
@@ -17867,7 +17867,7 @@
         <v>548</v>
       </c>
       <c r="L175" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
@@ -17926,7 +17926,7 @@
         <v>548</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
@@ -17985,7 +17985,7 @@
         <v>548</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
@@ -18044,7 +18044,7 @@
         <v>2339</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M178" s="1"/>
       <c r="N178" s="11"/>
@@ -18211,7 +18211,7 @@
         <v>2339</v>
       </c>
       <c r="L181" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M181" s="1"/>
       <c r="N181" s="12"/>
@@ -18594,7 +18594,7 @@
         <v>548</v>
       </c>
       <c r="L188" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
@@ -18708,7 +18708,7 @@
         <v>548</v>
       </c>
       <c r="L190" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
@@ -18719,7 +18719,7 @@
         <v>276</v>
       </c>
       <c r="R190" t="str">
-        <f t="shared" ref="R190:T190" ca="1" si="190">IF(Q190&lt;&gt;"",INDEX(INDIRECT(R$2),$Q190),"")</f>
+        <f t="shared" ref="R190:T191" ca="1" si="190">IF(Q190&lt;&gt;"",INDEX(INDIRECT(R$2),$Q190),"")</f>
         <v>Cancer treatment – Radiotherapy</v>
       </c>
       <c r="S190" t="str">
@@ -18763,8 +18763,12 @@
       <c r="J191" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="K191" s="1"/>
-      <c r="L191" s="1"/>
+      <c r="K191" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="L191" s="1" t="s">
+        <v>2422</v>
+      </c>
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
@@ -18778,7 +18782,7 @@
         <v>Cancer treatment – Radiotherapy of head or neck</v>
       </c>
       <c r="S191" t="str">
-        <f t="shared" ca="1" si="191"/>
+        <f t="shared" ca="1" si="190"/>
         <v>integer</v>
       </c>
       <c r="T191" t="str">
@@ -18822,7 +18826,7 @@
         <v>548</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
@@ -18878,10 +18882,10 @@
         <v>886</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2397</v>
-      </c>
-      <c r="L193" s="1" t="s">
-        <v>2398</v>
       </c>
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
@@ -18940,7 +18944,7 @@
         <v>548</v>
       </c>
       <c r="L194" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
@@ -18996,10 +19000,10 @@
         <v>888</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2397</v>
-      </c>
-      <c r="L195" s="1" t="s">
-        <v>2398</v>
       </c>
       <c r="M195" s="1"/>
       <c r="N195" s="1"/>
@@ -19055,10 +19059,10 @@
         <v>889</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2397</v>
-      </c>
-      <c r="L196" s="1" t="s">
-        <v>2398</v>
       </c>
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
@@ -19117,7 +19121,7 @@
         <v>548</v>
       </c>
       <c r="L197" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="M197" s="1"/>
       <c r="N197" s="1"/>
@@ -19231,7 +19235,7 @@
         <v>548</v>
       </c>
       <c r="L199" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="M199" s="1"/>
       <c r="N199" s="1"/>
@@ -19345,7 +19349,7 @@
         <v>548</v>
       </c>
       <c r="L201" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
@@ -19516,7 +19520,7 @@
         <v>548</v>
       </c>
       <c r="L204" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
@@ -19630,7 +19634,7 @@
         <v>548</v>
       </c>
       <c r="L206" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="M206" s="1"/>
       <c r="N206" s="1"/>
@@ -19744,7 +19748,7 @@
         <v>548</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="M208" s="1"/>
       <c r="N208" s="1"/>
@@ -19858,7 +19862,7 @@
         <v>548</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
@@ -19972,7 +19976,7 @@
         <v>548</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
@@ -20086,7 +20090,7 @@
         <v>548</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
@@ -20310,7 +20314,7 @@
         <v>2343</v>
       </c>
       <c r="L218" s="1" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
@@ -20424,7 +20428,7 @@
         <v>2343</v>
       </c>
       <c r="L220" s="1" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="M220" s="1"/>
       <c r="N220" s="1"/>
@@ -20538,7 +20542,7 @@
         <v>2343</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="M222" s="1"/>
       <c r="N222" s="1"/>
@@ -20652,7 +20656,7 @@
         <v>2343</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="M224" s="1"/>
       <c r="N224" s="1"/>
@@ -20766,7 +20770,7 @@
         <v>2343</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="M226" s="1"/>
       <c r="N226" s="1"/>
@@ -20880,7 +20884,7 @@
         <v>548</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
@@ -22753,7 +22757,7 @@
       </c>
       <c r="I261" s="1"/>
       <c r="J261" s="37" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="K261" s="1" t="s">
         <v>2346</v>
@@ -22810,7 +22814,7 @@
       </c>
       <c r="I262" s="1"/>
       <c r="J262" s="37" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="K262" s="1" t="s">
         <v>2373</v>
@@ -22867,7 +22871,7 @@
       </c>
       <c r="I263" s="1"/>
       <c r="J263" s="37" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="K263" s="1" t="s">
         <v>2373</v>
@@ -22924,7 +22928,7 @@
       </c>
       <c r="I264" s="1"/>
       <c r="J264" s="37" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="K264" s="1" t="s">
         <v>2373</v>
@@ -22981,7 +22985,7 @@
       </c>
       <c r="I265" s="1"/>
       <c r="J265" s="37" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="K265" s="1" t="s">
         <v>2373</v>
@@ -23038,7 +23042,7 @@
       </c>
       <c r="I266" s="1"/>
       <c r="J266" s="37" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="K266" s="1" t="s">
         <v>2373</v>
@@ -23095,7 +23099,7 @@
       </c>
       <c r="I267" s="1"/>
       <c r="J267" s="37" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="K267" s="1" t="s">
         <v>2373</v>
@@ -23152,7 +23156,7 @@
       </c>
       <c r="I268" s="1"/>
       <c r="J268" s="37" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="K268" s="1" t="s">
         <v>2373</v>
@@ -23209,7 +23213,7 @@
       </c>
       <c r="I269" s="1"/>
       <c r="J269" s="37" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="K269" s="1" t="s">
         <v>2373</v>
@@ -23266,7 +23270,7 @@
       </c>
       <c r="I270" s="1"/>
       <c r="J270" s="37" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="K270" s="1" t="s">
         <v>2373</v>
@@ -24577,7 +24581,7 @@
       </c>
       <c r="I293" s="1"/>
       <c r="J293" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="K293" s="1" t="s">
         <v>2348</v>
@@ -24634,7 +24638,7 @@
       </c>
       <c r="I294" s="1"/>
       <c r="J294" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="K294" s="1" t="s">
         <v>2373</v>
@@ -24691,7 +24695,7 @@
       </c>
       <c r="I295" s="1"/>
       <c r="J295" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="K295" s="1" t="s">
         <v>2373</v>
@@ -24748,7 +24752,7 @@
       </c>
       <c r="I296" s="1"/>
       <c r="J296" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="K296" s="1" t="s">
         <v>2373</v>
@@ -24805,7 +24809,7 @@
       </c>
       <c r="I297" s="1"/>
       <c r="J297" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="K297" s="1" t="s">
         <v>2373</v>
@@ -24862,7 +24866,7 @@
       </c>
       <c r="I298" s="1"/>
       <c r="J298" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="K298" s="1" t="s">
         <v>2373</v>
@@ -24919,7 +24923,7 @@
       </c>
       <c r="I299" s="1"/>
       <c r="J299" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="K299" s="1" t="s">
         <v>2373</v>
@@ -24976,7 +24980,7 @@
       </c>
       <c r="I300" s="1"/>
       <c r="J300" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="K300" s="1" t="s">
         <v>2373</v>
@@ -25033,7 +25037,7 @@
       </c>
       <c r="I301" s="1"/>
       <c r="J301" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="K301" s="1" t="s">
         <v>2373</v>
@@ -25090,7 +25094,7 @@
       </c>
       <c r="I302" s="1"/>
       <c r="J302" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="K302" s="1" t="s">
         <v>2373</v>
@@ -25147,7 +25151,7 @@
       </c>
       <c r="I303" s="1"/>
       <c r="J303" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="K303" s="1" t="s">
         <v>2373</v>
@@ -25204,7 +25208,7 @@
       </c>
       <c r="I304" s="1"/>
       <c r="J304" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="K304" s="1" t="s">
         <v>2373</v>
@@ -25261,7 +25265,7 @@
       </c>
       <c r="I305" s="1"/>
       <c r="J305" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="K305" s="1" t="s">
         <v>2373</v>
@@ -25318,7 +25322,7 @@
       </c>
       <c r="I306" s="1"/>
       <c r="J306" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="K306" s="1" t="s">
         <v>2373</v>
@@ -25375,7 +25379,7 @@
       </c>
       <c r="I307" s="1"/>
       <c r="J307" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="K307" s="1" t="s">
         <v>2373</v>
@@ -25432,7 +25436,7 @@
       </c>
       <c r="I308" s="1"/>
       <c r="J308" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="K308" s="1" t="s">
         <v>2373</v>
@@ -25489,7 +25493,7 @@
       </c>
       <c r="I309" s="1"/>
       <c r="J309" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="K309" s="1" t="s">
         <v>2373</v>
@@ -25546,7 +25550,7 @@
       </c>
       <c r="I310" s="1"/>
       <c r="J310" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="K310" s="1" t="s">
         <v>2373</v>
@@ -25603,7 +25607,7 @@
       </c>
       <c r="I311" s="1"/>
       <c r="J311" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="K311" s="1" t="s">
         <v>2373</v>
@@ -25660,7 +25664,7 @@
       </c>
       <c r="I312" s="1"/>
       <c r="J312" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="K312" s="1" t="s">
         <v>2373</v>
@@ -25717,7 +25721,7 @@
       </c>
       <c r="I313" s="1"/>
       <c r="J313" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="K313" s="1" t="s">
         <v>2373</v>
@@ -25774,7 +25778,7 @@
       </c>
       <c r="I314" s="1"/>
       <c r="J314" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="K314" s="1" t="s">
         <v>2373</v>
@@ -25831,7 +25835,7 @@
       </c>
       <c r="I315" s="1"/>
       <c r="J315" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="K315" s="1" t="s">
         <v>2373</v>
@@ -25888,7 +25892,7 @@
       </c>
       <c r="I316" s="1"/>
       <c r="J316" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="K316" s="1" t="s">
         <v>2373</v>
@@ -25945,7 +25949,7 @@
       </c>
       <c r="I317" s="1"/>
       <c r="J317" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="K317" s="1" t="s">
         <v>2373</v>
@@ -26002,7 +26006,7 @@
       </c>
       <c r="I318" s="1"/>
       <c r="J318" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="K318" s="1" t="s">
         <v>2373</v>
@@ -26059,7 +26063,7 @@
       </c>
       <c r="I319" s="1"/>
       <c r="J319" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="K319" s="1" t="s">
         <v>2373</v>
@@ -26296,7 +26300,7 @@
         <v>929</v>
       </c>
       <c r="K323" s="1" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="L323" s="1"/>
       <c r="M323" s="1"/>
@@ -34173,7 +34177,7 @@
         <v>2351</v>
       </c>
       <c r="L461" s="1" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="M461" s="1"/>
       <c r="N461" s="1"/>
@@ -34232,7 +34236,7 @@
         <v>2351</v>
       </c>
       <c r="L462" s="1" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="M462" s="1"/>
       <c r="N462" s="1"/>
@@ -37221,10 +37225,10 @@
         <v>1063</v>
       </c>
       <c r="K514" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="L514" s="1" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="Q514" s="1">
         <f t="shared" ca="1" si="478"/>
@@ -37327,7 +37331,7 @@
         <v>548</v>
       </c>
       <c r="L516" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="Q516" s="1">
         <f t="shared" ca="1" si="478"/>
@@ -37381,7 +37385,7 @@
         <v>548</v>
       </c>
       <c r="L517" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="Q517" s="1">
         <f t="shared" ca="1" si="478"/>
@@ -37435,7 +37439,7 @@
         <v>548</v>
       </c>
       <c r="L518" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="Q518" s="1">
         <f t="shared" ca="1" si="478"/>
@@ -37489,7 +37493,7 @@
         <v>548</v>
       </c>
       <c r="L519" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="Q519" s="1">
         <f t="shared" ca="1" si="478"/>
@@ -37543,7 +37547,7 @@
         <v>548</v>
       </c>
       <c r="L520" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="Q520" s="1">
         <f t="shared" ca="1" si="478"/>
@@ -37597,7 +37601,7 @@
         <v>548</v>
       </c>
       <c r="L521" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="Q521" s="1">
         <f t="shared" ca="1" si="478"/>
@@ -37651,7 +37655,7 @@
         <v>548</v>
       </c>
       <c r="L522" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="Q522" s="1">
         <f t="shared" ca="1" si="478"/>
@@ -37705,7 +37709,7 @@
         <v>548</v>
       </c>
       <c r="L523" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="Q523" s="1">
         <f t="shared" ca="1" si="478"/>
@@ -37756,7 +37760,7 @@
         <v>1072</v>
       </c>
       <c r="K524" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="L524" s="1" t="str">
         <f>L514</f>
@@ -37811,7 +37815,7 @@
         <v>1073</v>
       </c>
       <c r="K525" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="Q525" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -37911,7 +37915,7 @@
         <v>548</v>
       </c>
       <c r="L527" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="Q527" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -37965,7 +37969,7 @@
         <v>548</v>
       </c>
       <c r="L528" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="Q528" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -38019,7 +38023,7 @@
         <v>548</v>
       </c>
       <c r="L529" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="Q529" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -38073,7 +38077,7 @@
         <v>548</v>
       </c>
       <c r="L530" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="Q530" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -38127,7 +38131,7 @@
         <v>548</v>
       </c>
       <c r="L531" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="Q531" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -38181,7 +38185,7 @@
         <v>548</v>
       </c>
       <c r="L532" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="Q532" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -38235,7 +38239,7 @@
         <v>548</v>
       </c>
       <c r="L533" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="Q533" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -38289,7 +38293,7 @@
         <v>548</v>
       </c>
       <c r="L534" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="Q534" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -38340,7 +38344,7 @@
         <v>1087</v>
       </c>
       <c r="K535" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="L535" s="1" t="str">
         <f>L524</f>
@@ -38845,6 +38849,9 @@
       <c r="J545" s="1" t="s">
         <v>1922</v>
       </c>
+      <c r="K545" s="1" t="s">
+        <v>2342</v>
+      </c>
       <c r="Q545" s="1">
         <f t="shared" ca="1" si="546"/>
         <v>554</v>
@@ -38897,7 +38904,7 @@
         <v>548</v>
       </c>
       <c r="L546" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="Q546" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -38951,7 +38958,7 @@
         <v>548</v>
       </c>
       <c r="L547" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="Q547" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -39005,7 +39012,7 @@
         <v>548</v>
       </c>
       <c r="L548" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="Q548" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -39059,7 +39066,7 @@
         <v>548</v>
       </c>
       <c r="L549" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="Q549" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -39113,7 +39120,7 @@
         <v>548</v>
       </c>
       <c r="L550" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="Q550" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -39167,7 +39174,7 @@
         <v>548</v>
       </c>
       <c r="L551" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="Q551" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -39221,7 +39228,7 @@
         <v>548</v>
       </c>
       <c r="L552" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="Q552" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -39275,7 +39282,7 @@
         <v>548</v>
       </c>
       <c r="L553" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="Q553" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -40285,7 +40292,7 @@
         <v>546</v>
       </c>
       <c r="K573" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="Q573" s="1">
         <f t="shared" ca="1" si="546"/>
@@ -40339,7 +40346,7 @@
         <v>2351</v>
       </c>
       <c r="L574" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="Q574" s="1" t="e">
         <f t="shared" ca="1" si="546"/>
